--- a/D6_naar_D11_Content_Type_Mapping.xlsx
+++ b/D6_naar_D11_Content_Type_Mapping.xlsx
@@ -45,7 +45,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -104,6 +104,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009933CC"/>
+        <bgColor rgb="009933CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFCC"/>
+        <bgColor rgb="00FFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -177,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -227,6 +239,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -594,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -604,11 +628,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="60" customWidth="1" min="8" max="8"/>
   </cols>
@@ -6190,11 +6214,701 @@
         </is>
       </c>
     </row>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151">
+      <c r="A151" s="19">
+        <f>== WORKFLOW STATES MIGRATIE ===</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="12" t="inlineStr">
+        <is>
+          <t>D6 Workflow</t>
+        </is>
+      </c>
+      <c r="B152" s="12" t="inlineStr">
+        <is>
+          <t>D6 State</t>
+        </is>
+      </c>
+      <c r="C152" s="12" t="inlineStr">
+        <is>
+          <t>State ID</t>
+        </is>
+      </c>
+      <c r="D152" s="12" t="inlineStr">
+        <is>
+          <t>D11 Moderation State</t>
+        </is>
+      </c>
+      <c r="E152" s="12" t="inlineStr">
+        <is>
+          <t>Content Types</t>
+        </is>
+      </c>
+      <c r="F152" s="12" t="inlineStr">
+        <is>
+          <t>Opmerkingen</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="16" t="inlineStr">
+        <is>
+          <t>Workflow 1</t>
+        </is>
+      </c>
+      <c r="B153" s="17" t="inlineStr">
+        <is>
+          <t>(creation)</t>
+        </is>
+      </c>
+      <c r="C153" s="17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D153" s="17" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E153" s="17" t="inlineStr">
+        <is>
+          <t>nieuws, pagina, repertoire</t>
+        </is>
+      </c>
+      <c r="F153" s="17" t="inlineStr">
+        <is>
+          <t>Initiële creatie status</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="20" t="inlineStr">
+        <is>
+          <t>Workflow 1</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>Concept</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E154" s="17" t="inlineStr"/>
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>Draft/concept</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="16" t="inlineStr">
+        <is>
+          <t>Workflow 1</t>
+        </is>
+      </c>
+      <c r="B155" s="17" t="inlineStr">
+        <is>
+          <t>Gepubliceerd</t>
+        </is>
+      </c>
+      <c r="C155" s="17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D155" s="17" t="inlineStr">
+        <is>
+          <t>published</t>
+        </is>
+      </c>
+      <c r="E155" s="17" t="inlineStr"/>
+      <c r="F155" s="17" t="inlineStr">
+        <is>
+          <t>Gepubliceerd</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="20" t="inlineStr">
+        <is>
+          <t>Workflow 1</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>Archief</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>archived</t>
+        </is>
+      </c>
+      <c r="E156" s="17" t="inlineStr"/>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>Gearchiveerd</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="16" t="inlineStr">
+        <is>
+          <t>Workflow 1</t>
+        </is>
+      </c>
+      <c r="B157" s="17" t="inlineStr">
+        <is>
+          <t>Prullenmand</t>
+        </is>
+      </c>
+      <c r="C157" s="17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D157" s="17" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E157" s="17" t="inlineStr"/>
+      <c r="F157" s="17" t="inlineStr">
+        <is>
+          <t>Verwijderd (unpublish in D11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="20" t="inlineStr">
+        <is>
+          <t>Workflow 1</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>Aangeraden</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>published</t>
+        </is>
+      </c>
+      <c r="E158" s="17" t="inlineStr"/>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>Featured → Promoted to front page/aangeraden (D11: Promoted to front page)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="17" t="inlineStr"/>
+      <c r="B159" s="17" t="inlineStr"/>
+      <c r="C159" s="17" t="inlineStr"/>
+      <c r="D159" s="17" t="inlineStr"/>
+      <c r="E159" s="17" t="inlineStr"/>
+      <c r="F159" s="17" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="20" t="inlineStr">
+        <is>
+          <t>Workflow 3</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>(aanmaak)</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>activiteit</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>Initiële creatie</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="16" t="inlineStr">
+        <is>
+          <t>Workflow 3</t>
+        </is>
+      </c>
+      <c r="B161" s="17" t="inlineStr">
+        <is>
+          <t>Actief</t>
+        </is>
+      </c>
+      <c r="C161" s="17" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D161" s="17" t="inlineStr">
+        <is>
+          <t>published</t>
+        </is>
+      </c>
+      <c r="E161" s="17" t="inlineStr"/>
+      <c r="F161" s="17" t="inlineStr">
+        <is>
+          <t>Actieve activiteit</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="20" t="inlineStr">
+        <is>
+          <t>Workflow 3</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>Verlopen</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>archived</t>
+        </is>
+      </c>
+      <c r="E162" s="17" t="inlineStr"/>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>Verlopen activiteit</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="16" t="inlineStr">
+        <is>
+          <t>Workflow 3</t>
+        </is>
+      </c>
+      <c r="B163" s="17" t="inlineStr">
+        <is>
+          <t>Inactief</t>
+        </is>
+      </c>
+      <c r="C163" s="17" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D163" s="17" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E163" s="17" t="inlineStr"/>
+      <c r="F163" s="17" t="inlineStr">
+        <is>
+          <t>Inactieve activiteit</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="17" t="inlineStr"/>
+      <c r="B164" s="17" t="inlineStr"/>
+      <c r="C164" s="17" t="inlineStr"/>
+      <c r="D164" s="17" t="inlineStr"/>
+      <c r="E164" s="17" t="inlineStr"/>
+      <c r="F164" s="17" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="16" t="inlineStr">
+        <is>
+          <t>Workflow 4</t>
+        </is>
+      </c>
+      <c r="B165" s="17" t="inlineStr">
+        <is>
+          <t>(aanmaak)</t>
+        </is>
+      </c>
+      <c r="C165" s="17" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D165" s="17" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E165" s="17" t="inlineStr">
+        <is>
+          <t>locatie, programma</t>
+        </is>
+      </c>
+      <c r="F165" s="17" t="inlineStr">
+        <is>
+          <t>Initiële creatie</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="20" t="inlineStr">
+        <is>
+          <t>Workflow 4</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>Concept</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E166" s="17" t="inlineStr"/>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>Draft/concept</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="16" t="inlineStr">
+        <is>
+          <t>Workflow 4</t>
+        </is>
+      </c>
+      <c r="B167" s="17" t="inlineStr">
+        <is>
+          <t>Prullenmand</t>
+        </is>
+      </c>
+      <c r="C167" s="17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D167" s="17" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E167" s="17" t="inlineStr"/>
+      <c r="F167" s="17" t="inlineStr">
+        <is>
+          <t>Verwijderd</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="20" t="inlineStr">
+        <is>
+          <t>Workflow 4</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>Aangeraden</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>published</t>
+        </is>
+      </c>
+      <c r="E168" s="17" t="inlineStr"/>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>Featured → Promoted to front page</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="16" t="inlineStr">
+        <is>
+          <t>Workflow 4</t>
+        </is>
+      </c>
+      <c r="B169" s="17" t="inlineStr">
+        <is>
+          <t>Archief</t>
+        </is>
+      </c>
+      <c r="C169" s="17" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D169" s="17" t="inlineStr">
+        <is>
+          <t>archived</t>
+        </is>
+      </c>
+      <c r="E169" s="17" t="inlineStr"/>
+      <c r="F169" s="17" t="inlineStr">
+        <is>
+          <t>Gearchiveerd</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="20" t="inlineStr">
+        <is>
+          <t>Workflow 4</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>Geen Archief</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>published</t>
+        </is>
+      </c>
+      <c r="E170" s="17" t="inlineStr"/>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>Actief (niet archiveren)</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="16" t="inlineStr">
+        <is>
+          <t>Workflow 4</t>
+        </is>
+      </c>
+      <c r="B171" s="17" t="inlineStr">
+        <is>
+          <t>Gepubliceerd</t>
+        </is>
+      </c>
+      <c r="C171" s="17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D171" s="17" t="inlineStr">
+        <is>
+          <t>published</t>
+        </is>
+      </c>
+      <c r="E171" s="17" t="inlineStr"/>
+      <c r="F171" s="17" t="inlineStr">
+        <is>
+          <t>Gepubliceerd</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="17" t="inlineStr"/>
+      <c r="B172" s="17" t="inlineStr"/>
+      <c r="C172" s="17" t="inlineStr"/>
+      <c r="D172" s="17" t="inlineStr"/>
+      <c r="E172" s="17" t="inlineStr"/>
+      <c r="F172" s="17" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="16" t="inlineStr">
+        <is>
+          <t>Workflow 5</t>
+        </is>
+      </c>
+      <c r="B173" s="17" t="inlineStr">
+        <is>
+          <t>(aanmaak)</t>
+        </is>
+      </c>
+      <c r="C173" s="17" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D173" s="17" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E173" s="17" t="inlineStr">
+        <is>
+          <t>Album</t>
+        </is>
+      </c>
+      <c r="F173" s="17" t="inlineStr">
+        <is>
+          <t>Initiële creatie</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="20" t="inlineStr">
+        <is>
+          <t>Workflow 5</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>Gepubliceerd</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>published</t>
+        </is>
+      </c>
+      <c r="E174" s="17" t="inlineStr"/>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>Gepubliceerd</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="16" t="inlineStr">
+        <is>
+          <t>Workflow 5</t>
+        </is>
+      </c>
+      <c r="B175" s="17" t="inlineStr">
+        <is>
+          <t>Aangeraden</t>
+        </is>
+      </c>
+      <c r="C175" s="17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D175" s="17" t="inlineStr">
+        <is>
+          <t>published</t>
+        </is>
+      </c>
+      <c r="E175" s="17" t="inlineStr"/>
+      <c r="F175" s="17" t="inlineStr">
+        <is>
+          <t>Featured → Promoted to front page</t>
+        </is>
+      </c>
+    </row>
+    <row r="176"/>
+    <row r="177">
+      <c r="A177" s="21" t="inlineStr">
+        <is>
+          <t>MIGRATIE NOTITIES:</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>- D11 gebruikt Content Moderation met states: draft, published, archived</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>- 'Aangeraden' (Featured) → Promoted to front page (node-&gt;promote = 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>- 'Prullenmand' items worden unpublished (draft state)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>- Workflow 2 is disabled en hoeft niet gemigreerd</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>- Content types die NIET in lijst: gebruiken standaard published/unpublished</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H113"/>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="A182:F182"/>
+    <mergeCell ref="A177:F177"/>
+    <mergeCell ref="A178:F178"/>
+    <mergeCell ref="A181:F181"/>
     <mergeCell ref="A115:H115"/>
+    <mergeCell ref="A151:H151"/>
     <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="A180:F180"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/D6_naar_D11_Content_Type_Mapping.xlsx
+++ b/D6_naar_D11_Content_Type_Mapping.xlsx
@@ -45,7 +45,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -116,6 +116,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFCC"/>
         <bgColor rgb="00FFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6600"/>
+        <bgColor rgb="00FF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -189,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -252,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5103,7 +5112,6 @@
         </is>
       </c>
     </row>
-    <row r="114"/>
     <row r="115">
       <c r="A115" s="7">
         <f>== MEDIA ENTITY CUSTOM FIELDS ===</f>
@@ -5486,7 +5494,6 @@
         </is>
       </c>
     </row>
-    <row r="126"/>
     <row r="127">
       <c r="A127" s="8" t="inlineStr">
         <is>
@@ -5781,7 +5788,6 @@
       <c r="G135" s="14" t="n"/>
       <c r="H135" s="15" t="n"/>
     </row>
-    <row r="136"/>
     <row r="137">
       <c r="A137" s="16" t="inlineStr">
         <is>
@@ -6214,8 +6220,6 @@
         </is>
       </c>
     </row>
-    <row r="149"/>
-    <row r="150"/>
     <row r="151">
       <c r="A151" s="19">
         <f>== WORKFLOW STATES MIGRATIE ===</f>
@@ -6854,7 +6858,6 @@
         </is>
       </c>
     </row>
-    <row r="176"/>
     <row r="177">
       <c r="A177" s="21" t="inlineStr">
         <is>
@@ -6897,16 +6900,533 @@
         </is>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" s="23">
+        <f>== USER ROLES MIGRATIE ===</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="12" t="inlineStr">
+        <is>
+          <t>D6 Role</t>
+        </is>
+      </c>
+      <c r="B186" s="12" t="inlineStr">
+        <is>
+          <t>D11 Role (label)</t>
+        </is>
+      </c>
+      <c r="C186" s="12" t="inlineStr">
+        <is>
+          <t>D11 Machine Name</t>
+        </is>
+      </c>
+      <c r="D186" s="12" t="inlineStr">
+        <is>
+          <t>Opmerkingen</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="16" t="inlineStr">
+        <is>
+          <t>anonieme gebruiker</t>
+        </is>
+      </c>
+      <c r="B187" s="17" t="inlineStr">
+        <is>
+          <t>Anonieme gebruiker</t>
+        </is>
+      </c>
+      <c r="C187" s="17" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="D187" s="17" t="inlineStr">
+        <is>
+          <t>Standaard Drupal role</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="20" t="inlineStr">
+        <is>
+          <t>geverifieerde gebruiker</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>Geverifieerde gebruiker</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>authenticated</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>Standaard Drupal role</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="17" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B189" s="17" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="C189" s="17" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D189" s="17" t="inlineStr">
+        <is>
+          <t>Volledige systeem administratie</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>Aspirant-lid</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>Aspirant-lid</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>aspirant_lid</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>Aspirant koorlid</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="17" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="B191" s="17" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="C191" s="17" t="inlineStr">
+        <is>
+          <t>auteur</t>
+        </is>
+      </c>
+      <c r="D191" s="17" t="inlineStr">
+        <is>
+          <t>Content auteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>Band</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>Band</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>band</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>Bandlid toegang</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="17" t="inlineStr">
+        <is>
+          <t>Beheerder</t>
+        </is>
+      </c>
+      <c r="B193" s="17" t="inlineStr">
+        <is>
+          <t>Beheerder</t>
+        </is>
+      </c>
+      <c r="C193" s="17" t="inlineStr">
+        <is>
+          <t>beheerder</t>
+        </is>
+      </c>
+      <c r="D193" s="17" t="inlineStr">
+        <is>
+          <t>Site beheerder</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>Bestuur</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>Bestuur</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>bestuur</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>Bestuurslid toegang</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="17" t="inlineStr">
+        <is>
+          <t>Commissie Concerten</t>
+        </is>
+      </c>
+      <c r="B195" s="17" t="inlineStr">
+        <is>
+          <t>Commissie Concerten</t>
+        </is>
+      </c>
+      <c r="C195" s="17" t="inlineStr">
+        <is>
+          <t>commissie_concerten</t>
+        </is>
+      </c>
+      <c r="D195" s="17" t="inlineStr">
+        <is>
+          <t>Concerten commissie</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>Commissie Faciliteiten en Logistiek</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>Commissie Faciliteiten en Logistiek</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>commissie_faciliteiten</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>Faciliteiten en logistiek commissie</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="17" t="inlineStr">
+        <is>
+          <t>Commissie Interne Relaties</t>
+        </is>
+      </c>
+      <c r="B197" s="17" t="inlineStr">
+        <is>
+          <t>Commissie Interne Relaties</t>
+        </is>
+      </c>
+      <c r="C197" s="17" t="inlineStr">
+        <is>
+          <t>commissie_interne_relaties</t>
+        </is>
+      </c>
+      <c r="D197" s="17" t="inlineStr">
+        <is>
+          <t>Interne relaties commissie</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>Commissie Koorregie</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>Commissie Koorregie</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>commissie_koorregie</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>Koorregie commissie</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="17" t="inlineStr">
+        <is>
+          <t>Commissie Ledenwerving</t>
+        </is>
+      </c>
+      <c r="B199" s="17" t="inlineStr">
+        <is>
+          <t>Commissie Ledenwerving</t>
+        </is>
+      </c>
+      <c r="C199" s="17" t="inlineStr">
+        <is>
+          <t>commissie_ledenwerving</t>
+        </is>
+      </c>
+      <c r="D199" s="17" t="inlineStr">
+        <is>
+          <t>Ledenwerving commissie</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>Commissie Publieke Relaties</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>Commissie Publieke Relaties</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>commissie_publieke_relaties</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>PR commissie</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="17" t="inlineStr">
+        <is>
+          <t>Dirigent</t>
+        </is>
+      </c>
+      <c r="B201" s="17" t="inlineStr">
+        <is>
+          <t>Dirigent</t>
+        </is>
+      </c>
+      <c r="C201" s="17" t="inlineStr">
+        <is>
+          <t>dirigent</t>
+        </is>
+      </c>
+      <c r="D201" s="17" t="inlineStr">
+        <is>
+          <t>Dirigent toegang</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>Feestcommissie</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>Feestcommissie</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>feestcommissie</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>Feestcommissie</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="17" t="inlineStr">
+        <is>
+          <t>Lid</t>
+        </is>
+      </c>
+      <c r="B203" s="17" t="inlineStr">
+        <is>
+          <t>Lid</t>
+        </is>
+      </c>
+      <c r="C203" s="17" t="inlineStr">
+        <is>
+          <t>lid</t>
+        </is>
+      </c>
+      <c r="D203" s="17" t="inlineStr">
+        <is>
+          <t>Koorlid toegang</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>Muziekcommissie</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Muziekcommissie</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>muziekcommissie</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>Muziekcommissie toegang</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="17" t="inlineStr">
+        <is>
+          <t>Technische Commissie</t>
+        </is>
+      </c>
+      <c r="B205" s="17" t="inlineStr">
+        <is>
+          <t>Technische Commissie</t>
+        </is>
+      </c>
+      <c r="C205" s="17" t="inlineStr">
+        <is>
+          <t>technische_commissie</t>
+        </is>
+      </c>
+      <c r="D205" s="17" t="inlineStr">
+        <is>
+          <t>Technische commissie</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>Vriend</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Vriend</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>vriend</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>Vriend/sponsor toegang</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="21" t="inlineStr">
+        <is>
+          <t>MIGRATIE NOTITIES:</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="22" t="inlineStr">
+        <is>
+          <t>- Alle 20 roles worden gemigreerd naar D11</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="22" t="inlineStr">
+        <is>
+          <t>- Role IDs (D6) worden machine names (D11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="22" t="inlineStr">
+        <is>
+          <t>- Permissions moeten apart geconfigureerd worden in D11</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="22" t="inlineStr">
+        <is>
+          <t>- 'Toegang' taxonomy gebruikt deze roles voor content access control</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="22" t="inlineStr">
+        <is>
+          <t>- Machine names gebruiken underscore i.p.v. spaties</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H113"/>
-  <mergeCells count="9">
+  <mergeCells count="16">
     <mergeCell ref="A182:F182"/>
+    <mergeCell ref="A211:D211"/>
     <mergeCell ref="A177:F177"/>
     <mergeCell ref="A178:F178"/>
     <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A210:D210"/>
     <mergeCell ref="A115:H115"/>
     <mergeCell ref="A151:H151"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A185:H185"/>
+    <mergeCell ref="A212:D212"/>
     <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A208:D208"/>
     <mergeCell ref="A179:F179"/>
     <mergeCell ref="A180:F180"/>
   </mergeCells>

--- a/D6_naar_D11_Content_Type_Mapping.xlsx
+++ b/D6_naar_D11_Content_Type_Mapping.xlsx
@@ -627,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -636,8 +636,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="35" customWidth="1" min="5" max="5"/>
@@ -652,37 +652,37 @@
           <t>Content Type</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>D6 Veld</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>D6 Label</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>D6 Type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Field Group</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>D11 Veld</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>D11 Type</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Opmerkingen</t>
         </is>
@@ -694,33 +694,33 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Titel</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Standaard titel veld</t>
         </is>
@@ -732,33 +732,33 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Omschrijving</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>Text (formatted, long)</t>
         </is>
@@ -770,33 +770,33 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Datum en tijd</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -804,33 +804,33 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>field_activiteit_status</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Status activiteit</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>field_activiteit_status</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>List (text): definitief|Definitief</t>
         </is>
@@ -842,33 +842,33 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>field_activiteit_soort</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>Soort activiteit</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>field_activiteit_soort</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>List (text): Concours, Kerkelijk, Koorreis, Overige, Repetitie, Vakantie, Vergadering, Wereldlijk</t>
         </is>
@@ -880,33 +880,33 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>field_ledeninfo</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Informatie voor leden</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr"/>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>field_ledeninfo</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>Text (formatted, long)</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>Text area met text format filters (HTML ondersteuning)</t>
         </is>
@@ -918,25 +918,25 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>field_huiswerk</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>Huiswerk</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
-      <c r="H8" s="6" t="inlineStr">
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr">
         <is>
           <t>VERVALT in D11 - wordt Document media (type: Huiswerk) met field_ref_activiteit terug-verwijzing | Document media (type: Huiswerk) | Standaard toegang: Leden, Aspirant-Leden, Band</t>
         </is>
@@ -948,37 +948,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>field_afbeeldingen</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Afbeeldingen</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>group_images</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>field_afbeeldingen</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>media: image (Multiple values)</t>
         </is>
@@ -990,37 +990,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>field_background</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>Achtergrond</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>group_background</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>field_background</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>media: image | Single value (één achtergrondafbeelding)</t>
         </is>
@@ -1032,37 +1032,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>field_files</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>Bestandsbijlages</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>group_files</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>field_files</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>Document media (type: Overige) | Multiple values (multiple values) | Document media (type: Overige) | Toegang: overgenomen van parent content/media</t>
         </is>
@@ -1074,37 +1074,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>field_locatie</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>Locatie</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>group_datumtijd</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>field_locatie</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>Entity reference (node: locatie)</t>
         </is>
@@ -1116,37 +1116,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>field_l_bijzonderheden</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>Bijzonderheden locatie</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
           <t>group_datumtijd</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>field_locatie_bijzonderheden</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_locatie_bijzonderheden</t>
         </is>
@@ -1158,37 +1158,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>field_tijd_aanwezig</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>Koor Aanwezig</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>group_logistiek</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>field_koor_aanwezig</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_koor_aanwezig</t>
         </is>
@@ -1200,37 +1200,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>field_sleepgroep</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>Sleepgroep</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
           <t>group_logistiek</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>field_sleepgroep_heen</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H15" s="3" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>List (text): -, I, II, III, IV, V, * | D11: hernoemd naar field_sleepgroep_heen</t>
         </is>
@@ -1242,37 +1242,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>field_sleepgroep_terug</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>Sleepgroep terug</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>group_logistiek</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>field_sleepgroep_terug</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>List (text): -, I, II, III, IV, V, *</t>
         </is>
@@ -1284,37 +1284,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>field_vervoer</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>Karrijder</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
           <t>group_logistiek</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>field_activiteit_karrijder</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_activiteit_karrijder</t>
         </is>
@@ -1326,37 +1326,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>field_sleepgroep_aanwezig</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>Sleepgroep Aanwezig</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>group_logistiek</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>field_sleepgroep_aanwezig</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -1364,37 +1364,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>field_band</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>Band</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E19" s="6" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
           <t>group_band</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="G19" s="6" t="inlineStr">
         <is>
           <t>field_band</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Veld wordt niet gemigreerd (individuele bandleden-velden zijn voldoende)</t>
         </is>
@@ -1406,37 +1406,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>field_keyboard</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>Toetsenist</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>group_band</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>field_band_keyboard</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>List (text): +|Aanwezig, ?|Onbekend, -|Afwezig, v|Vervanging | D11: hernoemd naar field_band_keyboard</t>
         </is>
@@ -1448,37 +1448,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>field_gitaar</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>Gitarist</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
           <t>group_band</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="G21" s="3" t="inlineStr">
         <is>
           <t>field_band_gitaar</t>
         </is>
       </c>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="H21" s="3" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H21" s="3" t="inlineStr">
+      <c r="I21" s="3" t="inlineStr">
         <is>
           <t>List (text): +|Aanwezig, ?|Onbekend, -|Afwezig, v|Vervanging | D11: hernoemd naar field_band_gitaar</t>
         </is>
@@ -1490,37 +1490,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>field_basgitaar</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>Basgitarist</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>group_band</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>field_band_basgitaar</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>List (text): +|Aanwezig, ?|Onbekend, -|Afwezig, v|Vervanging | D11: hernoemd naar field_band_basgitaar</t>
         </is>
@@ -1532,37 +1532,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>field_drums</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>Drummer</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
           <t>group_band</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="G23" s="3" t="inlineStr">
         <is>
           <t>field_band_drums</t>
         </is>
       </c>
-      <c r="G23" s="3" t="inlineStr">
+      <c r="H23" s="3" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H23" s="3" t="inlineStr">
+      <c r="I23" s="3" t="inlineStr">
         <is>
           <t>List (text): +|Aanwezig, ?|Onbekend, -|Afwezig, v|Vervanging | D11: hernoemd naar field_band_drums</t>
         </is>
@@ -1574,37 +1574,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>field_percussie</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>Percusionist</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>group_band</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>field_band_percussie</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>List (text): +|Aanwezig, ?|Onbekend, -|Afwezig, v|Vervanging | D11: hernoemd naar field_band_percussie</t>
         </is>
@@ -1616,37 +1616,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>field_bijzonderheden</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>Bijzonderheden</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
           <t>group_bijzonderheden</t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr">
+      <c r="G25" s="3" t="inlineStr">
         <is>
           <t>field_bijzonderheden</t>
         </is>
       </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="inlineStr"/>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1654,37 +1654,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>field_kledingcode</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>Kledingcode</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>group_bijzonderheden</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>field_kledingcode</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -1692,37 +1692,37 @@
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>field_programma2</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>Programma</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>group_programma</t>
         </is>
       </c>
-      <c r="F27" s="3" t="inlineStr">
+      <c r="G27" s="3" t="inlineStr">
         <is>
           <t>field_programma</t>
         </is>
       </c>
-      <c r="G27" s="3" t="inlineStr">
+      <c r="H27" s="3" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H27" s="3" t="inlineStr">
+      <c r="I27" s="3" t="inlineStr">
         <is>
           <t>Entity reference (node: programma, repertoire) | Multiple values | Kan verwijzen naar zowel Programma als Repertoire nodes</t>
         </is>
@@ -1734,25 +1734,25 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
-      <c r="B28" s="6" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>Titel</t>
         </is>
       </c>
-      <c r="D28" s="6" t="inlineStr">
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="E28" s="6" t="inlineStr"/>
       <c r="F28" s="6" t="inlineStr"/>
       <c r="G28" s="6" t="inlineStr"/>
-      <c r="H28" s="6" t="inlineStr">
+      <c r="H28" s="6" t="inlineStr"/>
+      <c r="I28" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity</t>
         </is>
@@ -1764,33 +1764,33 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
-      <c r="B29" s="6" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>field_mp3</t>
         </is>
       </c>
-      <c r="C29" s="6" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t>mp3</t>
         </is>
       </c>
-      <c r="D29" s="6" t="inlineStr">
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E29" s="6" t="inlineStr"/>
-      <c r="F29" s="6" t="inlineStr">
+      <c r="F29" s="6" t="inlineStr"/>
+      <c r="G29" s="6" t="inlineStr">
         <is>
           <t>field_mp3</t>
         </is>
       </c>
-      <c r="G29" s="6" t="inlineStr">
+      <c r="H29" s="6" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H29" s="6" t="inlineStr">
+      <c r="I29" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity | media: audio</t>
         </is>
@@ -1802,33 +1802,33 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
-      <c r="B30" s="6" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>Nummer</t>
         </is>
       </c>
-      <c r="D30" s="6" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="E30" s="6" t="inlineStr"/>
-      <c r="F30" s="6" t="inlineStr">
+      <c r="F30" s="6" t="inlineStr"/>
+      <c r="G30" s="6" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="G30" s="6" t="inlineStr">
+      <c r="H30" s="6" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H30" s="6" t="inlineStr">
+      <c r="I30" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity | Entity reference (node: repertoire)</t>
         </is>
@@ -1840,29 +1840,29 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
-      <c r="B31" s="6" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
         <is>
           <t>field_audio_uitvoerende</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t>Uitvoerende</t>
         </is>
       </c>
-      <c r="D31" s="6" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E31" s="6" t="inlineStr"/>
-      <c r="F31" s="6" t="inlineStr">
+      <c r="E31" s="6" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F31" s="6" t="inlineStr"/>
+      <c r="G31" s="6" t="inlineStr">
         <is>
           <t>field_media_uitvoerende</t>
         </is>
       </c>
-      <c r="G31" s="6" t="inlineStr"/>
-      <c r="H31" s="6" t="inlineStr">
+      <c r="H31" s="6" t="inlineStr"/>
+      <c r="I31" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity | D11: hernoemd naar field_media_uitvoerende</t>
         </is>
@@ -1874,33 +1874,33 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
-      <c r="B32" s="6" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>field_audio_type</t>
         </is>
       </c>
-      <c r="C32" s="6" t="inlineStr">
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D32" s="6" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E32" s="6" t="inlineStr"/>
-      <c r="F32" s="6" t="inlineStr">
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F32" s="6" t="inlineStr"/>
+      <c r="G32" s="6" t="inlineStr">
         <is>
           <t>field_media_type</t>
         </is>
       </c>
-      <c r="G32" s="6" t="inlineStr">
+      <c r="H32" s="6" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H32" s="6" t="inlineStr">
+      <c r="I32" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity | List (text): Uitvoering, Repetitie, Oefenbestand, Origineel, Uitzending, Overig | D11: hernoemd naar field_media_type</t>
         </is>
@@ -1912,25 +1912,25 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
-      <c r="B33" s="6" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
         <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="C33" s="6" t="inlineStr">
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="D33" s="6" t="inlineStr">
+      <c r="E33" s="6" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
-      <c r="H33" s="6" t="inlineStr">
+      <c r="H33" s="6" t="inlineStr"/>
+      <c r="I33" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity</t>
         </is>
@@ -1942,29 +1942,29 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
-      <c r="B34" s="6" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>field_audio_bijz</t>
         </is>
       </c>
-      <c r="C34" s="6" t="inlineStr">
+      <c r="D34" s="6" t="inlineStr">
         <is>
           <t>Bijzonderheden</t>
         </is>
       </c>
-      <c r="D34" s="6" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E34" s="6" t="inlineStr"/>
-      <c r="F34" s="6" t="inlineStr">
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="inlineStr"/>
+      <c r="G34" s="6" t="inlineStr">
         <is>
           <t>field_media_bijzonderheden</t>
         </is>
       </c>
-      <c r="G34" s="6" t="inlineStr"/>
-      <c r="H34" s="6" t="inlineStr">
+      <c r="H34" s="6" t="inlineStr"/>
+      <c r="I34" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity | D11: hernoemd naar field_media_bijzonderheden</t>
         </is>
@@ -1976,33 +1976,33 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
-      <c r="B35" s="6" t="inlineStr">
+      <c r="C35" s="6" t="inlineStr">
         <is>
           <t>field_ref_activiteit</t>
         </is>
       </c>
-      <c r="C35" s="6" t="inlineStr">
+      <c r="D35" s="6" t="inlineStr">
         <is>
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="D35" s="6" t="inlineStr">
+      <c r="E35" s="6" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="E35" s="6" t="inlineStr"/>
-      <c r="F35" s="6" t="inlineStr">
+      <c r="F35" s="6" t="inlineStr"/>
+      <c r="G35" s="6" t="inlineStr">
         <is>
           <t>field_activiteit</t>
         </is>
       </c>
-      <c r="G35" s="6" t="inlineStr">
+      <c r="H35" s="6" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H35" s="6" t="inlineStr">
+      <c r="I35" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity | Entity reference (node: activiteit) | D11: hernoemd naar field_activiteit</t>
         </is>
@@ -2014,33 +2014,33 @@
           <t>Album (was: Foto)</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>Titel</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
         <is>
           <t>Standaard titel veld</t>
         </is>
@@ -2052,33 +2052,33 @@
           <t>Album (was: Foto)</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E37" s="3" t="inlineStr"/>
-      <c r="F37" s="3" t="inlineStr">
+      <c r="F37" s="3" t="inlineStr"/>
+      <c r="G37" s="3" t="inlineStr">
         <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="G37" s="3" t="inlineStr">
+      <c r="H37" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="H37" s="3" t="inlineStr"/>
+      <c r="I37" s="3" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2086,33 +2086,33 @@
           <t>Album (was: Foto)</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>Omschrijving</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
         <is>
           <t>Text (formatted, long)</t>
         </is>
@@ -2124,37 +2124,37 @@
           <t>Album (was: Foto)</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>field_afbeeldingen</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>Afbeeldingen</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E39" s="3" t="inlineStr">
+      <c r="F39" s="3" t="inlineStr">
         <is>
           <t>group_afbeelding</t>
         </is>
       </c>
-      <c r="F39" s="3" t="inlineStr">
+      <c r="G39" s="3" t="inlineStr">
         <is>
           <t>field_afbeeldingen</t>
         </is>
       </c>
-      <c r="G39" s="3" t="inlineStr">
+      <c r="H39" s="3" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H39" s="3" t="inlineStr">
+      <c r="I39" s="3" t="inlineStr">
         <is>
           <t>media: image (Multiple values)</t>
         </is>
@@ -2166,37 +2166,37 @@
           <t>Album (was: Foto)</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>field_audio_type</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
           <t>group_activiteiten</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr">
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>field_media_type</t>
         </is>
       </c>
-      <c r="G40" s="2" t="inlineStr">
+      <c r="H40" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H40" s="2" t="inlineStr">
+      <c r="I40" s="2" t="inlineStr">
         <is>
           <t>List (text): Uitvoering, Repetitie, Oefenbestand, Origineel, Uitzending, Overig | D11: hernoemd naar field_media_type</t>
         </is>
@@ -2208,37 +2208,37 @@
           <t>Album (was: Foto)</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>field_ref_activiteit</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr">
+      <c r="F41" s="3" t="inlineStr">
         <is>
           <t>group_activiteiten</t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr">
+      <c r="G41" s="3" t="inlineStr">
         <is>
           <t>field_activiteit</t>
         </is>
       </c>
-      <c r="G41" s="3" t="inlineStr">
+      <c r="H41" s="3" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H41" s="3" t="inlineStr">
+      <c r="I41" s="3" t="inlineStr">
         <is>
           <t>Entity reference (node: activiteit) | D11: hernoemd naar field_activiteit</t>
         </is>
@@ -2250,33 +2250,33 @@
           <t>Locatie</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>Titel</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
         <is>
           <t>Standaard titel veld</t>
         </is>
@@ -2288,33 +2288,33 @@
           <t>Locatie</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>field_l_adres</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>Adres</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="inlineStr"/>
-      <c r="F43" s="3" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr"/>
+      <c r="G43" s="3" t="inlineStr">
         <is>
           <t>field_locatie_adres</t>
         </is>
       </c>
-      <c r="G43" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_locatie_adres</t>
         </is>
@@ -2326,33 +2326,33 @@
           <t>Locatie</t>
         </is>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>field_l_postcode</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>Postcode</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>field_locatie_postcode</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_locatie_postcode</t>
         </is>
@@ -2364,33 +2364,33 @@
           <t>Locatie</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>field_l_plaats</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>Plaats</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr"/>
-      <c r="F45" s="3" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr"/>
+      <c r="G45" s="3" t="inlineStr">
         <is>
           <t>field_locatie_plaats</t>
         </is>
       </c>
-      <c r="G45" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H45" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I45" s="3" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_locatie_plaats</t>
         </is>
@@ -2402,33 +2402,33 @@
           <t>Locatie</t>
         </is>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>field_l_routelink</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="D46" s="2" t="inlineStr">
         <is>
           <t>Route</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr">
         <is>
           <t>field_locatie_routelink</t>
         </is>
       </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="H46" s="2" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr">
+      <c r="I46" s="2" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_locatie_routelink</t>
         </is>
@@ -2440,33 +2440,33 @@
           <t>Nieuws</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>Titel</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
         <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr"/>
-      <c r="F47" s="3" t="inlineStr">
+      <c r="F47" s="3" t="inlineStr"/>
+      <c r="G47" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I47" s="3" t="inlineStr">
         <is>
           <t>Standaard titel veld</t>
         </is>
@@ -2478,33 +2478,33 @@
           <t>Nieuws</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="D48" s="2" t="inlineStr">
         <is>
           <t>Berichttekst</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
         <is>
           <t>Text (formatted, long)</t>
         </is>
@@ -2516,33 +2516,33 @@
           <t>Nieuws</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>field_ref_activiteit</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr">
+      <c r="E49" s="3" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="E49" s="3" t="inlineStr"/>
-      <c r="F49" s="3" t="inlineStr">
+      <c r="F49" s="3" t="inlineStr"/>
+      <c r="G49" s="3" t="inlineStr">
         <is>
           <t>field_activiteit</t>
         </is>
       </c>
-      <c r="G49" s="3" t="inlineStr">
+      <c r="H49" s="3" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H49" s="3" t="inlineStr">
+      <c r="I49" s="3" t="inlineStr">
         <is>
           <t>Entity reference (node: activiteit) | D11: hernoemd naar field_activiteit</t>
         </is>
@@ -2554,37 +2554,37 @@
           <t>Nieuws</t>
         </is>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>field_afbeeldingen</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="D50" s="2" t="inlineStr">
         <is>
           <t>Afbeeldingen</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
         <is>
           <t>group_files</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>field_afbeeldingen</t>
         </is>
       </c>
-      <c r="G50" s="2" t="inlineStr">
+      <c r="H50" s="2" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H50" s="2" t="inlineStr">
+      <c r="I50" s="2" t="inlineStr">
         <is>
           <t>media: image (Multiple values)</t>
         </is>
@@ -2596,37 +2596,37 @@
           <t>Nieuws</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>field_files</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>Bestandsbijlages</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
+      <c r="E51" s="3" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="F51" s="3" t="inlineStr">
         <is>
           <t>group_files</t>
         </is>
       </c>
-      <c r="F51" s="3" t="inlineStr">
+      <c r="G51" s="3" t="inlineStr">
         <is>
           <t>field_files</t>
         </is>
       </c>
-      <c r="G51" s="3" t="inlineStr">
+      <c r="H51" s="3" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H51" s="3" t="inlineStr">
+      <c r="I51" s="3" t="inlineStr">
         <is>
           <t>Document media (type: Overige) | Multiple values (multiple values) | Document media (type: Overige) | Toegang: overgenomen van parent content/media</t>
         </is>
@@ -2638,33 +2638,33 @@
           <t>Pagina</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="D52" s="2" t="inlineStr">
         <is>
           <t>Titel</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
         <is>
           <t>Standaard titel veld</t>
         </is>
@@ -2676,33 +2676,33 @@
           <t>Pagina</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>Berichttekst</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
+      <c r="E53" s="3" t="inlineStr">
         <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="E53" s="3" t="inlineStr"/>
-      <c r="F53" s="3" t="inlineStr">
+      <c r="F53" s="3" t="inlineStr"/>
+      <c r="G53" s="3" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="G53" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I53" s="3" t="inlineStr">
         <is>
           <t>Text (formatted, long)</t>
         </is>
@@ -2714,37 +2714,37 @@
           <t>Pagina</t>
         </is>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>field_afbeeldingen</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="D54" s="2" t="inlineStr">
         <is>
           <t>Afbeeldingen</t>
         </is>
       </c>
-      <c r="D54" s="2" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>group_files</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="G54" s="2" t="inlineStr">
         <is>
           <t>field_afbeeldingen</t>
         </is>
       </c>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="H54" s="2" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H54" s="2" t="inlineStr">
+      <c r="I54" s="2" t="inlineStr">
         <is>
           <t>media: image (Multiple values)</t>
         </is>
@@ -2756,37 +2756,37 @@
           <t>Pagina</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>field_files</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>Bestandsbijlages</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
+      <c r="E55" s="3" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="F55" s="3" t="inlineStr">
         <is>
           <t>group_files</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr">
+      <c r="G55" s="3" t="inlineStr">
         <is>
           <t>field_files</t>
         </is>
       </c>
-      <c r="G55" s="3" t="inlineStr">
+      <c r="H55" s="3" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H55" s="3" t="inlineStr">
+      <c r="I55" s="3" t="inlineStr">
         <is>
           <t>Document media (type: Overige) | Multiple values (multiple values) | Document media (type: Overige) | Toegang: overgenomen van parent content/media</t>
         </is>
@@ -2798,37 +2798,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>field_voornaam</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="D56" s="2" t="inlineStr">
         <is>
           <t>Voornaam</t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
           <t>persoonlijk</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="G56" s="2" t="inlineStr">
         <is>
           <t>field_voornaam</t>
         </is>
       </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
         <is>
           <t>Wordt user field in D11 (niet content type)</t>
         </is>
@@ -2840,37 +2840,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>field_achternaam_voorvoegsel</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>Achternaam voorvoegsel</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
           <t>persoonlijk</t>
         </is>
       </c>
-      <c r="F57" s="3" t="inlineStr">
+      <c r="G57" s="3" t="inlineStr">
         <is>
           <t>field_achternaam_voorvoegsel</t>
         </is>
       </c>
-      <c r="G57" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H57" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I57" s="3" t="inlineStr">
         <is>
           <t>Wordt user field in D11 (niet content type)</t>
         </is>
@@ -2882,37 +2882,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>field_achternaam</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="D58" s="2" t="inlineStr">
         <is>
           <t>Achternaam</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
           <t>persoonlijk</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="G58" s="2" t="inlineStr">
         <is>
           <t>field_achternaam</t>
         </is>
       </c>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
         <is>
           <t>Wordt user field in D11 (niet content type)</t>
         </is>
@@ -2924,37 +2924,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B59" s="3" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>field_adres</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>Adres</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
           <t>persoonlijk</t>
         </is>
       </c>
-      <c r="F59" s="3" t="inlineStr">
+      <c r="G59" s="3" t="inlineStr">
         <is>
           <t>field_adres</t>
         </is>
       </c>
-      <c r="G59" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H59" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I59" s="3" t="inlineStr">
         <is>
           <t>Wordt user field in D11 (niet content type)</t>
         </is>
@@ -2966,37 +2966,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>field_postcode</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="D60" s="2" t="inlineStr">
         <is>
           <t>Postcode</t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
           <t>persoonlijk</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
+      <c r="G60" s="2" t="inlineStr">
         <is>
           <t>field_postcode</t>
         </is>
       </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
         <is>
           <t>Wordt user field in D11 (niet content type)</t>
         </is>
@@ -3008,37 +3008,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>field_woonplaats</t>
         </is>
       </c>
-      <c r="C61" s="3" t="inlineStr">
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>Woonplaats</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
           <t>persoonlijk</t>
         </is>
       </c>
-      <c r="F61" s="3" t="inlineStr">
+      <c r="G61" s="3" t="inlineStr">
         <is>
           <t>field_woonplaats</t>
         </is>
       </c>
-      <c r="G61" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H61" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I61" s="3" t="inlineStr">
         <is>
           <t>Wordt user field in D11 (niet content type)</t>
         </is>
@@ -3050,37 +3050,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>field_telefoon</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="D62" s="2" t="inlineStr">
         <is>
           <t>Telefoon</t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
           <t>persoonlijk</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="G62" s="2" t="inlineStr">
         <is>
           <t>field_telefoon</t>
         </is>
       </c>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
         <is>
           <t>Wordt user field in D11 (niet content type)</t>
         </is>
@@ -3092,37 +3092,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B63" s="3" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>field_mobiel</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
+      <c r="D63" s="3" t="inlineStr">
         <is>
           <t>Mobiel</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
           <t>persoonlijk</t>
         </is>
       </c>
-      <c r="F63" s="3" t="inlineStr">
+      <c r="G63" s="3" t="inlineStr">
         <is>
           <t>field_mobiel</t>
         </is>
       </c>
-      <c r="G63" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H63" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I63" s="3" t="inlineStr">
         <is>
           <t>Wordt user field in D11 (niet content type)</t>
         </is>
@@ -3134,37 +3134,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>field_geslacht</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="D64" s="2" t="inlineStr">
         <is>
           <t>Geslacht</t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
           <t>persoonlijk</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
+      <c r="G64" s="2" t="inlineStr">
         <is>
           <t>field_geslacht</t>
         </is>
       </c>
-      <c r="G64" s="2" t="inlineStr">
+      <c r="H64" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H64" s="2" t="inlineStr">
+      <c r="I64" s="2" t="inlineStr">
         <is>
           <t>List (text): m|Man, v|Vrouw | Wordt user field in D11 (niet content type)</t>
         </is>
@@ -3176,37 +3176,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="C65" s="3" t="inlineStr">
         <is>
           <t>field_geboortedatum</t>
         </is>
       </c>
-      <c r="C65" s="3" t="inlineStr">
+      <c r="D65" s="3" t="inlineStr">
         <is>
           <t>Geboortedatum</t>
         </is>
       </c>
-      <c r="D65" s="3" t="inlineStr">
+      <c r="E65" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="F65" s="3" t="inlineStr">
         <is>
           <t>persoonlijk</t>
         </is>
       </c>
-      <c r="F65" s="3" t="inlineStr">
+      <c r="G65" s="3" t="inlineStr">
         <is>
           <t>field_geboortedatum</t>
         </is>
       </c>
-      <c r="G65" s="3" t="inlineStr">
+      <c r="H65" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="H65" s="3" t="inlineStr">
+      <c r="I65" s="3" t="inlineStr">
         <is>
           <t>Wordt user field in D11 (niet content type)</t>
         </is>
@@ -3218,37 +3218,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>field_lidssinds</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="D66" s="2" t="inlineStr">
         <is>
           <t>Lid Sinds</t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E66" s="2" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr">
         <is>
           <t>koor</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr">
+      <c r="G66" s="2" t="inlineStr">
         <is>
           <t>field_lid_start</t>
         </is>
       </c>
-      <c r="G66" s="2" t="inlineStr">
+      <c r="H66" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="H66" s="2" t="inlineStr">
+      <c r="I66" s="2" t="inlineStr">
         <is>
           <t>Wordt user field in D11 (niet content type) | D11: hernoemd naar field_lid_start</t>
         </is>
@@ -3260,37 +3260,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B67" s="3" t="inlineStr">
+      <c r="C67" s="3" t="inlineStr">
         <is>
           <t>field_uitkoor</t>
         </is>
       </c>
-      <c r="C67" s="3" t="inlineStr">
+      <c r="D67" s="3" t="inlineStr">
         <is>
           <t>Uit koor per</t>
         </is>
       </c>
-      <c r="D67" s="3" t="inlineStr">
+      <c r="E67" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E67" s="3" t="inlineStr">
+      <c r="F67" s="3" t="inlineStr">
         <is>
           <t>koor</t>
         </is>
       </c>
-      <c r="F67" s="3" t="inlineStr">
+      <c r="G67" s="3" t="inlineStr">
         <is>
           <t>field_lid_stop</t>
         </is>
       </c>
-      <c r="G67" s="3" t="inlineStr">
+      <c r="H67" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="H67" s="3" t="inlineStr">
+      <c r="I67" s="3" t="inlineStr">
         <is>
           <t>Wordt user field in D11 (niet content type) | D11: hernoemd naar field_lid_stop</t>
         </is>
@@ -3302,37 +3302,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>field_koor</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="D68" s="2" t="inlineStr">
         <is>
           <t>Koorfunctie</t>
         </is>
       </c>
-      <c r="D68" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
           <t>koor</t>
         </is>
       </c>
-      <c r="F68" s="2" t="inlineStr">
+      <c r="G68" s="2" t="inlineStr">
         <is>
           <t>field_koorfunctie</t>
         </is>
       </c>
-      <c r="G68" s="2" t="inlineStr">
+      <c r="H68" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H68" s="2" t="inlineStr">
+      <c r="I68" s="2" t="inlineStr">
         <is>
           <t>List (text): B|Bas, A|Tenor, E|Alt, C|1e Sopraan, D|2e Sopraan, Y1|Dirigent, Z1|Toetsenist, Z2|Gitarist, Z3|Bassist, Z4|Drummer, Z5|Percussie | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_koorfunctie</t>
         </is>
@@ -3344,37 +3344,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="C69" s="3" t="inlineStr">
         <is>
           <t>field_sleepgroep_1</t>
         </is>
       </c>
-      <c r="C69" s="3" t="inlineStr">
+      <c r="D69" s="3" t="inlineStr">
         <is>
           <t>Sleepgroep</t>
         </is>
       </c>
-      <c r="D69" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
           <t>koor</t>
         </is>
       </c>
-      <c r="F69" s="3" t="inlineStr">
+      <c r="G69" s="3" t="inlineStr">
         <is>
           <t>field_sleepgroep</t>
         </is>
       </c>
-      <c r="G69" s="3" t="inlineStr">
+      <c r="H69" s="3" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H69" s="3" t="inlineStr">
+      <c r="I69" s="3" t="inlineStr">
         <is>
           <t>List (text): 1|I, 2|II, 3|III, 4|IV, 5|V, 8|OG, 9|- | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_sleepgroep</t>
         </is>
@@ -3386,37 +3386,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>field_karrijder</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="D70" s="2" t="inlineStr">
         <is>
           <t>Karrijder</t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
           <t>koor</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="G70" s="2" t="inlineStr">
         <is>
           <t>field_karrijder</t>
         </is>
       </c>
-      <c r="G70" s="2" t="inlineStr">
+      <c r="H70" s="2" t="inlineStr">
         <is>
           <t>Boolean</t>
         </is>
       </c>
-      <c r="H70" s="2" t="inlineStr">
+      <c r="I70" s="2" t="inlineStr">
         <is>
           <t>Wordt user field in D11 (niet content type) | Boolean (checkbox: aan/uit)</t>
         </is>
@@ -3428,37 +3428,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="C71" s="3" t="inlineStr">
         <is>
           <t>field_positie_rij</t>
         </is>
       </c>
-      <c r="C71" s="3" t="inlineStr">
+      <c r="D71" s="3" t="inlineStr">
         <is>
           <t>Positie rij</t>
         </is>
       </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
           <t>koor</t>
         </is>
       </c>
-      <c r="F71" s="3" t="inlineStr">
+      <c r="G71" s="3" t="inlineStr">
         <is>
           <t>field_positie_rij</t>
         </is>
       </c>
-      <c r="G71" s="3" t="inlineStr">
+      <c r="H71" s="3" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H71" s="3" t="inlineStr">
+      <c r="I71" s="3" t="inlineStr">
         <is>
           <t>List (text): R4|Rij 4, R3|Rij 3, R2|Rij 2, R1|Rij 1, RB|Band, RD|Dirigent, RND|Niet ingedeeld | Wordt user field in D11 (niet content type)</t>
         </is>
@@ -3470,37 +3470,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>field_positie_kolom</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="D72" s="2" t="inlineStr">
         <is>
           <t>Positie kolom</t>
         </is>
       </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
           <t>koor</t>
         </is>
       </c>
-      <c r="F72" s="2" t="inlineStr">
+      <c r="G72" s="2" t="inlineStr">
         <is>
           <t>field_positie_kolom</t>
         </is>
       </c>
-      <c r="G72" s="2" t="inlineStr">
+      <c r="H72" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H72" s="2" t="inlineStr">
+      <c r="I72" s="2" t="inlineStr">
         <is>
           <t>List (text): K01|Kolom 1, K02|Kolom 2, K03|Kolom 3, K04|Kolom 4, K05|Kolom 5, K06|Kolom 6, K07|Kolom 7, K08|Kolom 8, K09|Kolom 9, K10|Kolom 10, K11|Kolom 11, K12|Kolom 12, K13|Kolom 13, K14|Kolom 14, K15|Kolom 15, K16|Kolom 16 | Wordt user field in D11 (niet content type)</t>
         </is>
@@ -3512,37 +3512,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B73" s="3" t="inlineStr">
+      <c r="C73" s="3" t="inlineStr">
         <is>
           <t>field_functie_bestuur</t>
         </is>
       </c>
-      <c r="C73" s="3" t="inlineStr">
+      <c r="D73" s="3" t="inlineStr">
         <is>
           <t>Functie Bestuur</t>
         </is>
       </c>
-      <c r="D73" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
           <t>commissies</t>
         </is>
       </c>
-      <c r="F73" s="3" t="inlineStr">
+      <c r="G73" s="3" t="inlineStr">
         <is>
           <t>field_functie_bestuur</t>
         </is>
       </c>
-      <c r="G73" s="3" t="inlineStr">
+      <c r="H73" s="3" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H73" s="3" t="inlineStr">
+      <c r="I73" s="3" t="inlineStr">
         <is>
           <t>List (text): 1|Voorzitter, 2|Secretaris, 3|Penningmeester, 4|Bestuurslid | Wordt user field in D11 (niet content type)</t>
         </is>
@@ -3554,37 +3554,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="C74" s="2" t="inlineStr">
         <is>
           <t>field_functie_mc</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="D74" s="2" t="inlineStr">
         <is>
           <t>Functie Muziekcommissie</t>
         </is>
       </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
           <t>commissies</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr">
+      <c r="G74" s="2" t="inlineStr">
         <is>
           <t>field_functie_muziekcommissie</t>
         </is>
       </c>
-      <c r="G74" s="2" t="inlineStr">
+      <c r="H74" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H74" s="2" t="inlineStr">
+      <c r="I74" s="2" t="inlineStr">
         <is>
           <t>List (text): 1|Bestuurslid, 10|Voorzitter, 20|Secretaris, 30|Dirigent, 40|Contactpersoon band, 90|Lid | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_functie_muziekcommissie</t>
         </is>
@@ -3596,37 +3596,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B75" s="3" t="inlineStr">
+      <c r="C75" s="3" t="inlineStr">
         <is>
           <t>field_functie_concert</t>
         </is>
       </c>
-      <c r="C75" s="3" t="inlineStr">
+      <c r="D75" s="3" t="inlineStr">
         <is>
           <t>Functie Commissie Concerten</t>
         </is>
       </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="inlineStr">
+        <is>
           <t>commissies</t>
         </is>
       </c>
-      <c r="F75" s="3" t="inlineStr">
+      <c r="G75" s="3" t="inlineStr">
         <is>
           <t>field_functie_concert</t>
         </is>
       </c>
-      <c r="G75" s="3" t="inlineStr">
+      <c r="H75" s="3" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H75" s="3" t="inlineStr">
+      <c r="I75" s="3" t="inlineStr">
         <is>
           <t>List (text): 1|Bestuurslid, 10|Lid | Wordt user field in D11 (niet content type)</t>
         </is>
@@ -3638,37 +3638,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>field_functie_pr</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="D76" s="2" t="inlineStr">
         <is>
           <t>Functie Commissie PR</t>
         </is>
       </c>
-      <c r="D76" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
           <t>commissies</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
+      <c r="G76" s="2" t="inlineStr">
         <is>
           <t>field_functie_pr</t>
         </is>
       </c>
-      <c r="G76" s="2" t="inlineStr">
+      <c r="H76" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H76" s="2" t="inlineStr">
+      <c r="I76" s="2" t="inlineStr">
         <is>
           <t>List (text): 1|Bestuurslid, 8|Website, 9|Social Media, 10|Lid | Wordt user field in D11 (niet content type)</t>
         </is>
@@ -3680,37 +3680,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B77" s="3" t="inlineStr">
+      <c r="C77" s="3" t="inlineStr">
         <is>
           <t>field_functie_feest</t>
         </is>
       </c>
-      <c r="C77" s="3" t="inlineStr">
+      <c r="D77" s="3" t="inlineStr">
         <is>
           <t>Functie Feestcommissie</t>
         </is>
       </c>
-      <c r="D77" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
           <t>commissies</t>
         </is>
       </c>
-      <c r="F77" s="3" t="inlineStr">
+      <c r="G77" s="3" t="inlineStr">
         <is>
           <t>field_functie_feest</t>
         </is>
       </c>
-      <c r="G77" s="3" t="inlineStr">
+      <c r="H77" s="3" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H77" s="3" t="inlineStr">
+      <c r="I77" s="3" t="inlineStr">
         <is>
           <t>List (text): 1|Bestuurslid, 10|Lid | Wordt user field in D11 (niet content type)</t>
         </is>
@@ -3722,37 +3722,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>field_functie_regie</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="D78" s="2" t="inlineStr">
         <is>
           <t>Functie Commissie Koorregie</t>
         </is>
       </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
           <t>commissies</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="G78" s="2" t="inlineStr">
         <is>
           <t>field_functie_regie</t>
         </is>
       </c>
-      <c r="G78" s="2" t="inlineStr">
+      <c r="H78" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H78" s="2" t="inlineStr">
+      <c r="I78" s="2" t="inlineStr">
         <is>
           <t>List (text): 1|Bestuurslid, 10|Lid | Wordt user field in D11 (niet content type)</t>
         </is>
@@ -3764,37 +3764,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B79" s="3" t="inlineStr">
+      <c r="C79" s="3" t="inlineStr">
         <is>
           <t>field_functie_ir</t>
         </is>
       </c>
-      <c r="C79" s="3" t="inlineStr">
+      <c r="D79" s="3" t="inlineStr">
         <is>
           <t>Functie Commissie Interne Relaties</t>
         </is>
       </c>
-      <c r="D79" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
           <t>commissies</t>
         </is>
       </c>
-      <c r="F79" s="3" t="inlineStr">
+      <c r="G79" s="3" t="inlineStr">
         <is>
           <t>field_functie_interne_relaties</t>
         </is>
       </c>
-      <c r="G79" s="3" t="inlineStr">
+      <c r="H79" s="3" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H79" s="3" t="inlineStr">
+      <c r="I79" s="3" t="inlineStr">
         <is>
           <t>List (text): 1|Bestuurslid, 10|Lid, 11|Interne relaties | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_functie_interne_relaties</t>
         </is>
@@ -3806,37 +3806,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>field_functie_tec</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="D80" s="2" t="inlineStr">
         <is>
           <t>Functie Technische Commissie</t>
         </is>
       </c>
-      <c r="D80" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
           <t>commissies</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="G80" s="2" t="inlineStr">
         <is>
           <t>field_functie_technisch</t>
         </is>
       </c>
-      <c r="G80" s="2" t="inlineStr">
+      <c r="H80" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H80" s="2" t="inlineStr">
+      <c r="I80" s="2" t="inlineStr">
         <is>
           <t>List (text): 1|Bestuurslid, 10|Lid | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_functie_technisch</t>
         </is>
@@ -3848,37 +3848,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B81" s="3" t="inlineStr">
+      <c r="C81" s="3" t="inlineStr">
         <is>
           <t>field_functie_lw</t>
         </is>
       </c>
-      <c r="C81" s="3" t="inlineStr">
+      <c r="D81" s="3" t="inlineStr">
         <is>
           <t>Functie ledenwerf</t>
         </is>
       </c>
-      <c r="D81" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
           <t>commissies</t>
         </is>
       </c>
-      <c r="F81" s="3" t="inlineStr">
+      <c r="G81" s="3" t="inlineStr">
         <is>
           <t>field_functie_ledenwerving</t>
         </is>
       </c>
-      <c r="G81" s="3" t="inlineStr">
+      <c r="H81" s="3" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H81" s="3" t="inlineStr">
+      <c r="I81" s="3" t="inlineStr">
         <is>
           <t>List (text): 1|Bestuurslid, 10|Lid | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_functie_ledenwerving</t>
         </is>
@@ -3890,37 +3890,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>field_functie_fl</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="D82" s="2" t="inlineStr">
         <is>
           <t>Functie Faciliteiten</t>
         </is>
       </c>
-      <c r="D82" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
           <t>commissies</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
+      <c r="G82" s="2" t="inlineStr">
         <is>
           <t>field_functie_faciliteiten</t>
         </is>
       </c>
-      <c r="G82" s="2" t="inlineStr">
+      <c r="H82" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H82" s="2" t="inlineStr">
+      <c r="I82" s="2" t="inlineStr">
         <is>
           <t>List (text): 1|Bestuurslid, 10|Lid | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_functie_faciliteiten</t>
         </is>
@@ -3932,37 +3932,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B83" s="3" t="inlineStr">
+      <c r="C83" s="3" t="inlineStr">
         <is>
           <t>field_emailbewaking</t>
         </is>
       </c>
-      <c r="C83" s="3" t="inlineStr">
+      <c r="D83" s="3" t="inlineStr">
         <is>
           <t>Email origineel</t>
         </is>
       </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="inlineStr">
+        <is>
           <t>beheer</t>
         </is>
       </c>
-      <c r="F83" s="3" t="inlineStr">
+      <c r="G83" s="3" t="inlineStr">
         <is>
           <t>field_email_origineel</t>
         </is>
       </c>
-      <c r="G83" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H83" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I83" s="3" t="inlineStr">
         <is>
           <t>Wordt user field in D11 (niet content type) | D11: hernoemd naar field_email_origineel</t>
         </is>
@@ -3974,37 +3974,37 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>field_notes</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="D84" s="2" t="inlineStr">
         <is>
           <t>Notities</t>
         </is>
       </c>
-      <c r="D84" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
           <t>beheer</t>
         </is>
       </c>
-      <c r="F84" s="2" t="inlineStr">
+      <c r="G84" s="2" t="inlineStr">
         <is>
           <t>field_notities</t>
         </is>
       </c>
-      <c r="G84" s="2" t="inlineStr">
+      <c r="H84" s="2" t="inlineStr">
         <is>
           <t>Text (formatted, long)</t>
         </is>
       </c>
-      <c r="H84" s="2" t="inlineStr">
+      <c r="I84" s="2" t="inlineStr">
         <is>
           <t>Text area met text format filters (HTML ondersteuning) | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_notities</t>
         </is>
@@ -4016,33 +4016,33 @@
           <t>Programma</t>
         </is>
       </c>
-      <c r="B85" s="3" t="inlineStr">
+      <c r="C85" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C85" s="3" t="inlineStr">
+      <c r="D85" s="3" t="inlineStr">
         <is>
           <t>Titel</t>
         </is>
       </c>
-      <c r="D85" s="3" t="inlineStr">
+      <c r="E85" s="3" t="inlineStr">
         <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="E85" s="3" t="inlineStr"/>
-      <c r="F85" s="3" t="inlineStr">
+      <c r="F85" s="3" t="inlineStr"/>
+      <c r="G85" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="G85" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H85" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I85" s="3" t="inlineStr">
         <is>
           <t>Standaard titel veld</t>
         </is>
@@ -4054,33 +4054,33 @@
           <t>Programma</t>
         </is>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>field_prog_type</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="D86" s="2" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D86" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E86" s="2" t="inlineStr"/>
-      <c r="F86" s="2" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr"/>
+      <c r="G86" s="2" t="inlineStr">
         <is>
           <t>field_programma_type</t>
         </is>
       </c>
-      <c r="G86" s="2" t="inlineStr">
+      <c r="H86" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H86" s="2" t="inlineStr">
+      <c r="I86" s="2" t="inlineStr">
         <is>
           <t>List (text): programma|Programma onderdeel, nummer|Nummer | D11: hernoemd naar field_programma_type</t>
         </is>
@@ -4092,33 +4092,33 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B87" s="3" t="inlineStr">
+      <c r="C87" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C87" s="3" t="inlineStr">
+      <c r="D87" s="3" t="inlineStr">
         <is>
           <t>Titel</t>
         </is>
       </c>
-      <c r="D87" s="3" t="inlineStr">
+      <c r="E87" s="3" t="inlineStr">
         <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="E87" s="3" t="inlineStr"/>
-      <c r="F87" s="3" t="inlineStr">
+      <c r="F87" s="3" t="inlineStr"/>
+      <c r="G87" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="G87" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H87" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I87" s="3" t="inlineStr">
         <is>
           <t>Standaard titel veld</t>
         </is>
@@ -4130,37 +4130,37 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>field_audio_nummer</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="D88" s="2" t="inlineStr">
         <is>
           <t>Nummer</t>
         </is>
       </c>
-      <c r="D88" s="2" t="inlineStr">
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>group_repertoire</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="G88" s="2" t="inlineStr">
         <is>
           <t>field_repertoire_nummer</t>
         </is>
       </c>
-      <c r="G88" s="2" t="inlineStr">
+      <c r="H88" s="2" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H88" s="2" t="inlineStr">
+      <c r="I88" s="2" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_repertoire_nummer</t>
         </is>
@@ -4172,37 +4172,37 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B89" s="3" t="inlineStr">
+      <c r="C89" s="3" t="inlineStr">
         <is>
           <t>field_audio_seizoen</t>
         </is>
       </c>
-      <c r="C89" s="3" t="inlineStr">
+      <c r="D89" s="3" t="inlineStr">
         <is>
           <t>Seizoen</t>
         </is>
       </c>
-      <c r="D89" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="inlineStr">
+        <is>
           <t>group_repertoire</t>
         </is>
       </c>
-      <c r="F89" s="3" t="inlineStr">
+      <c r="G89" s="3" t="inlineStr">
         <is>
           <t>field_repertoire_seizoen</t>
         </is>
       </c>
-      <c r="G89" s="3" t="inlineStr">
+      <c r="H89" s="3" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H89" s="3" t="inlineStr">
+      <c r="I89" s="3" t="inlineStr">
         <is>
           <t>List (text): Regulier|Regulier, Kerst|Kerst | D11: hernoemd naar field_repertoire_seizoen</t>
         </is>
@@ -4214,37 +4214,37 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>field_rep_genre</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="D90" s="2" t="inlineStr">
         <is>
           <t>Genre</t>
         </is>
       </c>
-      <c r="D90" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
           <t>group_repertoire</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
+      <c r="G90" s="2" t="inlineStr">
         <is>
           <t>field_repertoire_genre</t>
         </is>
       </c>
-      <c r="G90" s="2" t="inlineStr">
+      <c r="H90" s="2" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H90" s="2" t="inlineStr">
+      <c r="I90" s="2" t="inlineStr">
         <is>
           <t>List (text): Pop, Musical / Film, Geestelijk / Gospel | D11: hernoemd naar field_repertoire_genre</t>
         </is>
@@ -4256,37 +4256,37 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B91" s="3" t="inlineStr">
+      <c r="C91" s="3" t="inlineStr">
         <is>
           <t>field_klapper</t>
         </is>
       </c>
-      <c r="C91" s="3" t="inlineStr">
+      <c r="D91" s="3" t="inlineStr">
         <is>
           <t>Actueel</t>
         </is>
       </c>
-      <c r="D91" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="inlineStr">
+        <is>
           <t>group_repertoire</t>
         </is>
       </c>
-      <c r="F91" s="3" t="inlineStr">
+      <c r="G91" s="3" t="inlineStr">
         <is>
           <t>field_repertoire_actueel</t>
         </is>
       </c>
-      <c r="G91" s="3" t="inlineStr">
+      <c r="H91" s="3" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H91" s="3" t="inlineStr">
+      <c r="I91" s="3" t="inlineStr">
         <is>
           <t>List (text): Nee, Ja | D11: hernoemd naar field_repertoire_actueel</t>
         </is>
@@ -4298,37 +4298,37 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>field_rep_sinds</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="D92" s="2" t="inlineStr">
         <is>
           <t>In repertoire sinds</t>
         </is>
       </c>
-      <c r="D92" s="2" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="E92" s="2" t="inlineStr">
+      <c r="F92" s="2" t="inlineStr">
         <is>
           <t>group_repertoire</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
+      <c r="G92" s="2" t="inlineStr">
         <is>
           <t>field_repertoire_sinds</t>
         </is>
       </c>
-      <c r="G92" s="2" t="inlineStr">
+      <c r="H92" s="2" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H92" s="2" t="inlineStr">
+      <c r="I92" s="2" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_repertoire_sinds</t>
         </is>
@@ -4340,37 +4340,37 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B93" s="3" t="inlineStr">
+      <c r="C93" s="3" t="inlineStr">
         <is>
           <t>field_afbeeldingen</t>
         </is>
       </c>
-      <c r="C93" s="3" t="inlineStr">
+      <c r="D93" s="3" t="inlineStr">
         <is>
           <t>Afbeeldingen</t>
         </is>
       </c>
-      <c r="D93" s="3" t="inlineStr">
+      <c r="E93" s="3" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E93" s="3" t="inlineStr">
+      <c r="F93" s="3" t="inlineStr">
         <is>
           <t>group_repertoire</t>
         </is>
       </c>
-      <c r="F93" s="3" t="inlineStr">
+      <c r="G93" s="3" t="inlineStr">
         <is>
           <t>field_afbeeldingen</t>
         </is>
       </c>
-      <c r="G93" s="3" t="inlineStr">
+      <c r="H93" s="3" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H93" s="3" t="inlineStr">
+      <c r="I93" s="3" t="inlineStr">
         <is>
           <t>media: image (Multiple values)</t>
         </is>
@@ -4382,37 +4382,37 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>field_rep_uitv</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="D94" s="2" t="inlineStr">
         <is>
           <t>Uitvoerende</t>
         </is>
       </c>
-      <c r="D94" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
           <t>group_uitvoerende</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
+      <c r="G94" s="2" t="inlineStr">
         <is>
           <t>field_repertoire_uitvoerende</t>
         </is>
       </c>
-      <c r="G94" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_repertoire_uitvoerende</t>
         </is>
@@ -4424,37 +4424,37 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B95" s="3" t="inlineStr">
+      <c r="C95" s="3" t="inlineStr">
         <is>
           <t>field_rep_uitv_jaar</t>
         </is>
       </c>
-      <c r="C95" s="3" t="inlineStr">
+      <c r="D95" s="3" t="inlineStr">
         <is>
           <t>Jaar uitvoering</t>
         </is>
       </c>
-      <c r="D95" s="3" t="inlineStr">
+      <c r="E95" s="3" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="E95" s="3" t="inlineStr">
+      <c r="F95" s="3" t="inlineStr">
         <is>
           <t>group_uitvoerende</t>
         </is>
       </c>
-      <c r="F95" s="3" t="inlineStr">
+      <c r="G95" s="3" t="inlineStr">
         <is>
           <t>field_repertoire_uitvoerende_jaar</t>
         </is>
       </c>
-      <c r="G95" s="3" t="inlineStr">
+      <c r="H95" s="3" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H95" s="3" t="inlineStr">
+      <c r="I95" s="3" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_repertoire_uitvoerende_jaar</t>
         </is>
@@ -4466,37 +4466,37 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>field_rep_componist</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="D96" s="2" t="inlineStr">
         <is>
           <t>Componist</t>
         </is>
       </c>
-      <c r="D96" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
           <t>group_componist</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
+      <c r="G96" s="2" t="inlineStr">
         <is>
           <t>field_repertoire_componist</t>
         </is>
       </c>
-      <c r="G96" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_repertoire_componist</t>
         </is>
@@ -4508,37 +4508,37 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B97" s="3" t="inlineStr">
+      <c r="C97" s="3" t="inlineStr">
         <is>
           <t>field_rep_componist_jaar</t>
         </is>
       </c>
-      <c r="C97" s="3" t="inlineStr">
+      <c r="D97" s="3" t="inlineStr">
         <is>
           <t>Jaar compositie</t>
         </is>
       </c>
-      <c r="D97" s="3" t="inlineStr">
+      <c r="E97" s="3" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="E97" s="3" t="inlineStr">
+      <c r="F97" s="3" t="inlineStr">
         <is>
           <t>group_componist</t>
         </is>
       </c>
-      <c r="F97" s="3" t="inlineStr">
+      <c r="G97" s="3" t="inlineStr">
         <is>
           <t>field_repertoire_componist_jaar</t>
         </is>
       </c>
-      <c r="G97" s="3" t="inlineStr">
+      <c r="H97" s="3" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H97" s="3" t="inlineStr">
+      <c r="I97" s="3" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_repertoire_componist_jaar</t>
         </is>
@@ -4550,37 +4550,37 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B98" s="2" t="inlineStr">
+      <c r="C98" s="2" t="inlineStr">
         <is>
           <t>field_rep_arr</t>
         </is>
       </c>
-      <c r="C98" s="2" t="inlineStr">
+      <c r="D98" s="2" t="inlineStr">
         <is>
           <t>Arrangeur</t>
         </is>
       </c>
-      <c r="D98" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
           <t>group_arrangeur</t>
         </is>
       </c>
-      <c r="F98" s="2" t="inlineStr">
+      <c r="G98" s="2" t="inlineStr">
         <is>
           <t>field_repertoire_arrangeur</t>
         </is>
       </c>
-      <c r="G98" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_repertoire_arrangeur</t>
         </is>
@@ -4592,37 +4592,37 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B99" s="3" t="inlineStr">
+      <c r="C99" s="3" t="inlineStr">
         <is>
           <t>field_rep_arr_jaar</t>
         </is>
       </c>
-      <c r="C99" s="3" t="inlineStr">
+      <c r="D99" s="3" t="inlineStr">
         <is>
           <t>Jaar arrangement</t>
         </is>
       </c>
-      <c r="D99" s="3" t="inlineStr">
+      <c r="E99" s="3" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="E99" s="3" t="inlineStr">
+      <c r="F99" s="3" t="inlineStr">
         <is>
           <t>group_arrangeur</t>
         </is>
       </c>
-      <c r="F99" s="3" t="inlineStr">
+      <c r="G99" s="3" t="inlineStr">
         <is>
           <t>field_repertoire_arrangeur_jaar</t>
         </is>
       </c>
-      <c r="G99" s="3" t="inlineStr">
+      <c r="H99" s="3" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H99" s="3" t="inlineStr">
+      <c r="I99" s="3" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_repertoire_arrangeur_jaar</t>
         </is>
@@ -4634,29 +4634,29 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B100" s="6" t="inlineStr">
+      <c r="C100" s="6" t="inlineStr">
         <is>
           <t>field_partij_tekst</t>
         </is>
       </c>
-      <c r="C100" s="6" t="inlineStr">
+      <c r="D100" s="6" t="inlineStr">
         <is>
           <t>Tekst / koorregie</t>
         </is>
       </c>
-      <c r="D100" s="6" t="inlineStr">
+      <c r="E100" s="6" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E100" s="6" t="inlineStr">
+      <c r="F100" s="6" t="inlineStr">
         <is>
           <t>group_tekst</t>
         </is>
       </c>
-      <c r="F100" s="6" t="inlineStr"/>
       <c r="G100" s="6" t="inlineStr"/>
-      <c r="H100" s="6" t="inlineStr">
+      <c r="H100" s="6" t="inlineStr"/>
+      <c r="I100" s="6" t="inlineStr">
         <is>
           <t>VERVALT in D11 - Document media (type: Koorregie) | Standaard toegang: Leden, Aspirant-Leden, Muziekcommissie | Document media krijgt field_repertoire terug-verwijzing</t>
         </is>
@@ -4668,29 +4668,29 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B101" s="6" t="inlineStr">
+      <c r="C101" s="6" t="inlineStr">
         <is>
           <t>field_partij_koor_l</t>
         </is>
       </c>
-      <c r="C101" s="6" t="inlineStr">
+      <c r="D101" s="6" t="inlineStr">
         <is>
           <t>Koorpartituur</t>
         </is>
       </c>
-      <c r="D101" s="6" t="inlineStr">
+      <c r="E101" s="6" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E101" s="6" t="inlineStr">
+      <c r="F101" s="6" t="inlineStr">
         <is>
           <t>group_koor</t>
         </is>
       </c>
-      <c r="F101" s="6" t="inlineStr"/>
       <c r="G101" s="6" t="inlineStr"/>
-      <c r="H101" s="6" t="inlineStr">
+      <c r="H101" s="6" t="inlineStr"/>
+      <c r="I101" s="6" t="inlineStr">
         <is>
           <t>VERVALT in D11 - Document media (type: Koorpartituur) | Standaard toegang: Leden, Aspirant-Leden, Muziekcommissie | Document media krijgt field_repertoire terug-verwijzing</t>
         </is>
@@ -4702,29 +4702,29 @@
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="B102" s="6" t="inlineStr">
+      <c r="C102" s="6" t="inlineStr">
         <is>
           <t>field_partij_band</t>
         </is>
       </c>
-      <c r="C102" s="6" t="inlineStr">
+      <c r="D102" s="6" t="inlineStr">
         <is>
           <t>Bandpartituur</t>
         </is>
       </c>
-      <c r="D102" s="6" t="inlineStr">
+      <c r="E102" s="6" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E102" s="6" t="inlineStr">
+      <c r="F102" s="6" t="inlineStr">
         <is>
           <t>group_band</t>
         </is>
       </c>
-      <c r="F102" s="6" t="inlineStr"/>
       <c r="G102" s="6" t="inlineStr"/>
-      <c r="H102" s="6" t="inlineStr">
+      <c r="H102" s="6" t="inlineStr"/>
+      <c r="I102" s="6" t="inlineStr">
         <is>
           <t>VERVALT in D11 - Document media (type: Bandpartituur) | Standaard toegang: Band, Muziekcommissie | Document media krijgt field_repertoire terug-verwijzing</t>
         </is>
@@ -4736,25 +4736,25 @@
           <t>Verslag (VERVALT → Document media)</t>
         </is>
       </c>
-      <c r="B103" s="6" t="inlineStr">
+      <c r="C103" s="6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C103" s="6" t="inlineStr">
+      <c r="D103" s="6" t="inlineStr">
         <is>
           <t>Titel</t>
         </is>
       </c>
-      <c r="D103" s="6" t="inlineStr">
+      <c r="E103" s="6" t="inlineStr">
         <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="E103" s="6" t="inlineStr"/>
       <c r="F103" s="6" t="inlineStr"/>
       <c r="G103" s="6" t="inlineStr"/>
-      <c r="H103" s="6" t="inlineStr">
+      <c r="H103" s="6" t="inlineStr"/>
+      <c r="I103" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Document media entity (Verslag)</t>
         </is>
@@ -4766,25 +4766,25 @@
           <t>Verslag (VERVALT → Document media)</t>
         </is>
       </c>
-      <c r="B104" s="6" t="inlineStr">
+      <c r="C104" s="6" t="inlineStr">
         <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="C104" s="6" t="inlineStr">
+      <c r="D104" s="6" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="D104" s="6" t="inlineStr">
+      <c r="E104" s="6" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E104" s="6" t="inlineStr"/>
       <c r="F104" s="6" t="inlineStr"/>
       <c r="G104" s="6" t="inlineStr"/>
-      <c r="H104" s="6" t="inlineStr">
+      <c r="H104" s="6" t="inlineStr"/>
+      <c r="I104" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Document media entity (Verslag)</t>
         </is>
@@ -4796,33 +4796,33 @@
           <t>Verslag (VERVALT → Document media)</t>
         </is>
       </c>
-      <c r="B105" s="6" t="inlineStr">
+      <c r="C105" s="6" t="inlineStr">
         <is>
           <t>taxonomy</t>
         </is>
       </c>
-      <c r="C105" s="6" t="inlineStr">
+      <c r="D105" s="6" t="inlineStr">
         <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="D105" s="6" t="inlineStr">
+      <c r="E105" s="6" t="inlineStr">
         <is>
           <t>Taxonomy (Taxonomy module)</t>
         </is>
       </c>
-      <c r="E105" s="6" t="inlineStr"/>
-      <c r="F105" s="6" t="inlineStr">
+      <c r="F105" s="6" t="inlineStr"/>
+      <c r="G105" s="6" t="inlineStr">
         <is>
           <t>taxonomy</t>
         </is>
       </c>
-      <c r="G105" s="6" t="inlineStr">
+      <c r="H105" s="6" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H105" s="6" t="inlineStr">
+      <c r="I105" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Document media entity (Verslag) | List (text): Algemene Ledenvergadering, Bestuursvergadering, Combo Overleg, Concertcommissie, Jaarevaluatie Dirigent, Jaarverslag, Overige Vergadering, Vergadering Muziekcommissie</t>
         </is>
@@ -4834,33 +4834,33 @@
           <t>Verslag (VERVALT → Document media)</t>
         </is>
       </c>
-      <c r="B106" s="6" t="inlineStr">
+      <c r="C106" s="6" t="inlineStr">
         <is>
           <t>field_files</t>
         </is>
       </c>
-      <c r="C106" s="6" t="inlineStr">
+      <c r="D106" s="6" t="inlineStr">
         <is>
           <t>Bestandsbijlages</t>
         </is>
       </c>
-      <c r="D106" s="6" t="inlineStr">
+      <c r="E106" s="6" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E106" s="6" t="inlineStr"/>
-      <c r="F106" s="6" t="inlineStr">
+      <c r="F106" s="6" t="inlineStr"/>
+      <c r="G106" s="6" t="inlineStr">
         <is>
           <t>field_files</t>
         </is>
       </c>
-      <c r="G106" s="6" t="inlineStr">
+      <c r="H106" s="6" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H106" s="6" t="inlineStr">
+      <c r="I106" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Document media entity (Verslag) | Document media (type: Overige) | Multiple values (multiple values) | Document media (type: Overige) | Toegang: overgenomen van parent content/media</t>
         </is>
@@ -4872,25 +4872,25 @@
           <t>Video (VERVALT → Remote Video media)</t>
         </is>
       </c>
-      <c r="B107" s="6" t="inlineStr">
+      <c r="C107" s="6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C107" s="6" t="inlineStr">
+      <c r="D107" s="6" t="inlineStr">
         <is>
           <t>Titel</t>
         </is>
       </c>
-      <c r="D107" s="6" t="inlineStr">
+      <c r="E107" s="6" t="inlineStr">
         <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="E107" s="6" t="inlineStr"/>
       <c r="F107" s="6" t="inlineStr"/>
       <c r="G107" s="6" t="inlineStr"/>
-      <c r="H107" s="6" t="inlineStr">
+      <c r="H107" s="6" t="inlineStr"/>
+      <c r="I107" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Remote Video media entity</t>
         </is>
@@ -4902,33 +4902,33 @@
           <t>Video (VERVALT → Remote Video media)</t>
         </is>
       </c>
-      <c r="B108" s="6" t="inlineStr">
+      <c r="C108" s="6" t="inlineStr">
         <is>
           <t>field_video</t>
         </is>
       </c>
-      <c r="C108" s="6" t="inlineStr">
+      <c r="D108" s="6" t="inlineStr">
         <is>
           <t>Video</t>
         </is>
       </c>
-      <c r="D108" s="6" t="inlineStr">
+      <c r="E108" s="6" t="inlineStr">
         <is>
           <t>Embedded Video</t>
         </is>
       </c>
-      <c r="E108" s="6" t="inlineStr"/>
-      <c r="F108" s="6" t="inlineStr">
+      <c r="F108" s="6" t="inlineStr"/>
+      <c r="G108" s="6" t="inlineStr">
         <is>
           <t>field_video</t>
         </is>
       </c>
-      <c r="G108" s="6" t="inlineStr">
+      <c r="H108" s="6" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H108" s="6" t="inlineStr">
+      <c r="I108" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Remote Video media entity | media: remote_video (YouTube)</t>
         </is>
@@ -4940,33 +4940,33 @@
           <t>Video (VERVALT → Remote Video media)</t>
         </is>
       </c>
-      <c r="B109" s="6" t="inlineStr">
+      <c r="C109" s="6" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="C109" s="6" t="inlineStr">
+      <c r="D109" s="6" t="inlineStr">
         <is>
           <t>Nummer</t>
         </is>
       </c>
-      <c r="D109" s="6" t="inlineStr">
+      <c r="E109" s="6" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="E109" s="6" t="inlineStr"/>
-      <c r="F109" s="6" t="inlineStr">
+      <c r="F109" s="6" t="inlineStr"/>
+      <c r="G109" s="6" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="G109" s="6" t="inlineStr">
+      <c r="H109" s="6" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H109" s="6" t="inlineStr">
+      <c r="I109" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Remote Video media entity | Entity reference (node: repertoire)</t>
         </is>
@@ -4978,29 +4978,29 @@
           <t>Video (VERVALT → Remote Video media)</t>
         </is>
       </c>
-      <c r="B110" s="6" t="inlineStr">
+      <c r="C110" s="6" t="inlineStr">
         <is>
           <t>field_audio_uitvoerende</t>
         </is>
       </c>
-      <c r="C110" s="6" t="inlineStr">
+      <c r="D110" s="6" t="inlineStr">
         <is>
           <t>Uitvoerende</t>
         </is>
       </c>
-      <c r="D110" s="6" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E110" s="6" t="inlineStr"/>
-      <c r="F110" s="6" t="inlineStr">
+      <c r="E110" s="6" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F110" s="6" t="inlineStr"/>
+      <c r="G110" s="6" t="inlineStr">
         <is>
           <t>field_media_uitvoerende</t>
         </is>
       </c>
-      <c r="G110" s="6" t="inlineStr"/>
-      <c r="H110" s="6" t="inlineStr">
+      <c r="H110" s="6" t="inlineStr"/>
+      <c r="I110" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Remote Video media entity | D11: hernoemd naar field_media_uitvoerende</t>
         </is>
@@ -5012,33 +5012,33 @@
           <t>Video (VERVALT → Remote Video media)</t>
         </is>
       </c>
-      <c r="B111" s="6" t="inlineStr">
+      <c r="C111" s="6" t="inlineStr">
         <is>
           <t>field_audio_type</t>
         </is>
       </c>
-      <c r="C111" s="6" t="inlineStr">
+      <c r="D111" s="6" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D111" s="6" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E111" s="6" t="inlineStr"/>
-      <c r="F111" s="6" t="inlineStr">
+      <c r="E111" s="6" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F111" s="6" t="inlineStr"/>
+      <c r="G111" s="6" t="inlineStr">
         <is>
           <t>field_media_type</t>
         </is>
       </c>
-      <c r="G111" s="6" t="inlineStr">
+      <c r="H111" s="6" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H111" s="6" t="inlineStr">
+      <c r="I111" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Remote Video media entity | List (text): Uitvoering, Repetitie, Oefenbestand, Origineel, Uitzending, Overig | D11: hernoemd naar field_media_type</t>
         </is>
@@ -5050,25 +5050,25 @@
           <t>Video (VERVALT → Remote Video media)</t>
         </is>
       </c>
-      <c r="B112" s="6" t="inlineStr">
+      <c r="C112" s="6" t="inlineStr">
         <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="C112" s="6" t="inlineStr">
+      <c r="D112" s="6" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="D112" s="6" t="inlineStr">
+      <c r="E112" s="6" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E112" s="6" t="inlineStr"/>
       <c r="F112" s="6" t="inlineStr"/>
       <c r="G112" s="6" t="inlineStr"/>
-      <c r="H112" s="6" t="inlineStr">
+      <c r="H112" s="6" t="inlineStr"/>
+      <c r="I112" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Remote Video media entity</t>
         </is>
@@ -5080,38 +5080,39 @@
           <t>Video (VERVALT → Remote Video media)</t>
         </is>
       </c>
-      <c r="B113" s="6" t="inlineStr">
+      <c r="C113" s="6" t="inlineStr">
         <is>
           <t>field_ref_activiteit</t>
         </is>
       </c>
-      <c r="C113" s="6" t="inlineStr">
+      <c r="D113" s="6" t="inlineStr">
         <is>
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="D113" s="6" t="inlineStr">
+      <c r="E113" s="6" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="E113" s="6" t="inlineStr"/>
-      <c r="F113" s="6" t="inlineStr">
+      <c r="F113" s="6" t="inlineStr"/>
+      <c r="G113" s="6" t="inlineStr">
         <is>
           <t>field_activiteit</t>
         </is>
       </c>
-      <c r="G113" s="6" t="inlineStr">
+      <c r="H113" s="6" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H113" s="6" t="inlineStr">
+      <c r="I113" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Content type wordt geschrapt, velden gaan naar Remote Video media entity | Entity reference (node: activiteit) | D11: hernoemd naar field_activiteit</t>
         </is>
       </c>
     </row>
+    <row r="114"/>
     <row r="115">
       <c r="A115" s="7">
         <f>== MEDIA ENTITY CUSTOM FIELDS ===</f>
@@ -5124,33 +5125,33 @@
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="B116" s="9" t="inlineStr">
+      <c r="C116" s="9" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C116" s="9" t="inlineStr">
+      <c r="D116" s="9" t="inlineStr">
         <is>
           <t>Naam</t>
         </is>
       </c>
-      <c r="D116" s="9" t="inlineStr">
+      <c r="E116" s="9" t="inlineStr">
         <is>
           <t>Text (Media name)</t>
         </is>
       </c>
-      <c r="E116" s="9" t="inlineStr"/>
-      <c r="F116" s="9" t="inlineStr">
+      <c r="F116" s="9" t="inlineStr"/>
+      <c r="G116" s="9" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="G116" s="9" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H116" s="9" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I116" s="9" t="inlineStr">
         <is>
           <t>Standaard media name field (was title in D6)</t>
         </is>
@@ -5162,33 +5163,33 @@
           <t>MEDIA: Image</t>
         </is>
       </c>
-      <c r="B117" s="17" t="inlineStr">
+      <c r="C117" s="17" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C117" s="17" t="inlineStr">
+      <c r="D117" s="17" t="inlineStr">
         <is>
           <t>Naam</t>
         </is>
       </c>
-      <c r="D117" s="17" t="inlineStr">
+      <c r="E117" s="17" t="inlineStr">
         <is>
           <t>Text (Media name)</t>
         </is>
       </c>
-      <c r="E117" s="17" t="inlineStr"/>
-      <c r="F117" s="17" t="inlineStr">
+      <c r="F117" s="17" t="inlineStr"/>
+      <c r="G117" s="17" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="G117" s="17" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H117" s="17" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I117" s="17" t="inlineStr">
         <is>
           <t>Standaard media name field</t>
         </is>
@@ -5200,33 +5201,33 @@
           <t>MEDIA: Image</t>
         </is>
       </c>
-      <c r="B118" s="9" t="inlineStr">
+      <c r="C118" s="9" t="inlineStr">
         <is>
           <t>field_media_image</t>
         </is>
       </c>
-      <c r="C118" s="9" t="inlineStr">
+      <c r="D118" s="9" t="inlineStr">
         <is>
           <t>Afbeelding</t>
         </is>
       </c>
-      <c r="D118" s="9" t="inlineStr">
+      <c r="E118" s="9" t="inlineStr">
         <is>
           <t>Image</t>
         </is>
       </c>
-      <c r="E118" s="9" t="inlineStr"/>
-      <c r="F118" s="9" t="inlineStr">
+      <c r="F118" s="9" t="inlineStr"/>
+      <c r="G118" s="9" t="inlineStr">
         <is>
           <t>field_media_image</t>
         </is>
       </c>
-      <c r="G118" s="9" t="inlineStr">
+      <c r="H118" s="9" t="inlineStr">
         <is>
           <t>Image</t>
         </is>
       </c>
-      <c r="H118" s="9" t="inlineStr">
+      <c r="I118" s="9" t="inlineStr">
         <is>
           <t>Standaard image media source field | Migratie: created timestamp uit EXIF datum (fallback: bestandsdatum)</t>
         </is>
@@ -5238,33 +5239,33 @@
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="B119" s="3" t="inlineStr">
+      <c r="C119" s="3" t="inlineStr">
         <is>
           <t>field_media_audio_file</t>
         </is>
       </c>
-      <c r="C119" s="3" t="inlineStr">
+      <c r="D119" s="3" t="inlineStr">
         <is>
           <t>Audio bestand</t>
         </is>
       </c>
-      <c r="D119" s="3" t="inlineStr">
+      <c r="E119" s="3" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E119" s="3" t="inlineStr"/>
-      <c r="F119" s="3" t="inlineStr">
+      <c r="F119" s="3" t="inlineStr"/>
+      <c r="G119" s="3" t="inlineStr">
         <is>
           <t>field_media_audio_file</t>
         </is>
       </c>
-      <c r="G119" s="3" t="inlineStr">
+      <c r="H119" s="3" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="H119" s="3" t="inlineStr">
+      <c r="I119" s="3" t="inlineStr">
         <is>
           <t>Standaard audio media source field (was field_mp3 in D6)</t>
         </is>
@@ -5276,33 +5277,33 @@
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="B120" s="9" t="inlineStr">
+      <c r="C120" s="9" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="C120" s="9" t="inlineStr">
+      <c r="D120" s="9" t="inlineStr">
         <is>
           <t>Nummer</t>
         </is>
       </c>
-      <c r="D120" s="9" t="inlineStr">
+      <c r="E120" s="9" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="E120" s="9" t="inlineStr"/>
-      <c r="F120" s="9" t="inlineStr">
+      <c r="F120" s="9" t="inlineStr"/>
+      <c r="G120" s="9" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="G120" s="9" t="inlineStr">
+      <c r="H120" s="9" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H120" s="9" t="inlineStr">
+      <c r="I120" s="9" t="inlineStr">
         <is>
           <t>Entity reference (node: repertoire)</t>
         </is>
@@ -5314,33 +5315,33 @@
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="B121" s="3" t="inlineStr">
+      <c r="C121" s="3" t="inlineStr">
         <is>
           <t>field_audio_uitvoerende</t>
         </is>
       </c>
-      <c r="C121" s="3" t="inlineStr">
+      <c r="D121" s="3" t="inlineStr">
         <is>
           <t>Uitvoerende</t>
         </is>
       </c>
-      <c r="D121" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E121" s="3" t="inlineStr"/>
-      <c r="F121" s="3" t="inlineStr">
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F121" s="3" t="inlineStr"/>
+      <c r="G121" s="3" t="inlineStr">
         <is>
           <t>field_media_uitvoerende</t>
         </is>
       </c>
-      <c r="G121" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H121" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I121" s="3" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_media_uitvoerende</t>
         </is>
@@ -5352,33 +5353,33 @@
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="B122" s="9" t="inlineStr">
+      <c r="C122" s="9" t="inlineStr">
         <is>
           <t>field_audio_type</t>
         </is>
       </c>
-      <c r="C122" s="9" t="inlineStr">
+      <c r="D122" s="9" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D122" s="9" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E122" s="9" t="inlineStr"/>
-      <c r="F122" s="9" t="inlineStr">
+      <c r="E122" s="9" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F122" s="9" t="inlineStr"/>
+      <c r="G122" s="9" t="inlineStr">
         <is>
           <t>field_media_type</t>
         </is>
       </c>
-      <c r="G122" s="9" t="inlineStr">
+      <c r="H122" s="9" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H122" s="9" t="inlineStr">
+      <c r="I122" s="9" t="inlineStr">
         <is>
           <t>List (text): Uitvoering, Repetitie, Oefenbestand, Origineel, Uitzending, Overig | D11: hernoemd naar field_media_type</t>
         </is>
@@ -5390,33 +5391,33 @@
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="B123" s="3" t="inlineStr">
+      <c r="C123" s="3" t="inlineStr">
         <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="C123" s="3" t="inlineStr">
+      <c r="D123" s="3" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="D123" s="3" t="inlineStr">
+      <c r="E123" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E123" s="3" t="inlineStr"/>
-      <c r="F123" s="3" t="inlineStr">
+      <c r="F123" s="3" t="inlineStr"/>
+      <c r="G123" s="3" t="inlineStr">
         <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="G123" s="3" t="inlineStr">
+      <c r="H123" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="H123" s="3" t="inlineStr"/>
+      <c r="I123" s="3" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="8" t="inlineStr">
@@ -5424,33 +5425,33 @@
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="B124" s="9" t="inlineStr">
+      <c r="C124" s="9" t="inlineStr">
         <is>
           <t>field_audio_bijz</t>
         </is>
       </c>
-      <c r="C124" s="9" t="inlineStr">
+      <c r="D124" s="9" t="inlineStr">
         <is>
           <t>Bijzonderheden</t>
         </is>
       </c>
-      <c r="D124" s="9" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E124" s="9" t="inlineStr"/>
-      <c r="F124" s="9" t="inlineStr">
+      <c r="E124" s="9" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F124" s="9" t="inlineStr"/>
+      <c r="G124" s="9" t="inlineStr">
         <is>
           <t>field_media_bijzonderheden</t>
         </is>
       </c>
-      <c r="G124" s="9" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H124" s="9" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I124" s="9" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_media_bijzonderheden</t>
         </is>
@@ -5462,71 +5463,72 @@
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="B125" s="3" t="inlineStr">
+      <c r="C125" s="3" t="inlineStr">
         <is>
           <t>field_ref_activiteit</t>
         </is>
       </c>
-      <c r="C125" s="3" t="inlineStr">
+      <c r="D125" s="3" t="inlineStr">
         <is>
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="D125" s="3" t="inlineStr">
+      <c r="E125" s="3" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="E125" s="3" t="inlineStr"/>
-      <c r="F125" s="3" t="inlineStr">
+      <c r="F125" s="3" t="inlineStr"/>
+      <c r="G125" s="3" t="inlineStr">
         <is>
           <t>field_activiteit</t>
         </is>
       </c>
-      <c r="G125" s="3" t="inlineStr">
+      <c r="H125" s="3" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H125" s="3" t="inlineStr">
+      <c r="I125" s="3" t="inlineStr">
         <is>
           <t>Entity reference (node: activiteit) | D11: hernoemd naar field_activiteit</t>
         </is>
       </c>
     </row>
+    <row r="126"/>
     <row r="127">
       <c r="A127" s="8" t="inlineStr">
         <is>
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="B127" s="9" t="inlineStr">
+      <c r="C127" s="9" t="inlineStr">
         <is>
           <t>field_toegang</t>
         </is>
       </c>
-      <c r="C127" s="9" t="inlineStr">
+      <c r="D127" s="9" t="inlineStr">
         <is>
           <t>Toegang</t>
         </is>
       </c>
-      <c r="D127" s="9" t="inlineStr">
+      <c r="E127" s="9" t="inlineStr">
         <is>
           <t>Taxonomy term reference</t>
         </is>
       </c>
-      <c r="E127" s="9" t="inlineStr"/>
-      <c r="F127" s="9" t="inlineStr">
+      <c r="F127" s="9" t="inlineStr"/>
+      <c r="G127" s="9" t="inlineStr">
         <is>
           <t>field_toegang</t>
         </is>
       </c>
-      <c r="G127" s="9" t="inlineStr">
+      <c r="H127" s="9" t="inlineStr">
         <is>
           <t>Entity reference (taxonomy)</t>
         </is>
       </c>
-      <c r="H127" s="9" t="inlineStr">
+      <c r="I127" s="9" t="inlineStr">
         <is>
           <t>Vocabulary: toegang, Multiple values. Termen: Aspirant-Leden, Bezoekers, Leden, Vrienden, Bestuur, Muziekcommissie, Concertcommissie, Commissie Interne Relaties, Commissie Koorregie, Feestcommissie, Band, Beheer</t>
         </is>
@@ -5538,33 +5540,33 @@
           <t>MEDIA: Remote Video (was: Video content type)</t>
         </is>
       </c>
-      <c r="B128" s="3" t="inlineStr">
+      <c r="C128" s="3" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C128" s="3" t="inlineStr">
+      <c r="D128" s="3" t="inlineStr">
         <is>
           <t>Naam</t>
         </is>
       </c>
-      <c r="D128" s="3" t="inlineStr">
+      <c r="E128" s="3" t="inlineStr">
         <is>
           <t>Text (Media name)</t>
         </is>
       </c>
-      <c r="E128" s="3" t="inlineStr"/>
-      <c r="F128" s="3" t="inlineStr">
+      <c r="F128" s="3" t="inlineStr"/>
+      <c r="G128" s="3" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="G128" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H128" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I128" s="3" t="inlineStr">
         <is>
           <t>Standaard media name field (was title in D6)</t>
         </is>
@@ -5576,33 +5578,33 @@
           <t>MEDIA: Remote Video (was: Video content type)</t>
         </is>
       </c>
-      <c r="B129" s="9" t="inlineStr">
+      <c r="C129" s="9" t="inlineStr">
         <is>
           <t>field_media_oembed_video</t>
         </is>
       </c>
-      <c r="C129" s="9" t="inlineStr">
+      <c r="D129" s="9" t="inlineStr">
         <is>
           <t>Video URL</t>
         </is>
       </c>
-      <c r="D129" s="9" t="inlineStr">
+      <c r="E129" s="9" t="inlineStr">
         <is>
           <t>Text (URL)</t>
         </is>
       </c>
-      <c r="E129" s="9" t="inlineStr"/>
-      <c r="F129" s="9" t="inlineStr">
+      <c r="F129" s="9" t="inlineStr"/>
+      <c r="G129" s="9" t="inlineStr">
         <is>
           <t>field_media_oembed_video</t>
         </is>
       </c>
-      <c r="G129" s="9" t="inlineStr">
+      <c r="H129" s="9" t="inlineStr">
         <is>
           <t>Text (URL)</t>
         </is>
       </c>
-      <c r="H129" s="9" t="inlineStr">
+      <c r="I129" s="9" t="inlineStr">
         <is>
           <t>Standaard remote video source field (was field_video in D6)</t>
         </is>
@@ -5614,33 +5616,33 @@
           <t>MEDIA: Remote Video (was: Video content type)</t>
         </is>
       </c>
-      <c r="B130" s="3" t="inlineStr">
+      <c r="C130" s="3" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="C130" s="3" t="inlineStr">
+      <c r="D130" s="3" t="inlineStr">
         <is>
           <t>Nummer</t>
         </is>
       </c>
-      <c r="D130" s="3" t="inlineStr">
+      <c r="E130" s="3" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="E130" s="3" t="inlineStr"/>
-      <c r="F130" s="3" t="inlineStr">
+      <c r="F130" s="3" t="inlineStr"/>
+      <c r="G130" s="3" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="G130" s="3" t="inlineStr">
+      <c r="H130" s="3" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H130" s="3" t="inlineStr">
+      <c r="I130" s="3" t="inlineStr">
         <is>
           <t>Entity reference (node: repertoire)</t>
         </is>
@@ -5652,33 +5654,33 @@
           <t>MEDIA: Remote Video (was: Video content type)</t>
         </is>
       </c>
-      <c r="B131" s="9" t="inlineStr">
+      <c r="C131" s="9" t="inlineStr">
         <is>
           <t>field_audio_uitvoerende</t>
         </is>
       </c>
-      <c r="C131" s="9" t="inlineStr">
+      <c r="D131" s="9" t="inlineStr">
         <is>
           <t>Uitvoerende</t>
         </is>
       </c>
-      <c r="D131" s="9" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E131" s="9" t="inlineStr"/>
-      <c r="F131" s="9" t="inlineStr">
+      <c r="E131" s="9" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F131" s="9" t="inlineStr"/>
+      <c r="G131" s="9" t="inlineStr">
         <is>
           <t>field_media_uitvoerende</t>
         </is>
       </c>
-      <c r="G131" s="9" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H131" s="9" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I131" s="9" t="inlineStr">
         <is>
           <t>D11: hernoemd naar field_media_uitvoerende</t>
         </is>
@@ -5690,33 +5692,33 @@
           <t>MEDIA: Remote Video (was: Video content type)</t>
         </is>
       </c>
-      <c r="B132" s="3" t="inlineStr">
+      <c r="C132" s="3" t="inlineStr">
         <is>
           <t>field_audio_type</t>
         </is>
       </c>
-      <c r="C132" s="3" t="inlineStr">
+      <c r="D132" s="3" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D132" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="E132" s="3" t="inlineStr"/>
-      <c r="F132" s="3" t="inlineStr">
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="F132" s="3" t="inlineStr"/>
+      <c r="G132" s="3" t="inlineStr">
         <is>
           <t>field_media_type</t>
         </is>
       </c>
-      <c r="G132" s="3" t="inlineStr">
+      <c r="H132" s="3" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H132" s="3" t="inlineStr">
+      <c r="I132" s="3" t="inlineStr">
         <is>
           <t>List (text): Uitvoering, Repetitie, Oefenbestand, Origineel, Uitzending, Overig | D11: hernoemd naar field_media_type</t>
         </is>
@@ -5735,6 +5737,7 @@
       <c r="F133" s="14" t="n"/>
       <c r="G133" s="14" t="n"/>
       <c r="H133" s="15" t="n"/>
+      <c r="I133" s="15" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="10" t="inlineStr">
@@ -5742,33 +5745,33 @@
           <t>MEDIA: Remote Video (was: Video content type)</t>
         </is>
       </c>
-      <c r="B134" s="3" t="inlineStr">
+      <c r="C134" s="3" t="inlineStr">
         <is>
           <t>field_ref_activiteit</t>
         </is>
       </c>
-      <c r="C134" s="3" t="inlineStr">
+      <c r="D134" s="3" t="inlineStr">
         <is>
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="D134" s="3" t="inlineStr">
+      <c r="E134" s="3" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="E134" s="3" t="inlineStr"/>
-      <c r="F134" s="3" t="inlineStr">
+      <c r="F134" s="3" t="inlineStr"/>
+      <c r="G134" s="3" t="inlineStr">
         <is>
           <t>field_activiteit</t>
         </is>
       </c>
-      <c r="G134" s="3" t="inlineStr">
+      <c r="H134" s="3" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H134" s="3" t="inlineStr">
+      <c r="I134" s="3" t="inlineStr">
         <is>
           <t>Entity reference (node: activiteit) | D11: hernoemd naar field_activiteit</t>
         </is>
@@ -5780,47 +5783,48 @@
           <t>MEDIA: Remote Video (was: Video content type)</t>
         </is>
       </c>
-      <c r="B135" s="14" t="n"/>
       <c r="C135" s="14" t="n"/>
       <c r="D135" s="14" t="n"/>
       <c r="E135" s="14" t="n"/>
       <c r="F135" s="14" t="n"/>
       <c r="G135" s="14" t="n"/>
-      <c r="H135" s="15" t="n"/>
-    </row>
+      <c r="H135" s="14" t="n"/>
+      <c r="I135" s="15" t="n"/>
+    </row>
+    <row r="136"/>
     <row r="137">
       <c r="A137" s="16" t="inlineStr">
         <is>
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="B137" s="17" t="inlineStr">
+      <c r="C137" s="17" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C137" s="17" t="inlineStr">
+      <c r="D137" s="17" t="inlineStr">
         <is>
           <t>Naam</t>
         </is>
       </c>
-      <c r="D137" s="17" t="inlineStr">
+      <c r="E137" s="17" t="inlineStr">
         <is>
           <t>Text (Media name)</t>
         </is>
       </c>
-      <c r="E137" s="17" t="inlineStr"/>
-      <c r="F137" s="17" t="inlineStr">
+      <c r="F137" s="17" t="inlineStr"/>
+      <c r="G137" s="17" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="G137" s="17" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
       <c r="H137" s="17" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I137" s="17" t="inlineStr">
         <is>
           <t>Standaard media name field (was title in D6)</t>
         </is>
@@ -5832,33 +5836,33 @@
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="B138" s="9" t="inlineStr">
+      <c r="C138" s="9" t="inlineStr">
         <is>
           <t>field_media_document</t>
         </is>
       </c>
-      <c r="C138" s="9" t="inlineStr">
+      <c r="D138" s="9" t="inlineStr">
         <is>
           <t>Document</t>
         </is>
       </c>
-      <c r="D138" s="9" t="inlineStr">
+      <c r="E138" s="9" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E138" s="9" t="inlineStr"/>
-      <c r="F138" s="9" t="inlineStr">
+      <c r="F138" s="9" t="inlineStr"/>
+      <c r="G138" s="9" t="inlineStr">
         <is>
           <t>field_media_document</t>
         </is>
       </c>
-      <c r="G138" s="9" t="inlineStr">
+      <c r="H138" s="9" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="H138" s="9" t="inlineStr">
+      <c r="I138" s="9" t="inlineStr">
         <is>
           <t>Standaard document media source field (was field_files in D6)</t>
         </is>
@@ -5870,33 +5874,33 @@
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="B139" s="17" t="inlineStr">
+      <c r="C139" s="17" t="inlineStr">
         <is>
           <t>field_document_type</t>
         </is>
       </c>
-      <c r="C139" s="17" t="inlineStr">
+      <c r="D139" s="17" t="inlineStr">
         <is>
           <t>Document Type</t>
         </is>
       </c>
-      <c r="D139" s="17" t="inlineStr">
+      <c r="E139" s="17" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="E139" s="17" t="inlineStr"/>
-      <c r="F139" s="17" t="inlineStr">
+      <c r="F139" s="17" t="inlineStr"/>
+      <c r="G139" s="17" t="inlineStr">
         <is>
           <t>field_document_type</t>
         </is>
       </c>
-      <c r="G139" s="17" t="inlineStr">
+      <c r="H139" s="17" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H139" s="17" t="inlineStr">
+      <c r="I139" s="17" t="inlineStr">
         <is>
           <t>List (text): Verslag, Bandpartituur, Koorpartituur, Koorregie, Huiswerk, Overige | Classificeert het document</t>
         </is>
@@ -5908,33 +5912,33 @@
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="B140" s="17" t="inlineStr">
+      <c r="C140" s="17" t="inlineStr">
         <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="C140" s="17" t="inlineStr">
+      <c r="D140" s="17" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="D140" s="17" t="inlineStr">
+      <c r="E140" s="17" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E140" s="17" t="inlineStr"/>
-      <c r="F140" s="17" t="inlineStr">
+      <c r="F140" s="17" t="inlineStr"/>
+      <c r="G140" s="17" t="inlineStr">
         <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="G140" s="17" t="inlineStr">
+      <c r="H140" s="17" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="H140" s="17" t="inlineStr"/>
+      <c r="I140" s="17" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="8" t="inlineStr">
@@ -5942,33 +5946,33 @@
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="B141" s="9" t="inlineStr">
+      <c r="C141" s="9" t="inlineStr">
         <is>
           <t>field_verslag_type</t>
         </is>
       </c>
-      <c r="C141" s="9" t="inlineStr">
+      <c r="D141" s="9" t="inlineStr">
         <is>
           <t>Type Verslag</t>
         </is>
       </c>
-      <c r="D141" s="9" t="inlineStr">
+      <c r="E141" s="9" t="inlineStr">
         <is>
           <t>Taxonomy (was)</t>
         </is>
       </c>
-      <c r="E141" s="9" t="inlineStr"/>
-      <c r="F141" s="9" t="inlineStr">
+      <c r="F141" s="9" t="inlineStr"/>
+      <c r="G141" s="9" t="inlineStr">
         <is>
           <t>field_verslag_type</t>
         </is>
       </c>
-      <c r="G141" s="9" t="inlineStr">
+      <c r="H141" s="9" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H141" s="9" t="inlineStr">
+      <c r="I141" s="9" t="inlineStr">
         <is>
           <t>List (text): Algemene Ledenvergadering, Bestuursvergadering, Combo Overleg, Concertcommissie, Jaarevaluatie Dirigent, Jaarverslag, Overige Vergadering, Vergadering Muziekcommissie | Alleen relevant voor document_type: Verslag</t>
         </is>
@@ -5980,33 +5984,33 @@
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="B142" s="17" t="inlineStr">
+      <c r="C142" s="17" t="inlineStr">
         <is>
           <t>field_toegang</t>
         </is>
       </c>
-      <c r="C142" s="17" t="inlineStr">
+      <c r="D142" s="17" t="inlineStr">
         <is>
           <t>Toegang</t>
         </is>
       </c>
-      <c r="D142" s="17" t="inlineStr">
+      <c r="E142" s="17" t="inlineStr">
         <is>
           <t>Taxonomy term reference</t>
         </is>
       </c>
-      <c r="E142" s="17" t="inlineStr"/>
-      <c r="F142" s="17" t="inlineStr">
+      <c r="F142" s="17" t="inlineStr"/>
+      <c r="G142" s="17" t="inlineStr">
         <is>
           <t>field_toegang</t>
         </is>
       </c>
-      <c r="G142" s="17" t="inlineStr">
+      <c r="H142" s="17" t="inlineStr">
         <is>
           <t>Entity reference (taxonomy)</t>
         </is>
       </c>
-      <c r="H142" s="17" t="inlineStr">
+      <c r="I142" s="17" t="inlineStr">
         <is>
           <t>Vocabulary: toegang, Multiple values</t>
         </is>
@@ -6018,33 +6022,33 @@
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="B143" s="17" t="inlineStr">
+      <c r="C143" s="17" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="C143" s="17" t="inlineStr">
+      <c r="D143" s="17" t="inlineStr">
         <is>
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="D143" s="17" t="inlineStr">
+      <c r="E143" s="17" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="E143" s="17" t="inlineStr"/>
-      <c r="F143" s="17" t="inlineStr">
+      <c r="F143" s="17" t="inlineStr"/>
+      <c r="G143" s="17" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="G143" s="17" t="inlineStr">
+      <c r="H143" s="17" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H143" s="17" t="inlineStr">
+      <c r="I143" s="17" t="inlineStr">
         <is>
           <t>Entity reference (node: repertoire) | Terug-verwijzing voor partituren (Bandpartituur, Koorpartituur, Koorregie)</t>
         </is>
@@ -6056,33 +6060,33 @@
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="B144" s="9" t="inlineStr">
+      <c r="C144" s="9" t="inlineStr">
         <is>
           <t>field_ref_activiteit</t>
         </is>
       </c>
-      <c r="C144" s="9" t="inlineStr">
+      <c r="D144" s="9" t="inlineStr">
         <is>
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="D144" s="9" t="inlineStr">
+      <c r="E144" s="9" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="E144" s="9" t="inlineStr"/>
-      <c r="F144" s="9" t="inlineStr">
+      <c r="F144" s="9" t="inlineStr"/>
+      <c r="G144" s="9" t="inlineStr">
         <is>
           <t>field_activiteit</t>
         </is>
       </c>
-      <c r="G144" s="9" t="inlineStr">
+      <c r="H144" s="9" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="H144" s="9" t="inlineStr">
+      <c r="I144" s="9" t="inlineStr">
         <is>
           <t>Entity reference (node: activiteit) | Terug-verwijzing voor Huiswerk documenten | D11: hernoemd naar field_activiteit</t>
         </is>
@@ -6100,37 +6104,37 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="B146" s="12" t="inlineStr">
+      <c r="C146" s="12" t="inlineStr">
         <is>
           <t>Veld</t>
         </is>
       </c>
-      <c r="C146" s="12" t="inlineStr">
+      <c r="D146" s="12" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="D146" s="12" t="inlineStr">
+      <c r="E146" s="12" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E146" s="12" t="inlineStr">
+      <c r="F146" s="12" t="inlineStr">
         <is>
           <t>Toepassen op</t>
         </is>
       </c>
-      <c r="F146" s="12" t="inlineStr">
+      <c r="G146" s="12" t="inlineStr">
         <is>
           <t>D11 Veld</t>
         </is>
       </c>
-      <c r="G146" s="12" t="inlineStr">
+      <c r="H146" s="12" t="inlineStr">
         <is>
           <t>D11 Type</t>
         </is>
       </c>
-      <c r="H146" s="12" t="inlineStr">
+      <c r="I146" s="12" t="inlineStr">
         <is>
           <t>Opmerkingen</t>
         </is>
@@ -6142,37 +6146,37 @@
           <t>Toegang</t>
         </is>
       </c>
-      <c r="B147" s="13" t="inlineStr">
+      <c r="C147" s="13" t="inlineStr">
         <is>
           <t>field_toegang</t>
         </is>
       </c>
-      <c r="C147" s="13" t="inlineStr">
+      <c r="D147" s="13" t="inlineStr">
         <is>
           <t>Toegang</t>
         </is>
       </c>
-      <c r="D147" s="13" t="inlineStr">
+      <c r="E147" s="13" t="inlineStr">
         <is>
           <t>Taxonomy term reference</t>
         </is>
       </c>
-      <c r="E147" s="13" t="inlineStr">
+      <c r="F147" s="13" t="inlineStr">
         <is>
           <t>Activiteit, Album, Nieuws, Pagina</t>
         </is>
       </c>
-      <c r="F147" s="13" t="inlineStr">
+      <c r="G147" s="13" t="inlineStr">
         <is>
           <t>field_toegang</t>
         </is>
       </c>
-      <c r="G147" s="13" t="inlineStr">
+      <c r="H147" s="13" t="inlineStr">
         <is>
           <t>Entity reference (taxonomy)</t>
         </is>
       </c>
-      <c r="H147" s="13" t="inlineStr">
+      <c r="I147" s="13" t="inlineStr">
         <is>
           <t>Vocabulary: toegang, Multiple values. Termen: Aspirant-Leden, Bezoekers, Leden, Vrienden, Bestuur, Muziekcommissie, Concertcommissie, Commissie Interne Relaties, Commissie Koorregie, Feestcommissie, Band, Beheer</t>
         </is>
@@ -6184,42 +6188,44 @@
           <t>Verslagen (VERVALT)</t>
         </is>
       </c>
-      <c r="B148" s="6" t="inlineStr">
+      <c r="C148" s="6" t="inlineStr">
         <is>
           <t>taxonomy</t>
         </is>
       </c>
-      <c r="C148" s="6" t="inlineStr">
+      <c r="D148" s="6" t="inlineStr">
         <is>
           <t>Type Verslag</t>
         </is>
       </c>
-      <c r="D148" s="6" t="inlineStr">
+      <c r="E148" s="6" t="inlineStr">
         <is>
           <t>Taxonomy term reference</t>
         </is>
       </c>
-      <c r="E148" s="6" t="inlineStr">
+      <c r="F148" s="6" t="inlineStr">
         <is>
           <t>Verslag content type</t>
         </is>
       </c>
-      <c r="F148" s="6" t="inlineStr">
+      <c r="G148" s="6" t="inlineStr">
         <is>
           <t>field_verslag_type</t>
         </is>
       </c>
-      <c r="G148" s="6" t="inlineStr">
+      <c r="H148" s="6" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="H148" s="6" t="inlineStr">
+      <c r="I148" s="6" t="inlineStr">
         <is>
           <t>VERVALT - Taxonomy wordt omgezet naar List field. Termen: Algemene Ledenvergadering, Bestuursvergadering, Combo Overleg, Concertcommissie, Jaarevaluatie Dirigent, Jaarverslag, Overige Vergadering, Vergadering Muziekcommissie</t>
         </is>
       </c>
     </row>
+    <row r="149"/>
+    <row r="150"/>
     <row r="151">
       <c r="A151" s="19">
         <f>== WORKFLOW STATES MIGRATIE ===</f>
@@ -6232,27 +6238,27 @@
           <t>D6 Workflow</t>
         </is>
       </c>
-      <c r="B152" s="12" t="inlineStr">
+      <c r="C152" s="12" t="inlineStr">
         <is>
           <t>D6 State</t>
         </is>
       </c>
-      <c r="C152" s="12" t="inlineStr">
+      <c r="D152" s="12" t="inlineStr">
         <is>
           <t>State ID</t>
         </is>
       </c>
-      <c r="D152" s="12" t="inlineStr">
+      <c r="E152" s="12" t="inlineStr">
         <is>
           <t>D11 Moderation State</t>
         </is>
       </c>
-      <c r="E152" s="12" t="inlineStr">
+      <c r="F152" s="12" t="inlineStr">
         <is>
           <t>Content Types</t>
         </is>
       </c>
-      <c r="F152" s="12" t="inlineStr">
+      <c r="G152" s="12" t="inlineStr">
         <is>
           <t>Opmerkingen</t>
         </is>
@@ -6264,27 +6270,27 @@
           <t>Workflow 1</t>
         </is>
       </c>
-      <c r="B153" s="17" t="inlineStr">
+      <c r="C153" s="17" t="inlineStr">
         <is>
           <t>(creation)</t>
         </is>
       </c>
-      <c r="C153" s="17" t="inlineStr">
+      <c r="D153" s="17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D153" s="17" t="inlineStr">
+      <c r="E153" s="17" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="E153" s="17" t="inlineStr">
+      <c r="F153" s="17" t="inlineStr">
         <is>
           <t>nieuws, pagina, repertoire</t>
         </is>
       </c>
-      <c r="F153" s="17" t="inlineStr">
+      <c r="G153" s="17" t="inlineStr">
         <is>
           <t>Initiële creatie status</t>
         </is>
@@ -6296,23 +6302,23 @@
           <t>Workflow 1</t>
         </is>
       </c>
-      <c r="B154" s="2" t="inlineStr">
+      <c r="C154" s="2" t="inlineStr">
         <is>
           <t>Concept</t>
         </is>
       </c>
-      <c r="C154" s="2" t="inlineStr">
+      <c r="D154" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D154" s="2" t="inlineStr">
+      <c r="E154" s="2" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="E154" s="17" t="inlineStr"/>
-      <c r="F154" s="2" t="inlineStr">
+      <c r="F154" s="17" t="inlineStr"/>
+      <c r="G154" s="2" t="inlineStr">
         <is>
           <t>Draft/concept</t>
         </is>
@@ -6324,23 +6330,23 @@
           <t>Workflow 1</t>
         </is>
       </c>
-      <c r="B155" s="17" t="inlineStr">
+      <c r="C155" s="17" t="inlineStr">
         <is>
           <t>Gepubliceerd</t>
         </is>
       </c>
-      <c r="C155" s="17" t="inlineStr">
+      <c r="D155" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D155" s="17" t="inlineStr">
+      <c r="E155" s="17" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="E155" s="17" t="inlineStr"/>
-      <c r="F155" s="17" t="inlineStr">
+      <c r="F155" s="17" t="inlineStr"/>
+      <c r="G155" s="17" t="inlineStr">
         <is>
           <t>Gepubliceerd</t>
         </is>
@@ -6352,23 +6358,23 @@
           <t>Workflow 1</t>
         </is>
       </c>
-      <c r="B156" s="2" t="inlineStr">
+      <c r="C156" s="2" t="inlineStr">
         <is>
           <t>Archief</t>
         </is>
       </c>
-      <c r="C156" s="2" t="inlineStr">
+      <c r="D156" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D156" s="2" t="inlineStr">
+      <c r="E156" s="2" t="inlineStr">
         <is>
           <t>archived</t>
         </is>
       </c>
-      <c r="E156" s="17" t="inlineStr"/>
-      <c r="F156" s="2" t="inlineStr">
+      <c r="F156" s="17" t="inlineStr"/>
+      <c r="G156" s="2" t="inlineStr">
         <is>
           <t>Gearchiveerd</t>
         </is>
@@ -6380,23 +6386,23 @@
           <t>Workflow 1</t>
         </is>
       </c>
-      <c r="B157" s="17" t="inlineStr">
+      <c r="C157" s="17" t="inlineStr">
         <is>
           <t>Prullenmand</t>
         </is>
       </c>
-      <c r="C157" s="17" t="inlineStr">
+      <c r="D157" s="17" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D157" s="17" t="inlineStr">
+      <c r="E157" s="17" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="E157" s="17" t="inlineStr"/>
-      <c r="F157" s="17" t="inlineStr">
+      <c r="F157" s="17" t="inlineStr"/>
+      <c r="G157" s="17" t="inlineStr">
         <is>
           <t>Verwijderd (unpublish in D11)</t>
         </is>
@@ -6408,23 +6414,23 @@
           <t>Workflow 1</t>
         </is>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>Aangeraden</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="D158" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="D158" s="2" t="inlineStr">
+      <c r="E158" s="2" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="E158" s="17" t="inlineStr"/>
-      <c r="F158" s="2" t="inlineStr">
+      <c r="F158" s="17" t="inlineStr"/>
+      <c r="G158" s="2" t="inlineStr">
         <is>
           <t>Featured → Promoted to front page/aangeraden (D11: Promoted to front page)</t>
         </is>
@@ -6432,11 +6438,11 @@
     </row>
     <row r="159">
       <c r="A159" s="17" t="inlineStr"/>
-      <c r="B159" s="17" t="inlineStr"/>
       <c r="C159" s="17" t="inlineStr"/>
       <c r="D159" s="17" t="inlineStr"/>
       <c r="E159" s="17" t="inlineStr"/>
       <c r="F159" s="17" t="inlineStr"/>
+      <c r="G159" s="17" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="20" t="inlineStr">
@@ -6444,27 +6450,27 @@
           <t>Workflow 3</t>
         </is>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="C160" s="2" t="inlineStr">
         <is>
           <t>(aanmaak)</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="D160" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D160" s="2" t="inlineStr">
+      <c r="E160" s="2" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="E160" s="2" t="inlineStr">
+      <c r="F160" s="2" t="inlineStr">
         <is>
           <t>activiteit</t>
         </is>
       </c>
-      <c r="F160" s="2" t="inlineStr">
+      <c r="G160" s="2" t="inlineStr">
         <is>
           <t>Initiële creatie</t>
         </is>
@@ -6476,23 +6482,23 @@
           <t>Workflow 3</t>
         </is>
       </c>
-      <c r="B161" s="17" t="inlineStr">
+      <c r="C161" s="17" t="inlineStr">
         <is>
           <t>Actief</t>
         </is>
       </c>
-      <c r="C161" s="17" t="inlineStr">
+      <c r="D161" s="17" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D161" s="17" t="inlineStr">
+      <c r="E161" s="17" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="E161" s="17" t="inlineStr"/>
-      <c r="F161" s="17" t="inlineStr">
+      <c r="F161" s="17" t="inlineStr"/>
+      <c r="G161" s="17" t="inlineStr">
         <is>
           <t>Actieve activiteit</t>
         </is>
@@ -6504,23 +6510,23 @@
           <t>Workflow 3</t>
         </is>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>Verlopen</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
+      <c r="D162" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D162" s="2" t="inlineStr">
+      <c r="E162" s="2" t="inlineStr">
         <is>
           <t>archived</t>
         </is>
       </c>
-      <c r="E162" s="17" t="inlineStr"/>
-      <c r="F162" s="2" t="inlineStr">
+      <c r="F162" s="17" t="inlineStr"/>
+      <c r="G162" s="2" t="inlineStr">
         <is>
           <t>Verlopen activiteit</t>
         </is>
@@ -6532,23 +6538,23 @@
           <t>Workflow 3</t>
         </is>
       </c>
-      <c r="B163" s="17" t="inlineStr">
+      <c r="C163" s="17" t="inlineStr">
         <is>
           <t>Inactief</t>
         </is>
       </c>
-      <c r="C163" s="17" t="inlineStr">
+      <c r="D163" s="17" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="D163" s="17" t="inlineStr">
+      <c r="E163" s="17" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="E163" s="17" t="inlineStr"/>
-      <c r="F163" s="17" t="inlineStr">
+      <c r="F163" s="17" t="inlineStr"/>
+      <c r="G163" s="17" t="inlineStr">
         <is>
           <t>Inactieve activiteit</t>
         </is>
@@ -6556,11 +6562,11 @@
     </row>
     <row r="164">
       <c r="A164" s="17" t="inlineStr"/>
-      <c r="B164" s="17" t="inlineStr"/>
       <c r="C164" s="17" t="inlineStr"/>
       <c r="D164" s="17" t="inlineStr"/>
       <c r="E164" s="17" t="inlineStr"/>
       <c r="F164" s="17" t="inlineStr"/>
+      <c r="G164" s="17" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="16" t="inlineStr">
@@ -6568,27 +6574,27 @@
           <t>Workflow 4</t>
         </is>
       </c>
-      <c r="B165" s="17" t="inlineStr">
+      <c r="C165" s="17" t="inlineStr">
         <is>
           <t>(aanmaak)</t>
         </is>
       </c>
-      <c r="C165" s="17" t="inlineStr">
+      <c r="D165" s="17" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="D165" s="17" t="inlineStr">
+      <c r="E165" s="17" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="E165" s="17" t="inlineStr">
+      <c r="F165" s="17" t="inlineStr">
         <is>
           <t>locatie, programma</t>
         </is>
       </c>
-      <c r="F165" s="17" t="inlineStr">
+      <c r="G165" s="17" t="inlineStr">
         <is>
           <t>Initiële creatie</t>
         </is>
@@ -6600,23 +6606,23 @@
           <t>Workflow 4</t>
         </is>
       </c>
-      <c r="B166" s="2" t="inlineStr">
+      <c r="C166" s="2" t="inlineStr">
         <is>
           <t>Concept</t>
         </is>
       </c>
-      <c r="C166" s="2" t="inlineStr">
+      <c r="D166" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D166" s="2" t="inlineStr">
+      <c r="E166" s="2" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="E166" s="17" t="inlineStr"/>
-      <c r="F166" s="2" t="inlineStr">
+      <c r="F166" s="17" t="inlineStr"/>
+      <c r="G166" s="2" t="inlineStr">
         <is>
           <t>Draft/concept</t>
         </is>
@@ -6628,23 +6634,23 @@
           <t>Workflow 4</t>
         </is>
       </c>
-      <c r="B167" s="17" t="inlineStr">
+      <c r="C167" s="17" t="inlineStr">
         <is>
           <t>Prullenmand</t>
         </is>
       </c>
-      <c r="C167" s="17" t="inlineStr">
+      <c r="D167" s="17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D167" s="17" t="inlineStr">
+      <c r="E167" s="17" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="E167" s="17" t="inlineStr"/>
-      <c r="F167" s="17" t="inlineStr">
+      <c r="F167" s="17" t="inlineStr"/>
+      <c r="G167" s="17" t="inlineStr">
         <is>
           <t>Verwijderd</t>
         </is>
@@ -6656,23 +6662,23 @@
           <t>Workflow 4</t>
         </is>
       </c>
-      <c r="B168" s="2" t="inlineStr">
+      <c r="C168" s="2" t="inlineStr">
         <is>
           <t>Aangeraden</t>
         </is>
       </c>
-      <c r="C168" s="2" t="inlineStr">
+      <c r="D168" s="2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="D168" s="2" t="inlineStr">
+      <c r="E168" s="2" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="E168" s="17" t="inlineStr"/>
-      <c r="F168" s="2" t="inlineStr">
+      <c r="F168" s="17" t="inlineStr"/>
+      <c r="G168" s="2" t="inlineStr">
         <is>
           <t>Featured → Promoted to front page</t>
         </is>
@@ -6684,23 +6690,23 @@
           <t>Workflow 4</t>
         </is>
       </c>
-      <c r="B169" s="17" t="inlineStr">
+      <c r="C169" s="17" t="inlineStr">
         <is>
           <t>Archief</t>
         </is>
       </c>
-      <c r="C169" s="17" t="inlineStr">
+      <c r="D169" s="17" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D169" s="17" t="inlineStr">
+      <c r="E169" s="17" t="inlineStr">
         <is>
           <t>archived</t>
         </is>
       </c>
-      <c r="E169" s="17" t="inlineStr"/>
-      <c r="F169" s="17" t="inlineStr">
+      <c r="F169" s="17" t="inlineStr"/>
+      <c r="G169" s="17" t="inlineStr">
         <is>
           <t>Gearchiveerd</t>
         </is>
@@ -6712,23 +6718,23 @@
           <t>Workflow 4</t>
         </is>
       </c>
-      <c r="B170" s="2" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr">
         <is>
           <t>Geen Archief</t>
         </is>
       </c>
-      <c r="C170" s="2" t="inlineStr">
+      <c r="D170" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="D170" s="2" t="inlineStr">
+      <c r="E170" s="2" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="E170" s="17" t="inlineStr"/>
-      <c r="F170" s="2" t="inlineStr">
+      <c r="F170" s="17" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr">
         <is>
           <t>Actief (niet archiveren)</t>
         </is>
@@ -6740,23 +6746,23 @@
           <t>Workflow 4</t>
         </is>
       </c>
-      <c r="B171" s="17" t="inlineStr">
+      <c r="C171" s="17" t="inlineStr">
         <is>
           <t>Gepubliceerd</t>
         </is>
       </c>
-      <c r="C171" s="17" t="inlineStr">
+      <c r="D171" s="17" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D171" s="17" t="inlineStr">
+      <c r="E171" s="17" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="E171" s="17" t="inlineStr"/>
-      <c r="F171" s="17" t="inlineStr">
+      <c r="F171" s="17" t="inlineStr"/>
+      <c r="G171" s="17" t="inlineStr">
         <is>
           <t>Gepubliceerd</t>
         </is>
@@ -6764,11 +6770,11 @@
     </row>
     <row r="172">
       <c r="A172" s="17" t="inlineStr"/>
-      <c r="B172" s="17" t="inlineStr"/>
       <c r="C172" s="17" t="inlineStr"/>
       <c r="D172" s="17" t="inlineStr"/>
       <c r="E172" s="17" t="inlineStr"/>
       <c r="F172" s="17" t="inlineStr"/>
+      <c r="G172" s="17" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="16" t="inlineStr">
@@ -6776,27 +6782,27 @@
           <t>Workflow 5</t>
         </is>
       </c>
-      <c r="B173" s="17" t="inlineStr">
+      <c r="C173" s="17" t="inlineStr">
         <is>
           <t>(aanmaak)</t>
         </is>
       </c>
-      <c r="C173" s="17" t="inlineStr">
+      <c r="D173" s="17" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="D173" s="17" t="inlineStr">
+      <c r="E173" s="17" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="E173" s="17" t="inlineStr">
+      <c r="F173" s="17" t="inlineStr">
         <is>
           <t>Album</t>
         </is>
       </c>
-      <c r="F173" s="17" t="inlineStr">
+      <c r="G173" s="17" t="inlineStr">
         <is>
           <t>Initiële creatie</t>
         </is>
@@ -6808,23 +6814,23 @@
           <t>Workflow 5</t>
         </is>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Gepubliceerd</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="D174" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="D174" s="2" t="inlineStr">
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="E174" s="17" t="inlineStr"/>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" s="17" t="inlineStr"/>
+      <c r="G174" s="2" t="inlineStr">
         <is>
           <t>Gepubliceerd</t>
         </is>
@@ -6836,28 +6842,29 @@
           <t>Workflow 5</t>
         </is>
       </c>
-      <c r="B175" s="17" t="inlineStr">
+      <c r="C175" s="17" t="inlineStr">
         <is>
           <t>Aangeraden</t>
         </is>
       </c>
-      <c r="C175" s="17" t="inlineStr">
+      <c r="D175" s="17" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="D175" s="17" t="inlineStr">
+      <c r="E175" s="17" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="E175" s="17" t="inlineStr"/>
-      <c r="F175" s="17" t="inlineStr">
+      <c r="F175" s="17" t="inlineStr"/>
+      <c r="G175" s="17" t="inlineStr">
         <is>
           <t>Featured → Promoted to front page</t>
         </is>
       </c>
     </row>
+    <row r="176"/>
     <row r="177">
       <c r="A177" s="21" t="inlineStr">
         <is>
@@ -6900,6 +6907,8 @@
         </is>
       </c>
     </row>
+    <row r="183"/>
+    <row r="184"/>
     <row r="185">
       <c r="A185" s="23">
         <f>== USER ROLES MIGRATIE ===</f>
@@ -6914,15 +6923,20 @@
       </c>
       <c r="B186" s="12" t="inlineStr">
         <is>
+          <t>D6 Role ID</t>
+        </is>
+      </c>
+      <c r="C186" s="12" t="inlineStr">
+        <is>
           <t>D11 Role (label)</t>
         </is>
       </c>
-      <c r="C186" s="12" t="inlineStr">
+      <c r="D186" s="12" t="inlineStr">
         <is>
           <t>D11 Machine Name</t>
         </is>
       </c>
-      <c r="D186" s="12" t="inlineStr">
+      <c r="E186" s="12" t="inlineStr">
         <is>
           <t>Opmerkingen</t>
         </is>
@@ -6936,15 +6950,20 @@
       </c>
       <c r="B187" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C187" s="17" t="inlineStr">
+        <is>
           <t>Anonieme gebruiker</t>
         </is>
       </c>
-      <c r="C187" s="17" t="inlineStr">
+      <c r="D187" s="17" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="D187" s="17" t="inlineStr">
+      <c r="E187" s="17" t="inlineStr">
         <is>
           <t>Standaard Drupal role</t>
         </is>
@@ -6958,15 +6977,20 @@
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
           <t>Geverifieerde gebruiker</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
+      <c r="D188" s="2" t="inlineStr">
         <is>
           <t>authenticated</t>
         </is>
       </c>
-      <c r="D188" s="2" t="inlineStr">
+      <c r="E188" s="2" t="inlineStr">
         <is>
           <t>Standaard Drupal role</t>
         </is>
@@ -6980,15 +7004,20 @@
       </c>
       <c r="B189" s="17" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C189" s="17" t="inlineStr">
+        <is>
           <t>Admin</t>
         </is>
       </c>
-      <c r="C189" s="17" t="inlineStr">
+      <c r="D189" s="17" t="inlineStr">
         <is>
           <t>admin</t>
         </is>
       </c>
-      <c r="D189" s="17" t="inlineStr">
+      <c r="E189" s="17" t="inlineStr">
         <is>
           <t>Volledige systeem administratie</t>
         </is>
@@ -7002,15 +7031,20 @@
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
           <t>Aspirant-lid</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="D190" s="2" t="inlineStr">
         <is>
           <t>aspirant_lid</t>
         </is>
       </c>
-      <c r="D190" s="2" t="inlineStr">
+      <c r="E190" s="2" t="inlineStr">
         <is>
           <t>Aspirant koorlid</t>
         </is>
@@ -7024,15 +7058,20 @@
       </c>
       <c r="B191" s="17" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C191" s="17" t="inlineStr">
+        <is>
           <t>Auteur</t>
         </is>
       </c>
-      <c r="C191" s="17" t="inlineStr">
+      <c r="D191" s="17" t="inlineStr">
         <is>
           <t>auteur</t>
         </is>
       </c>
-      <c r="D191" s="17" t="inlineStr">
+      <c r="E191" s="17" t="inlineStr">
         <is>
           <t>Content auteur</t>
         </is>
@@ -7046,15 +7085,20 @@
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
           <t>Band</t>
         </is>
       </c>
-      <c r="C192" s="2" t="inlineStr">
+      <c r="D192" s="2" t="inlineStr">
         <is>
           <t>band</t>
         </is>
       </c>
-      <c r="D192" s="2" t="inlineStr">
+      <c r="E192" s="2" t="inlineStr">
         <is>
           <t>Bandlid toegang</t>
         </is>
@@ -7068,15 +7112,20 @@
       </c>
       <c r="B193" s="17" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C193" s="17" t="inlineStr">
+        <is>
           <t>Beheerder</t>
         </is>
       </c>
-      <c r="C193" s="17" t="inlineStr">
+      <c r="D193" s="17" t="inlineStr">
         <is>
           <t>beheerder</t>
         </is>
       </c>
-      <c r="D193" s="17" t="inlineStr">
+      <c r="E193" s="17" t="inlineStr">
         <is>
           <t>Site beheerder</t>
         </is>
@@ -7090,15 +7139,20 @@
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
           <t>Bestuur</t>
         </is>
       </c>
-      <c r="C194" s="2" t="inlineStr">
+      <c r="D194" s="2" t="inlineStr">
         <is>
           <t>bestuur</t>
         </is>
       </c>
-      <c r="D194" s="2" t="inlineStr">
+      <c r="E194" s="2" t="inlineStr">
         <is>
           <t>Bestuurslid toegang</t>
         </is>
@@ -7112,15 +7166,20 @@
       </c>
       <c r="B195" s="17" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C195" s="17" t="inlineStr">
+        <is>
           <t>Commissie Concerten</t>
         </is>
       </c>
-      <c r="C195" s="17" t="inlineStr">
+      <c r="D195" s="17" t="inlineStr">
         <is>
           <t>commissie_concerten</t>
         </is>
       </c>
-      <c r="D195" s="17" t="inlineStr">
+      <c r="E195" s="17" t="inlineStr">
         <is>
           <t>Concerten commissie</t>
         </is>
@@ -7134,15 +7193,20 @@
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
           <t>Commissie Faciliteiten en Logistiek</t>
         </is>
       </c>
-      <c r="C196" s="2" t="inlineStr">
+      <c r="D196" s="2" t="inlineStr">
         <is>
           <t>commissie_faciliteiten</t>
         </is>
       </c>
-      <c r="D196" s="2" t="inlineStr">
+      <c r="E196" s="2" t="inlineStr">
         <is>
           <t>Faciliteiten en logistiek commissie</t>
         </is>
@@ -7156,15 +7220,20 @@
       </c>
       <c r="B197" s="17" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C197" s="17" t="inlineStr">
+        <is>
           <t>Commissie Interne Relaties</t>
         </is>
       </c>
-      <c r="C197" s="17" t="inlineStr">
+      <c r="D197" s="17" t="inlineStr">
         <is>
           <t>commissie_interne_relaties</t>
         </is>
       </c>
-      <c r="D197" s="17" t="inlineStr">
+      <c r="E197" s="17" t="inlineStr">
         <is>
           <t>Interne relaties commissie</t>
         </is>
@@ -7178,15 +7247,20 @@
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
           <t>Commissie Koorregie</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="D198" s="2" t="inlineStr">
         <is>
           <t>commissie_koorregie</t>
         </is>
       </c>
-      <c r="D198" s="2" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>Koorregie commissie</t>
         </is>
@@ -7200,15 +7274,20 @@
       </c>
       <c r="B199" s="17" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C199" s="17" t="inlineStr">
+        <is>
           <t>Commissie Ledenwerving</t>
         </is>
       </c>
-      <c r="C199" s="17" t="inlineStr">
+      <c r="D199" s="17" t="inlineStr">
         <is>
           <t>commissie_ledenwerving</t>
         </is>
       </c>
-      <c r="D199" s="17" t="inlineStr">
+      <c r="E199" s="17" t="inlineStr">
         <is>
           <t>Ledenwerving commissie</t>
         </is>
@@ -7222,15 +7301,20 @@
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
           <t>Commissie Publieke Relaties</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="D200" s="2" t="inlineStr">
         <is>
           <t>commissie_publieke_relaties</t>
         </is>
       </c>
-      <c r="D200" s="2" t="inlineStr">
+      <c r="E200" s="2" t="inlineStr">
         <is>
           <t>PR commissie</t>
         </is>
@@ -7244,15 +7328,20 @@
       </c>
       <c r="B201" s="17" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C201" s="17" t="inlineStr">
+        <is>
           <t>Dirigent</t>
         </is>
       </c>
-      <c r="C201" s="17" t="inlineStr">
+      <c r="D201" s="17" t="inlineStr">
         <is>
           <t>dirigent</t>
         </is>
       </c>
-      <c r="D201" s="17" t="inlineStr">
+      <c r="E201" s="17" t="inlineStr">
         <is>
           <t>Dirigent toegang</t>
         </is>
@@ -7266,15 +7355,20 @@
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
           <t>Feestcommissie</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="D202" s="2" t="inlineStr">
         <is>
           <t>feestcommissie</t>
         </is>
       </c>
-      <c r="D202" s="2" t="inlineStr">
+      <c r="E202" s="2" t="inlineStr">
         <is>
           <t>Feestcommissie</t>
         </is>
@@ -7288,15 +7382,20 @@
       </c>
       <c r="B203" s="17" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C203" s="17" t="inlineStr">
+        <is>
           <t>Lid</t>
         </is>
       </c>
-      <c r="C203" s="17" t="inlineStr">
+      <c r="D203" s="17" t="inlineStr">
         <is>
           <t>lid</t>
         </is>
       </c>
-      <c r="D203" s="17" t="inlineStr">
+      <c r="E203" s="17" t="inlineStr">
         <is>
           <t>Koorlid toegang</t>
         </is>
@@ -7310,15 +7409,20 @@
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
           <t>Muziekcommissie</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="D204" s="2" t="inlineStr">
         <is>
           <t>muziekcommissie</t>
         </is>
       </c>
-      <c r="D204" s="2" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>Muziekcommissie toegang</t>
         </is>
@@ -7332,15 +7436,20 @@
       </c>
       <c r="B205" s="17" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C205" s="17" t="inlineStr">
+        <is>
           <t>Technische Commissie</t>
         </is>
       </c>
-      <c r="C205" s="17" t="inlineStr">
+      <c r="D205" s="17" t="inlineStr">
         <is>
           <t>technische_commissie</t>
         </is>
       </c>
-      <c r="D205" s="17" t="inlineStr">
+      <c r="E205" s="17" t="inlineStr">
         <is>
           <t>Technische commissie</t>
         </is>
@@ -7354,15 +7463,20 @@
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
           <t>Vriend</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="D206" s="2" t="inlineStr">
         <is>
           <t>vriend</t>
         </is>
       </c>
-      <c r="D206" s="2" t="inlineStr">
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>Vriend/sponsor toegang</t>
         </is>
@@ -7413,8 +7527,8 @@
   </sheetData>
   <autoFilter ref="A1:H113"/>
   <mergeCells count="16">
+    <mergeCell ref="A211:D211"/>
     <mergeCell ref="A182:F182"/>
-    <mergeCell ref="A211:D211"/>
     <mergeCell ref="A177:F177"/>
     <mergeCell ref="A178:F178"/>
     <mergeCell ref="A181:F181"/>

--- a/D6_naar_D11_Content_Type_Mapping.xlsx
+++ b/D6_naar_D11_Content_Type_Mapping.xlsx
@@ -7,11 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Content Type Mappings" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Content Types" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media Entities" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Taxonomie" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Workflow States" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User Roles" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Content Type Mappings'!$A$1:$H$113</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -627,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -652,39 +654,34 @@
           <t>Content Type</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>D6 Veld</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>D6 Veld</t>
+          <t>D6 Label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>D6 Label</t>
+          <t>D6 Type</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>D6 Type</t>
+          <t>Field Group</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Field Group</t>
+          <t>D11 Veld</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>D11 Veld</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>D11 Type</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Opmerkingen</t>
         </is>
       </c>
     </row>
@@ -694,35 +691,30 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>Titel</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Text (Node module)</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Titel</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Text (Node module)</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Standaard titel veld</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -732,35 +724,30 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
+          <t>Omschrijving</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Text (Node module)</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
           <t>body</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Omschrijving</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Text (Node module)</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>Text (formatted, long)</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -770,33 +757,32 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>field_datum</t>
+        </is>
+      </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>Datum en tijd</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Datum en tijd</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>field_datum</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -804,35 +790,30 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>field_activiteit_status</t>
+        </is>
+      </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
+          <t>Status activiteit</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
           <t>field_activiteit_status</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Status activiteit</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>field_activiteit_status</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>List (text): definitief|Definitief</t>
         </is>
       </c>
     </row>
@@ -842,35 +823,30 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>field_activiteit_soort</t>
+        </is>
+      </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>Soort activiteit</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>field_activiteit_soort</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Soort activiteit</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>field_activiteit_soort</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>List (text): Concours, Kerkelijk, Koorreis, Overige, Repetitie, Vakantie, Vergadering, Wereldlijk</t>
         </is>
       </c>
     </row>
@@ -880,35 +856,30 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>field_ledeninfo</t>
+        </is>
+      </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
+          <t>Informatie voor leden</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
           <t>field_ledeninfo</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Informatie voor leden</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>field_ledeninfo</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
           <t>Text (formatted, long)</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>Text area met text format filters (HTML ondersteuning)</t>
         </is>
       </c>
     </row>
@@ -918,29 +889,24 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>field_huiswerk</t>
+        </is>
+      </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>field_huiswerk</t>
+          <t>Huiswerk</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Huiswerk</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
           <t>File</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr"/>
-      <c r="G8" s="6" t="inlineStr"/>
-      <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT in D11 - wordt Document media (type: Huiswerk) met field_ref_activiteit terug-verwijzing | Document media (type: Huiswerk) | Standaard toegang: Leden, Aspirant-Leden, Band</t>
-        </is>
-      </c>
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -948,39 +914,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>field_afbeeldingen</t>
+        </is>
+      </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
+          <t>Afbeeldingen</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>group_images</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
           <t>field_afbeeldingen</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>Afbeeldingen</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>group_images</t>
-        </is>
-      </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>field_afbeeldingen</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>media: image (Multiple values)</t>
         </is>
       </c>
     </row>
@@ -990,39 +951,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>field_background</t>
+        </is>
+      </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>Achtergrond</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>group_background</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>field_background</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Achtergrond</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>group_background</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>field_background</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>media: image | Single value (één achtergrondafbeelding)</t>
         </is>
       </c>
     </row>
@@ -1032,39 +988,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>field_files</t>
+        </is>
+      </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
+          <t>Bestandsbijlages</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>group_files</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
           <t>field_files</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Bestandsbijlages</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>group_files</t>
-        </is>
-      </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>field_files</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>Document media (type: Overige) | Multiple values (multiple values) | Document media (type: Overige) | Toegang: overgenomen van parent content/media</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1025,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>field_locatie</t>
+        </is>
+      </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>Locatie</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Node reference</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>group_datumtijd</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>field_locatie</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Locatie</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Node reference</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>group_datumtijd</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>field_locatie</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>Entity reference (node: locatie)</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1062,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>field_l_bijzonderheden</t>
+        </is>
+      </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>field_l_bijzonderheden</t>
+          <t>Bijzonderheden locatie</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Bijzonderheden locatie</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_datumtijd</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>group_datumtijd</t>
+          <t>field_locatie_bijzonderheden</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>field_locatie_bijzonderheden</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_locatie_bijzonderheden</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1099,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>field_tijd_aanwezig</t>
+        </is>
+      </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>field_tijd_aanwezig</t>
+          <t>Koor Aanwezig</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Koor Aanwezig</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_logistiek</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>group_logistiek</t>
+          <t>field_koor_aanwezig</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>field_koor_aanwezig</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_koor_aanwezig</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1136,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>field_sleepgroep</t>
+        </is>
+      </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>field_sleepgroep</t>
+          <t>Sleepgroep</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>Sleepgroep</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_logistiek</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>group_logistiek</t>
+          <t>field_sleepgroep_heen</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>field_sleepgroep_heen</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>List (text): -, I, II, III, IV, V, * | D11: hernoemd naar field_sleepgroep_heen</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1173,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>field_sleepgroep_terug</t>
+        </is>
+      </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>Sleepgroep terug</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>group_logistiek</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>field_sleepgroep_terug</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Sleepgroep terug</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>group_logistiek</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>field_sleepgroep_terug</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>List (text): -, I, II, III, IV, V, *</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1210,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>field_vervoer</t>
+        </is>
+      </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>field_vervoer</t>
+          <t>Karrijder</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>Karrijder</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_logistiek</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>group_logistiek</t>
+          <t>field_activiteit_karrijder</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>field_activiteit_karrijder</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_activiteit_karrijder</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -1326,37 +1247,36 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>field_sleepgroep_aanwezig</t>
+        </is>
+      </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>Sleepgroep Aanwezig</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>group_logistiek</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>field_sleepgroep_aanwezig</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Sleepgroep Aanwezig</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>group_logistiek</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>field_sleepgroep_aanwezig</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr"/>
+          <t>Text</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -1364,39 +1284,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>field_band</t>
+        </is>
+      </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
+          <t>Band</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>group_band</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
           <t>field_band</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>Band</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>group_band</t>
-        </is>
-      </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
-          <t>field_band</t>
-        </is>
-      </c>
-      <c r="H19" s="6" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I19" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Veld wordt niet gemigreerd (individuele bandleden-velden zijn voldoende)</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -1406,39 +1321,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>field_keyboard</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>field_keyboard</t>
+          <t>Toetsenist</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Toetsenist</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_band</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>group_band</t>
+          <t>field_band_keyboard</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>field_band_keyboard</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>List (text): +|Aanwezig, ?|Onbekend, -|Afwezig, v|Vervanging | D11: hernoemd naar field_band_keyboard</t>
         </is>
       </c>
     </row>
@@ -1448,39 +1358,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>field_gitaar</t>
+        </is>
+      </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>field_gitaar</t>
+          <t>Gitarist</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>Gitarist</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_band</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>group_band</t>
+          <t>field_band_gitaar</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>field_band_gitaar</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>List (text): +|Aanwezig, ?|Onbekend, -|Afwezig, v|Vervanging | D11: hernoemd naar field_band_gitaar</t>
         </is>
       </c>
     </row>
@@ -1490,39 +1395,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>field_basgitaar</t>
+        </is>
+      </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>field_basgitaar</t>
+          <t>Basgitarist</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Basgitarist</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_band</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>group_band</t>
+          <t>field_band_basgitaar</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>field_band_basgitaar</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>List (text): +|Aanwezig, ?|Onbekend, -|Afwezig, v|Vervanging | D11: hernoemd naar field_band_basgitaar</t>
         </is>
       </c>
     </row>
@@ -1532,39 +1432,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>field_drums</t>
+        </is>
+      </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>field_drums</t>
+          <t>Drummer</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>Drummer</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_band</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>group_band</t>
+          <t>field_band_drums</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>field_band_drums</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I23" s="3" t="inlineStr">
-        <is>
-          <t>List (text): +|Aanwezig, ?|Onbekend, -|Afwezig, v|Vervanging | D11: hernoemd naar field_band_drums</t>
         </is>
       </c>
     </row>
@@ -1574,39 +1469,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>field_percussie</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>field_percussie</t>
+          <t>Percusionist</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Percusionist</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_band</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>group_band</t>
+          <t>field_band_percussie</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>field_band_percussie</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>List (text): +|Aanwezig, ?|Onbekend, -|Afwezig, v|Vervanging | D11: hernoemd naar field_band_percussie</t>
         </is>
       </c>
     </row>
@@ -1616,37 +1506,36 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>field_bijzonderheden</t>
+        </is>
+      </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
+          <t>Bijzonderheden</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>group_bijzonderheden</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
           <t>field_bijzonderheden</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>Bijzonderheden</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>group_bijzonderheden</t>
-        </is>
-      </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>field_bijzonderheden</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I25" s="3" t="inlineStr"/>
+          <t>Text</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1654,37 +1543,36 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>field_kledingcode</t>
+        </is>
+      </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>Kledingcode</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>group_bijzonderheden</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>field_kledingcode</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>Kledingcode</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>group_bijzonderheden</t>
-        </is>
-      </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>field_kledingcode</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr"/>
+          <t>Text</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -1692,39 +1580,34 @@
           <t>Activiteit</t>
         </is>
       </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>field_programma2</t>
+        </is>
+      </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>field_programma2</t>
+          <t>Programma</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>Programma</t>
+          <t>Node reference</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>Node reference</t>
+          <t>group_programma</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>group_programma</t>
+          <t>field_programma</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>field_programma</t>
-        </is>
-      </c>
-      <c r="H27" s="3" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I27" s="3" t="inlineStr">
-        <is>
-          <t>Entity reference (node: programma, repertoire) | Multiple values | Kan verwijzen naar zowel Programma als Repertoire nodes</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1617,24 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Titel</t>
         </is>
       </c>
       <c r="D28" s="6" t="inlineStr">
         <is>
-          <t>Titel</t>
-        </is>
-      </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="F28" s="6" t="inlineStr"/>
-      <c r="G28" s="6" t="inlineStr"/>
-      <c r="H28" s="6" t="inlineStr"/>
-      <c r="I28" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity</t>
-        </is>
-      </c>
+      <c r="E28" s="6" t="n"/>
+      <c r="F28" s="6" t="n"/>
+      <c r="G28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
@@ -1764,35 +1642,30 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>field_mp3</t>
+        </is>
+      </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
+          <t>mp3</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="n"/>
+      <c r="F29" s="6" t="inlineStr">
+        <is>
           <t>field_mp3</t>
         </is>
       </c>
-      <c r="D29" s="6" t="inlineStr">
-        <is>
-          <t>mp3</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F29" s="6" t="inlineStr"/>
       <c r="G29" s="6" t="inlineStr">
         <is>
-          <t>field_mp3</t>
-        </is>
-      </c>
-      <c r="H29" s="6" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I29" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity | media: audio</t>
         </is>
       </c>
     </row>
@@ -1802,35 +1675,30 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
+          <t>field_repertoire</t>
+        </is>
+      </c>
       <c r="C30" s="6" t="inlineStr">
         <is>
+          <t>Nummer</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="inlineStr">
+        <is>
+          <t>Node reference</t>
+        </is>
+      </c>
+      <c r="E30" s="6" t="n"/>
+      <c r="F30" s="6" t="inlineStr">
+        <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="D30" s="6" t="inlineStr">
-        <is>
-          <t>Nummer</t>
-        </is>
-      </c>
-      <c r="E30" s="6" t="inlineStr">
-        <is>
-          <t>Node reference</t>
-        </is>
-      </c>
-      <c r="F30" s="6" t="inlineStr"/>
       <c r="G30" s="6" t="inlineStr">
         <is>
-          <t>field_repertoire</t>
-        </is>
-      </c>
-      <c r="H30" s="6" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I30" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity | Entity reference (node: repertoire)</t>
         </is>
       </c>
     </row>
@@ -1840,33 +1708,28 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>field_audio_uitvoerende</t>
+        </is>
+      </c>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>field_audio_uitvoerende</t>
+          <t>Uitvoerende</t>
         </is>
       </c>
       <c r="D31" s="6" t="inlineStr">
         <is>
-          <t>Uitvoerende</t>
-        </is>
-      </c>
-      <c r="E31" s="6" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F31" s="6" t="inlineStr"/>
-      <c r="G31" s="6" t="inlineStr">
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E31" s="6" t="n"/>
+      <c r="F31" s="6" t="inlineStr">
         <is>
           <t>field_media_uitvoerende</t>
         </is>
       </c>
-      <c r="H31" s="6" t="inlineStr"/>
-      <c r="I31" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity | D11: hernoemd naar field_media_uitvoerende</t>
-        </is>
-      </c>
+      <c r="G31" s="6" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
@@ -1874,35 +1737,30 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
+      <c r="B32" s="6" t="inlineStr">
+        <is>
+          <t>field_audio_type</t>
+        </is>
+      </c>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>field_audio_type</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="D32" s="6" t="inlineStr">
         <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E32" s="6" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F32" s="6" t="inlineStr"/>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E32" s="6" t="n"/>
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>field_media_type</t>
+        </is>
+      </c>
       <c r="G32" s="6" t="inlineStr">
         <is>
-          <t>field_media_type</t>
-        </is>
-      </c>
-      <c r="H32" s="6" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I32" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity | List (text): Uitvoering, Repetitie, Oefenbestand, Origineel, Uitzending, Overig | D11: hernoemd naar field_media_type</t>
         </is>
       </c>
     </row>
@@ -1912,29 +1770,24 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
+      <c r="B33" s="6" t="inlineStr">
+        <is>
+          <t>field_datum</t>
+        </is>
+      </c>
       <c r="C33" s="6" t="inlineStr">
         <is>
-          <t>field_datum</t>
+          <t>Datum</t>
         </is>
       </c>
       <c r="D33" s="6" t="inlineStr">
         <is>
-          <t>Datum</t>
-        </is>
-      </c>
-      <c r="E33" s="6" t="inlineStr">
-        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F33" s="6" t="inlineStr"/>
-      <c r="G33" s="6" t="inlineStr"/>
-      <c r="H33" s="6" t="inlineStr"/>
-      <c r="I33" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity</t>
-        </is>
-      </c>
+      <c r="E33" s="6" t="n"/>
+      <c r="F33" s="6" t="n"/>
+      <c r="G33" s="6" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
@@ -1942,33 +1795,28 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
+      <c r="B34" s="6" t="inlineStr">
+        <is>
+          <t>field_audio_bijz</t>
+        </is>
+      </c>
       <c r="C34" s="6" t="inlineStr">
         <is>
-          <t>field_audio_bijz</t>
+          <t>Bijzonderheden</t>
         </is>
       </c>
       <c r="D34" s="6" t="inlineStr">
         <is>
-          <t>Bijzonderheden</t>
-        </is>
-      </c>
-      <c r="E34" s="6" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F34" s="6" t="inlineStr"/>
-      <c r="G34" s="6" t="inlineStr">
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E34" s="6" t="n"/>
+      <c r="F34" s="6" t="inlineStr">
         <is>
           <t>field_media_bijzonderheden</t>
         </is>
       </c>
-      <c r="H34" s="6" t="inlineStr"/>
-      <c r="I34" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity | D11: hernoemd naar field_media_bijzonderheden</t>
-        </is>
-      </c>
+      <c r="G34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
@@ -1976,35 +1824,30 @@
           <t>Audio (VERVALT → Audio media)</t>
         </is>
       </c>
+      <c r="B35" s="6" t="inlineStr">
+        <is>
+          <t>field_ref_activiteit</t>
+        </is>
+      </c>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>field_ref_activiteit</t>
+          <t>Activiteit</t>
         </is>
       </c>
       <c r="D35" s="6" t="inlineStr">
         <is>
-          <t>Activiteit</t>
-        </is>
-      </c>
-      <c r="E35" s="6" t="inlineStr">
-        <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="F35" s="6" t="inlineStr"/>
+      <c r="E35" s="6" t="n"/>
+      <c r="F35" s="6" t="inlineStr">
+        <is>
+          <t>field_activiteit</t>
+        </is>
+      </c>
       <c r="G35" s="6" t="inlineStr">
         <is>
-          <t>field_activiteit</t>
-        </is>
-      </c>
-      <c r="H35" s="6" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I35" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Audio media entity | Entity reference (node: activiteit) | D11: hernoemd naar field_activiteit</t>
         </is>
       </c>
     </row>
@@ -2014,35 +1857,30 @@
           <t>Album (was: Foto)</t>
         </is>
       </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
+          <t>Titel</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>Text (Node module)</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>Titel</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Text (Node module)</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Standaard titel veld</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -2052,33 +1890,32 @@
           <t>Album (was: Foto)</t>
         </is>
       </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>field_datum</t>
+        </is>
+      </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
+          <t>Datum</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="n"/>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>Datum</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="inlineStr">
+      <c r="G37" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F37" s="3" t="inlineStr"/>
-      <c r="G37" s="3" t="inlineStr">
-        <is>
-          <t>field_datum</t>
-        </is>
-      </c>
-      <c r="H37" s="3" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="I37" s="3" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2086,35 +1923,30 @@
           <t>Album (was: Foto)</t>
         </is>
       </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
+          <t>Omschrijving</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Text (Node module)</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
           <t>body</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>Omschrijving</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>Text (Node module)</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>Text (formatted, long)</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -2124,39 +1956,34 @@
           <t>Album (was: Foto)</t>
         </is>
       </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>field_afbeeldingen</t>
+        </is>
+      </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
+          <t>Afbeeldingen</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>group_afbeelding</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
           <t>field_afbeeldingen</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>Afbeeldingen</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F39" s="3" t="inlineStr">
-        <is>
-          <t>group_afbeelding</t>
-        </is>
-      </c>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t>field_afbeeldingen</t>
-        </is>
-      </c>
-      <c r="H39" s="3" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I39" s="3" t="inlineStr">
-        <is>
-          <t>media: image (Multiple values)</t>
         </is>
       </c>
     </row>
@@ -2166,39 +1993,34 @@
           <t>Album (was: Foto)</t>
         </is>
       </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>field_audio_type</t>
+        </is>
+      </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>field_audio_type</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_activiteiten</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>group_activiteiten</t>
+          <t>field_media_type</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>field_media_type</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>List (text): Uitvoering, Repetitie, Oefenbestand, Origineel, Uitzending, Overig | D11: hernoemd naar field_media_type</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2030,34 @@
           <t>Album (was: Foto)</t>
         </is>
       </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>field_ref_activiteit</t>
+        </is>
+      </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>field_ref_activiteit</t>
+          <t>Activiteit</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>Activiteit</t>
+          <t>Node reference</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>Node reference</t>
+          <t>group_activiteiten</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>group_activiteiten</t>
+          <t>field_activiteit</t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t>field_activiteit</t>
-        </is>
-      </c>
-      <c r="H41" s="3" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I41" s="3" t="inlineStr">
-        <is>
-          <t>Entity reference (node: activiteit) | D11: hernoemd naar field_activiteit</t>
         </is>
       </c>
     </row>
@@ -2250,35 +2067,30 @@
           <t>Locatie</t>
         </is>
       </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
+          <t>Titel</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Text (Node module)</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>Titel</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>Text (Node module)</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>Standaard titel veld</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -2288,35 +2100,30 @@
           <t>Locatie</t>
         </is>
       </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>field_l_adres</t>
+        </is>
+      </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>field_l_adres</t>
+          <t>Adres</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>Adres</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F43" s="3" t="inlineStr"/>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="n"/>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>field_locatie_adres</t>
+        </is>
+      </c>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t>field_locatie_adres</t>
-        </is>
-      </c>
-      <c r="H43" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I43" s="3" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_locatie_adres</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -2326,35 +2133,30 @@
           <t>Locatie</t>
         </is>
       </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>field_l_postcode</t>
+        </is>
+      </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>field_l_postcode</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr"/>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>field_locatie_postcode</t>
+        </is>
+      </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>field_locatie_postcode</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_locatie_postcode</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -2364,35 +2166,30 @@
           <t>Locatie</t>
         </is>
       </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>field_l_plaats</t>
+        </is>
+      </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>field_l_plaats</t>
+          <t>Plaats</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>Plaats</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F45" s="3" t="inlineStr"/>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="n"/>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>field_locatie_plaats</t>
+        </is>
+      </c>
       <c r="G45" s="3" t="inlineStr">
         <is>
-          <t>field_locatie_plaats</t>
-        </is>
-      </c>
-      <c r="H45" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I45" s="3" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_locatie_plaats</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -2402,35 +2199,30 @@
           <t>Locatie</t>
         </is>
       </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>field_l_routelink</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>field_l_routelink</t>
+          <t>Route</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Route</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>field_locatie_routelink</t>
+        </is>
+      </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>field_locatie_routelink</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
           <t>Link</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_locatie_routelink</t>
         </is>
       </c>
     </row>
@@ -2440,35 +2232,30 @@
           <t>Nieuws</t>
         </is>
       </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
+          <t>Titel</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>Text (Node module)</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="n"/>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>Titel</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="inlineStr">
-        <is>
-          <t>Text (Node module)</t>
-        </is>
-      </c>
-      <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="H47" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I47" s="3" t="inlineStr">
-        <is>
-          <t>Standaard titel veld</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -2478,35 +2265,30 @@
           <t>Nieuws</t>
         </is>
       </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
+          <t>Berichttekst</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>Text (Node module)</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n"/>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
           <t>body</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>Berichttekst</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>Text (Node module)</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>Text (formatted, long)</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -2516,35 +2298,30 @@
           <t>Nieuws</t>
         </is>
       </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>field_ref_activiteit</t>
+        </is>
+      </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>field_ref_activiteit</t>
+          <t>Activiteit</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>Activiteit</t>
-        </is>
-      </c>
-      <c r="E49" s="3" t="inlineStr">
-        <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="F49" s="3" t="inlineStr"/>
+      <c r="E49" s="3" t="n"/>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>field_activiteit</t>
+        </is>
+      </c>
       <c r="G49" s="3" t="inlineStr">
         <is>
-          <t>field_activiteit</t>
-        </is>
-      </c>
-      <c r="H49" s="3" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I49" s="3" t="inlineStr">
-        <is>
-          <t>Entity reference (node: activiteit) | D11: hernoemd naar field_activiteit</t>
         </is>
       </c>
     </row>
@@ -2554,39 +2331,34 @@
           <t>Nieuws</t>
         </is>
       </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>field_afbeeldingen</t>
+        </is>
+      </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
+          <t>Afbeeldingen</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>group_files</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
           <t>field_afbeeldingen</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>Afbeeldingen</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>group_files</t>
-        </is>
-      </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>field_afbeeldingen</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>media: image (Multiple values)</t>
         </is>
       </c>
     </row>
@@ -2596,39 +2368,34 @@
           <t>Nieuws</t>
         </is>
       </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>field_files</t>
+        </is>
+      </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
+          <t>Bestandsbijlages</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>group_files</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
           <t>field_files</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>Bestandsbijlages</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F51" s="3" t="inlineStr">
-        <is>
-          <t>group_files</t>
-        </is>
-      </c>
       <c r="G51" s="3" t="inlineStr">
         <is>
-          <t>field_files</t>
-        </is>
-      </c>
-      <c r="H51" s="3" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I51" s="3" t="inlineStr">
-        <is>
-          <t>Document media (type: Overige) | Multiple values (multiple values) | Document media (type: Overige) | Toegang: overgenomen van parent content/media</t>
         </is>
       </c>
     </row>
@@ -2638,35 +2405,30 @@
           <t>Pagina</t>
         </is>
       </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
+          <t>Titel</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>Text (Node module)</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n"/>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr">
-        <is>
-          <t>Titel</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>Text (Node module)</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="inlineStr">
-        <is>
-          <t>Standaard titel veld</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -2676,35 +2438,30 @@
           <t>Pagina</t>
         </is>
       </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
+          <t>Berichttekst</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>Text (Node module)</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="n"/>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
           <t>body</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>Berichttekst</t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="inlineStr">
-        <is>
-          <t>Text (Node module)</t>
-        </is>
-      </c>
-      <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="inlineStr">
         <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="H53" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I53" s="3" t="inlineStr">
-        <is>
-          <t>Text (formatted, long)</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -2714,39 +2471,34 @@
           <t>Pagina</t>
         </is>
       </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>field_afbeeldingen</t>
+        </is>
+      </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
+          <t>Afbeeldingen</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>group_files</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
           <t>field_afbeeldingen</t>
         </is>
       </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>Afbeeldingen</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>group_files</t>
-        </is>
-      </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>field_afbeeldingen</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>media: image (Multiple values)</t>
         </is>
       </c>
     </row>
@@ -2756,39 +2508,34 @@
           <t>Pagina</t>
         </is>
       </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>field_files</t>
+        </is>
+      </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
+          <t>Bestandsbijlages</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>group_files</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
           <t>field_files</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>Bestandsbijlages</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F55" s="3" t="inlineStr">
-        <is>
-          <t>group_files</t>
-        </is>
-      </c>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t>field_files</t>
-        </is>
-      </c>
-      <c r="H55" s="3" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I55" s="3" t="inlineStr">
-        <is>
-          <t>Document media (type: Overige) | Multiple values (multiple values) | Document media (type: Overige) | Toegang: overgenomen van parent content/media</t>
         </is>
       </c>
     </row>
@@ -2798,39 +2545,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>field_voornaam</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
+          <t>Voornaam</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>persoonlijk</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
           <t>field_voornaam</t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>Voornaam</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>persoonlijk</t>
-        </is>
-      </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>field_voornaam</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t>Wordt user field in D11 (niet content type)</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -2840,39 +2582,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>field_achternaam_voorvoegsel</t>
+        </is>
+      </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
+          <t>Achternaam voorvoegsel</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>persoonlijk</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
           <t>field_achternaam_voorvoegsel</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>Achternaam voorvoegsel</t>
-        </is>
-      </c>
-      <c r="E57" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F57" s="3" t="inlineStr">
-        <is>
-          <t>persoonlijk</t>
-        </is>
-      </c>
       <c r="G57" s="3" t="inlineStr">
         <is>
-          <t>field_achternaam_voorvoegsel</t>
-        </is>
-      </c>
-      <c r="H57" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I57" s="3" t="inlineStr">
-        <is>
-          <t>Wordt user field in D11 (niet content type)</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -2882,39 +2619,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>field_achternaam</t>
+        </is>
+      </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
+          <t>Achternaam</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>persoonlijk</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
           <t>field_achternaam</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr">
-        <is>
-          <t>Achternaam</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>persoonlijk</t>
-        </is>
-      </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>field_achternaam</t>
-        </is>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="inlineStr">
-        <is>
-          <t>Wordt user field in D11 (niet content type)</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -2924,39 +2656,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>field_adres</t>
+        </is>
+      </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
+          <t>Adres</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>persoonlijk</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
           <t>field_adres</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>Adres</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F59" s="3" t="inlineStr">
-        <is>
-          <t>persoonlijk</t>
-        </is>
-      </c>
       <c r="G59" s="3" t="inlineStr">
         <is>
-          <t>field_adres</t>
-        </is>
-      </c>
-      <c r="H59" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I59" s="3" t="inlineStr">
-        <is>
-          <t>Wordt user field in D11 (niet content type)</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -2966,39 +2693,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>field_postcode</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
+          <t>Postcode</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>persoonlijk</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
           <t>field_postcode</t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>persoonlijk</t>
-        </is>
-      </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>field_postcode</t>
-        </is>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t>Wordt user field in D11 (niet content type)</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -3008,39 +2730,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>field_woonplaats</t>
+        </is>
+      </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
+          <t>Woonplaats</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>persoonlijk</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
           <t>field_woonplaats</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>Woonplaats</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F61" s="3" t="inlineStr">
-        <is>
-          <t>persoonlijk</t>
-        </is>
-      </c>
       <c r="G61" s="3" t="inlineStr">
         <is>
-          <t>field_woonplaats</t>
-        </is>
-      </c>
-      <c r="H61" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I61" s="3" t="inlineStr">
-        <is>
-          <t>Wordt user field in D11 (niet content type)</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -3050,39 +2767,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>field_telefoon</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
+          <t>Telefoon</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>persoonlijk</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
           <t>field_telefoon</t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>Telefoon</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>persoonlijk</t>
-        </is>
-      </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>field_telefoon</t>
-        </is>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>Wordt user field in D11 (niet content type)</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -3092,39 +2804,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>field_mobiel</t>
+        </is>
+      </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
+          <t>Mobiel</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>persoonlijk</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
           <t>field_mobiel</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>Mobiel</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F63" s="3" t="inlineStr">
-        <is>
-          <t>persoonlijk</t>
-        </is>
-      </c>
       <c r="G63" s="3" t="inlineStr">
         <is>
-          <t>field_mobiel</t>
-        </is>
-      </c>
-      <c r="H63" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I63" s="3" t="inlineStr">
-        <is>
-          <t>Wordt user field in D11 (niet content type)</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -3134,39 +2841,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>field_geslacht</t>
+        </is>
+      </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
+          <t>Geslacht</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>persoonlijk</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
           <t>field_geslacht</t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>Geslacht</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>persoonlijk</t>
-        </is>
-      </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>field_geslacht</t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t>List (text): m|Man, v|Vrouw | Wordt user field in D11 (niet content type)</t>
         </is>
       </c>
     </row>
@@ -3176,39 +2878,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>field_geboortedatum</t>
+        </is>
+      </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
+          <t>Geboortedatum</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>persoonlijk</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
           <t>field_geboortedatum</t>
         </is>
       </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>Geboortedatum</t>
-        </is>
-      </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="G65" s="3" t="inlineStr">
         <is>
           <t>Date</t>
-        </is>
-      </c>
-      <c r="F65" s="3" t="inlineStr">
-        <is>
-          <t>persoonlijk</t>
-        </is>
-      </c>
-      <c r="G65" s="3" t="inlineStr">
-        <is>
-          <t>field_geboortedatum</t>
-        </is>
-      </c>
-      <c r="H65" s="3" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="I65" s="3" t="inlineStr">
-        <is>
-          <t>Wordt user field in D11 (niet content type)</t>
         </is>
       </c>
     </row>
@@ -3218,39 +2915,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>field_lidssinds</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>field_lidssinds</t>
+          <t>Lid Sinds</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>Lid Sinds</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
+          <t>koor</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>field_lid_start</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
           <t>Date</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>koor</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>field_lid_start</t>
-        </is>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="inlineStr">
-        <is>
-          <t>Wordt user field in D11 (niet content type) | D11: hernoemd naar field_lid_start</t>
         </is>
       </c>
     </row>
@@ -3260,39 +2952,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>field_uitkoor</t>
+        </is>
+      </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>field_uitkoor</t>
+          <t>Uit koor per</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>Uit koor per</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
+          <t>koor</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>field_lid_stop</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="inlineStr">
+        <is>
           <t>Date</t>
-        </is>
-      </c>
-      <c r="F67" s="3" t="inlineStr">
-        <is>
-          <t>koor</t>
-        </is>
-      </c>
-      <c r="G67" s="3" t="inlineStr">
-        <is>
-          <t>field_lid_stop</t>
-        </is>
-      </c>
-      <c r="H67" s="3" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="I67" s="3" t="inlineStr">
-        <is>
-          <t>Wordt user field in D11 (niet content type) | D11: hernoemd naar field_lid_stop</t>
         </is>
       </c>
     </row>
@@ -3302,39 +2989,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>field_koor</t>
+        </is>
+      </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>field_koor</t>
+          <t>Koorfunctie</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>Koorfunctie</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>koor</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>koor</t>
+          <t>field_koorfunctie</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>field_koorfunctie</t>
-        </is>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="inlineStr">
-        <is>
-          <t>List (text): B|Bas, A|Tenor, E|Alt, C|1e Sopraan, D|2e Sopraan, Y1|Dirigent, Z1|Toetsenist, Z2|Gitarist, Z3|Bassist, Z4|Drummer, Z5|Percussie | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_koorfunctie</t>
         </is>
       </c>
     </row>
@@ -3344,39 +3026,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>field_sleepgroep_1</t>
+        </is>
+      </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>field_sleepgroep_1</t>
+          <t>Sleepgroep</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>Sleepgroep</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>koor</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>koor</t>
+          <t>field_sleepgroep</t>
         </is>
       </c>
       <c r="G69" s="3" t="inlineStr">
         <is>
-          <t>field_sleepgroep</t>
-        </is>
-      </c>
-      <c r="H69" s="3" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I69" s="3" t="inlineStr">
-        <is>
-          <t>List (text): 1|I, 2|II, 3|III, 4|IV, 5|V, 8|OG, 9|- | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_sleepgroep</t>
         </is>
       </c>
     </row>
@@ -3386,39 +3063,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>field_karrijder</t>
+        </is>
+      </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>field_karrijder</t>
+          <t>Karrijder</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>Karrijder</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>koor</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>koor</t>
+          <t>Boolean</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>field_karrijder</t>
-        </is>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>Boolean</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>Wordt user field in D11 (niet content type) | Boolean (checkbox: aan/uit)</t>
+          <t>Boolean (Ja/Nee) | D6: 0=Nee, *=Ja (Karrijder)</t>
         </is>
       </c>
     </row>
@@ -3428,39 +3100,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>field_positie_rij</t>
+        </is>
+      </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
+          <t>Positie rij</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>koor</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
           <t>field_positie_rij</t>
         </is>
       </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t>Positie rij</t>
-        </is>
-      </c>
-      <c r="E71" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F71" s="3" t="inlineStr">
-        <is>
-          <t>koor</t>
-        </is>
-      </c>
       <c r="G71" s="3" t="inlineStr">
         <is>
-          <t>field_positie_rij</t>
-        </is>
-      </c>
-      <c r="H71" s="3" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I71" s="3" t="inlineStr">
-        <is>
-          <t>List (text): R4|Rij 4, R3|Rij 3, R2|Rij 2, R1|Rij 1, RB|Band, RD|Dirigent, RND|Niet ingedeeld | Wordt user field in D11 (niet content type)</t>
         </is>
       </c>
     </row>
@@ -3470,39 +3137,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>field_positie_kolom</t>
+        </is>
+      </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
+          <t>Positie kolom</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>koor</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
           <t>field_positie_kolom</t>
         </is>
       </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>Positie kolom</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>koor</t>
-        </is>
-      </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>field_positie_kolom</t>
-        </is>
-      </c>
-      <c r="H72" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I72" s="2" t="inlineStr">
-        <is>
-          <t>List (text): K01|Kolom 1, K02|Kolom 2, K03|Kolom 3, K04|Kolom 4, K05|Kolom 5, K06|Kolom 6, K07|Kolom 7, K08|Kolom 8, K09|Kolom 9, K10|Kolom 10, K11|Kolom 11, K12|Kolom 12, K13|Kolom 13, K14|Kolom 14, K15|Kolom 15, K16|Kolom 16 | Wordt user field in D11 (niet content type)</t>
         </is>
       </c>
     </row>
@@ -3512,39 +3174,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>field_functie_bestuur</t>
+        </is>
+      </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
+          <t>Functie Bestuur</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>commissies</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
           <t>field_functie_bestuur</t>
         </is>
       </c>
-      <c r="D73" s="3" t="inlineStr">
-        <is>
-          <t>Functie Bestuur</t>
-        </is>
-      </c>
-      <c r="E73" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F73" s="3" t="inlineStr">
-        <is>
-          <t>commissies</t>
-        </is>
-      </c>
       <c r="G73" s="3" t="inlineStr">
         <is>
-          <t>field_functie_bestuur</t>
-        </is>
-      </c>
-      <c r="H73" s="3" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I73" s="3" t="inlineStr">
-        <is>
-          <t>List (text): 1|Voorzitter, 2|Secretaris, 3|Penningmeester, 4|Bestuurslid | Wordt user field in D11 (niet content type)</t>
         </is>
       </c>
     </row>
@@ -3554,39 +3211,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>field_functie_mc</t>
+        </is>
+      </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>field_functie_mc</t>
+          <t>Functie Muziekcommissie</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>Functie Muziekcommissie</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>commissies</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>commissies</t>
+          <t>field_functie_muziekcommissie</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>field_functie_muziekcommissie</t>
-        </is>
-      </c>
-      <c r="H74" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I74" s="2" t="inlineStr">
-        <is>
-          <t>List (text): 1|Bestuurslid, 10|Voorzitter, 20|Secretaris, 30|Dirigent, 40|Contactpersoon band, 90|Lid | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_functie_muziekcommissie</t>
         </is>
       </c>
     </row>
@@ -3596,39 +3248,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>field_functie_concert</t>
+        </is>
+      </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
+          <t>Functie Commissie Concerten</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>commissies</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="inlineStr">
+        <is>
           <t>field_functie_concert</t>
         </is>
       </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>Functie Commissie Concerten</t>
-        </is>
-      </c>
-      <c r="E75" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F75" s="3" t="inlineStr">
-        <is>
-          <t>commissies</t>
-        </is>
-      </c>
       <c r="G75" s="3" t="inlineStr">
         <is>
-          <t>field_functie_concert</t>
-        </is>
-      </c>
-      <c r="H75" s="3" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I75" s="3" t="inlineStr">
-        <is>
-          <t>List (text): 1|Bestuurslid, 10|Lid | Wordt user field in D11 (niet content type)</t>
         </is>
       </c>
     </row>
@@ -3638,39 +3285,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>field_functie_pr</t>
+        </is>
+      </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
+          <t>Functie Commissie PR</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>commissies</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
           <t>field_functie_pr</t>
         </is>
       </c>
-      <c r="D76" s="2" t="inlineStr">
-        <is>
-          <t>Functie Commissie PR</t>
-        </is>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>commissies</t>
-        </is>
-      </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>field_functie_pr</t>
-        </is>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="inlineStr">
-        <is>
-          <t>List (text): 1|Bestuurslid, 8|Website, 9|Social Media, 10|Lid | Wordt user field in D11 (niet content type)</t>
         </is>
       </c>
     </row>
@@ -3680,39 +3322,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>field_functie_feest</t>
+        </is>
+      </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
+          <t>Functie Feestcommissie</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>commissies</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
           <t>field_functie_feest</t>
         </is>
       </c>
-      <c r="D77" s="3" t="inlineStr">
-        <is>
-          <t>Functie Feestcommissie</t>
-        </is>
-      </c>
-      <c r="E77" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F77" s="3" t="inlineStr">
-        <is>
-          <t>commissies</t>
-        </is>
-      </c>
       <c r="G77" s="3" t="inlineStr">
         <is>
-          <t>field_functie_feest</t>
-        </is>
-      </c>
-      <c r="H77" s="3" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I77" s="3" t="inlineStr">
-        <is>
-          <t>List (text): 1|Bestuurslid, 10|Lid | Wordt user field in D11 (niet content type)</t>
         </is>
       </c>
     </row>
@@ -3722,39 +3359,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>field_functie_regie</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
+          <t>Functie Commissie Koorregie</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>commissies</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
           <t>field_functie_regie</t>
         </is>
       </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t>Functie Commissie Koorregie</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>commissies</t>
-        </is>
-      </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>field_functie_regie</t>
-        </is>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="inlineStr">
-        <is>
-          <t>List (text): 1|Bestuurslid, 10|Lid | Wordt user field in D11 (niet content type)</t>
         </is>
       </c>
     </row>
@@ -3764,39 +3396,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>field_functie_ir</t>
+        </is>
+      </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>field_functie_ir</t>
+          <t>Functie Commissie Interne Relaties</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>Functie Commissie Interne Relaties</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>commissies</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>commissies</t>
+          <t>field_functie_interne_relaties</t>
         </is>
       </c>
       <c r="G79" s="3" t="inlineStr">
         <is>
-          <t>field_functie_interne_relaties</t>
-        </is>
-      </c>
-      <c r="H79" s="3" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I79" s="3" t="inlineStr">
-        <is>
-          <t>List (text): 1|Bestuurslid, 10|Lid, 11|Interne relaties | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_functie_interne_relaties</t>
         </is>
       </c>
     </row>
@@ -3806,39 +3433,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>field_functie_tec</t>
+        </is>
+      </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>field_functie_tec</t>
+          <t>Functie Technische Commissie</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>Functie Technische Commissie</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>commissies</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>commissies</t>
+          <t>field_functie_technisch</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>field_functie_technisch</t>
-        </is>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="inlineStr">
-        <is>
-          <t>List (text): 1|Bestuurslid, 10|Lid | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_functie_technisch</t>
         </is>
       </c>
     </row>
@@ -3848,39 +3470,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>field_functie_lw</t>
+        </is>
+      </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>field_functie_lw</t>
+          <t>Functie ledenwerf</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>Functie ledenwerf</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>commissies</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>commissies</t>
+          <t>field_functie_ledenwerving</t>
         </is>
       </c>
       <c r="G81" s="3" t="inlineStr">
         <is>
-          <t>field_functie_ledenwerving</t>
-        </is>
-      </c>
-      <c r="H81" s="3" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I81" s="3" t="inlineStr">
-        <is>
-          <t>List (text): 1|Bestuurslid, 10|Lid | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_functie_ledenwerving</t>
         </is>
       </c>
     </row>
@@ -3890,39 +3507,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>field_functie_fl</t>
+        </is>
+      </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>field_functie_fl</t>
+          <t>Functie Faciliteiten</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>Functie Faciliteiten</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>commissies</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>commissies</t>
+          <t>field_functie_faciliteiten</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>field_functie_faciliteiten</t>
-        </is>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="inlineStr">
-        <is>
-          <t>List (text): 1|Bestuurslid, 10|Lid | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_functie_faciliteiten</t>
         </is>
       </c>
     </row>
@@ -3932,39 +3544,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>field_emailbewaking</t>
+        </is>
+      </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>field_emailbewaking</t>
+          <t>Email origineel</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>Email origineel</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>beheer</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>beheer</t>
+          <t>field_email_origineel</t>
         </is>
       </c>
       <c r="G83" s="3" t="inlineStr">
         <is>
-          <t>field_email_origineel</t>
-        </is>
-      </c>
-      <c r="H83" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I83" s="3" t="inlineStr">
-        <is>
-          <t>Wordt user field in D11 (niet content type) | D11: hernoemd naar field_email_origineel</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -3974,39 +3581,34 @@
           <t>User fields (was: Profiel content type)</t>
         </is>
       </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>field_notes</t>
+        </is>
+      </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>field_notes</t>
+          <t>Notities</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>Notities</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>beheer</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>beheer</t>
+          <t>field_notities</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>field_notities</t>
-        </is>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
           <t>Text (formatted, long)</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="inlineStr">
-        <is>
-          <t>Text area met text format filters (HTML ondersteuning) | Wordt user field in D11 (niet content type) | D11: hernoemd naar field_notities</t>
         </is>
       </c>
     </row>
@@ -4016,35 +3618,30 @@
           <t>Programma</t>
         </is>
       </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
+          <t>Titel</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>Text (Node module)</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="n"/>
+      <c r="F85" s="3" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D85" s="3" t="inlineStr">
-        <is>
-          <t>Titel</t>
-        </is>
-      </c>
-      <c r="E85" s="3" t="inlineStr">
-        <is>
-          <t>Text (Node module)</t>
-        </is>
-      </c>
-      <c r="F85" s="3" t="inlineStr"/>
       <c r="G85" s="3" t="inlineStr">
         <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="H85" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I85" s="3" t="inlineStr">
-        <is>
-          <t>Standaard titel veld</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -4054,35 +3651,30 @@
           <t>Programma</t>
         </is>
       </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>field_prog_type</t>
+        </is>
+      </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>field_prog_type</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E86" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr"/>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n"/>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>field_programma_type</t>
+        </is>
+      </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>field_programma_type</t>
-        </is>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="inlineStr">
-        <is>
-          <t>List (text): programma|Programma onderdeel, nummer|Nummer | D11: hernoemd naar field_programma_type</t>
         </is>
       </c>
     </row>
@@ -4092,35 +3684,30 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
+          <t>Titel</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>Text (Node module)</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="n"/>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D87" s="3" t="inlineStr">
-        <is>
-          <t>Titel</t>
-        </is>
-      </c>
-      <c r="E87" s="3" t="inlineStr">
-        <is>
-          <t>Text (Node module)</t>
-        </is>
-      </c>
-      <c r="F87" s="3" t="inlineStr"/>
       <c r="G87" s="3" t="inlineStr">
         <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="H87" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I87" s="3" t="inlineStr">
-        <is>
-          <t>Standaard titel veld</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -4130,39 +3717,34 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>field_audio_nummer</t>
+        </is>
+      </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>field_audio_nummer</t>
+          <t>Nummer</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>Nummer</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
+          <t>group_repertoire</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>field_repertoire_nummer</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
           <t>Integer</t>
-        </is>
-      </c>
-      <c r="F88" s="2" t="inlineStr">
-        <is>
-          <t>group_repertoire</t>
-        </is>
-      </c>
-      <c r="G88" s="2" t="inlineStr">
-        <is>
-          <t>field_repertoire_nummer</t>
-        </is>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_repertoire_nummer</t>
         </is>
       </c>
     </row>
@@ -4172,39 +3754,34 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>field_audio_seizoen</t>
+        </is>
+      </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>field_audio_seizoen</t>
+          <t>Seizoen</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>Seizoen</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_repertoire</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>group_repertoire</t>
+          <t>field_repertoire_seizoen</t>
         </is>
       </c>
       <c r="G89" s="3" t="inlineStr">
         <is>
-          <t>field_repertoire_seizoen</t>
-        </is>
-      </c>
-      <c r="H89" s="3" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I89" s="3" t="inlineStr">
-        <is>
-          <t>List (text): Regulier|Regulier, Kerst|Kerst | D11: hernoemd naar field_repertoire_seizoen</t>
         </is>
       </c>
     </row>
@@ -4214,39 +3791,34 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>field_rep_genre</t>
+        </is>
+      </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>field_rep_genre</t>
+          <t>Genre</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>Genre</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_repertoire</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>group_repertoire</t>
+          <t>field_repertoire_genre</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>field_repertoire_genre</t>
-        </is>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="inlineStr">
-        <is>
-          <t>List (text): Pop, Musical / Film, Geestelijk / Gospel | D11: hernoemd naar field_repertoire_genre</t>
         </is>
       </c>
     </row>
@@ -4256,39 +3828,34 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>field_klapper</t>
+        </is>
+      </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>field_klapper</t>
+          <t>Actueel</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>Actueel</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_repertoire</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>group_repertoire</t>
+          <t>field_repertoire_actueel</t>
         </is>
       </c>
       <c r="G91" s="3" t="inlineStr">
         <is>
-          <t>field_repertoire_actueel</t>
-        </is>
-      </c>
-      <c r="H91" s="3" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I91" s="3" t="inlineStr">
-        <is>
-          <t>List (text): Nee, Ja | D11: hernoemd naar field_repertoire_actueel</t>
         </is>
       </c>
     </row>
@@ -4298,39 +3865,34 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>field_rep_sinds</t>
+        </is>
+      </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>field_rep_sinds</t>
+          <t>In repertoire sinds</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>In repertoire sinds</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
+          <t>group_repertoire</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>field_repertoire_sinds</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
           <t>Integer</t>
-        </is>
-      </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>group_repertoire</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="inlineStr">
-        <is>
-          <t>field_repertoire_sinds</t>
-        </is>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="I92" s="2" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_repertoire_sinds</t>
         </is>
       </c>
     </row>
@@ -4340,39 +3902,34 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>field_afbeeldingen</t>
+        </is>
+      </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
+          <t>Afbeeldingen</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>group_repertoire</t>
+        </is>
+      </c>
+      <c r="F93" s="3" t="inlineStr">
+        <is>
           <t>field_afbeeldingen</t>
         </is>
       </c>
-      <c r="D93" s="3" t="inlineStr">
-        <is>
-          <t>Afbeeldingen</t>
-        </is>
-      </c>
-      <c r="E93" s="3" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F93" s="3" t="inlineStr">
-        <is>
-          <t>group_repertoire</t>
-        </is>
-      </c>
       <c r="G93" s="3" t="inlineStr">
         <is>
-          <t>field_afbeeldingen</t>
-        </is>
-      </c>
-      <c r="H93" s="3" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I93" s="3" t="inlineStr">
-        <is>
-          <t>media: image (Multiple values)</t>
         </is>
       </c>
     </row>
@@ -4382,39 +3939,34 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>field_rep_uitv</t>
+        </is>
+      </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>field_rep_uitv</t>
+          <t>Uitvoerende</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>Uitvoerende</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_uitvoerende</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>group_uitvoerende</t>
+          <t>field_repertoire_uitvoerende</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>field_repertoire_uitvoerende</t>
-        </is>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_repertoire_uitvoerende</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -4424,39 +3976,34 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>field_rep_uitv_jaar</t>
+        </is>
+      </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>field_rep_uitv_jaar</t>
+          <t>Jaar uitvoering</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>Jaar uitvoering</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
+          <t>group_uitvoerende</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>field_repertoire_uitvoerende_jaar</t>
+        </is>
+      </c>
+      <c r="G95" s="3" t="inlineStr">
+        <is>
           <t>Integer</t>
-        </is>
-      </c>
-      <c r="F95" s="3" t="inlineStr">
-        <is>
-          <t>group_uitvoerende</t>
-        </is>
-      </c>
-      <c r="G95" s="3" t="inlineStr">
-        <is>
-          <t>field_repertoire_uitvoerende_jaar</t>
-        </is>
-      </c>
-      <c r="H95" s="3" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="I95" s="3" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_repertoire_uitvoerende_jaar</t>
         </is>
       </c>
     </row>
@@ -4466,39 +4013,34 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>field_rep_componist</t>
+        </is>
+      </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>field_rep_componist</t>
+          <t>Componist</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>Componist</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_componist</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>group_componist</t>
+          <t>field_repertoire_componist</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>field_repertoire_componist</t>
-        </is>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_repertoire_componist</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -4508,39 +4050,34 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>field_rep_componist_jaar</t>
+        </is>
+      </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>field_rep_componist_jaar</t>
+          <t>Jaar compositie</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>Jaar compositie</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
+          <t>group_componist</t>
+        </is>
+      </c>
+      <c r="F97" s="3" t="inlineStr">
+        <is>
+          <t>field_repertoire_componist_jaar</t>
+        </is>
+      </c>
+      <c r="G97" s="3" t="inlineStr">
+        <is>
           <t>Integer</t>
-        </is>
-      </c>
-      <c r="F97" s="3" t="inlineStr">
-        <is>
-          <t>group_componist</t>
-        </is>
-      </c>
-      <c r="G97" s="3" t="inlineStr">
-        <is>
-          <t>field_repertoire_componist_jaar</t>
-        </is>
-      </c>
-      <c r="H97" s="3" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="I97" s="3" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_repertoire_componist_jaar</t>
         </is>
       </c>
     </row>
@@ -4550,39 +4087,34 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>field_rep_arr</t>
+        </is>
+      </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>field_rep_arr</t>
+          <t>Arrangeur</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>Arrangeur</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>group_arrangeur</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>group_arrangeur</t>
+          <t>field_repertoire_arrangeur</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>field_repertoire_arrangeur</t>
-        </is>
-      </c>
-      <c r="H98" s="2" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I98" s="2" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_repertoire_arrangeur</t>
+          <t>Text</t>
         </is>
       </c>
     </row>
@@ -4592,39 +4124,34 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>field_rep_arr_jaar</t>
+        </is>
+      </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>field_rep_arr_jaar</t>
+          <t>Jaar arrangement</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>Jaar arrangement</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
+          <t>group_arrangeur</t>
+        </is>
+      </c>
+      <c r="F99" s="3" t="inlineStr">
+        <is>
+          <t>field_repertoire_arrangeur_jaar</t>
+        </is>
+      </c>
+      <c r="G99" s="3" t="inlineStr">
+        <is>
           <t>Integer</t>
-        </is>
-      </c>
-      <c r="F99" s="3" t="inlineStr">
-        <is>
-          <t>group_arrangeur</t>
-        </is>
-      </c>
-      <c r="G99" s="3" t="inlineStr">
-        <is>
-          <t>field_repertoire_arrangeur_jaar</t>
-        </is>
-      </c>
-      <c r="H99" s="3" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="I99" s="3" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_repertoire_arrangeur_jaar</t>
         </is>
       </c>
     </row>
@@ -4634,33 +4161,28 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B100" s="6" t="inlineStr">
+        <is>
+          <t>field_partij_tekst</t>
+        </is>
+      </c>
       <c r="C100" s="6" t="inlineStr">
         <is>
-          <t>field_partij_tekst</t>
+          <t>Tekst / koorregie</t>
         </is>
       </c>
       <c r="D100" s="6" t="inlineStr">
         <is>
-          <t>Tekst / koorregie</t>
+          <t>File</t>
         </is>
       </c>
       <c r="E100" s="6" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F100" s="6" t="inlineStr">
-        <is>
           <t>group_tekst</t>
         </is>
       </c>
-      <c r="G100" s="6" t="inlineStr"/>
-      <c r="H100" s="6" t="inlineStr"/>
-      <c r="I100" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT in D11 - Document media (type: Koorregie) | Standaard toegang: Leden, Aspirant-Leden, Muziekcommissie | Document media krijgt field_repertoire terug-verwijzing</t>
-        </is>
-      </c>
+      <c r="F100" s="6" t="n"/>
+      <c r="G100" s="6" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="6" t="inlineStr">
@@ -4668,33 +4190,28 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B101" s="6" t="inlineStr">
+        <is>
+          <t>field_partij_koor_l</t>
+        </is>
+      </c>
       <c r="C101" s="6" t="inlineStr">
         <is>
-          <t>field_partij_koor_l</t>
+          <t>Koorpartituur</t>
         </is>
       </c>
       <c r="D101" s="6" t="inlineStr">
         <is>
-          <t>Koorpartituur</t>
+          <t>File</t>
         </is>
       </c>
       <c r="E101" s="6" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F101" s="6" t="inlineStr">
-        <is>
           <t>group_koor</t>
         </is>
       </c>
-      <c r="G101" s="6" t="inlineStr"/>
-      <c r="H101" s="6" t="inlineStr"/>
-      <c r="I101" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT in D11 - Document media (type: Koorpartituur) | Standaard toegang: Leden, Aspirant-Leden, Muziekcommissie | Document media krijgt field_repertoire terug-verwijzing</t>
-        </is>
-      </c>
+      <c r="F101" s="6" t="n"/>
+      <c r="G101" s="6" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="6" t="inlineStr">
@@ -4702,33 +4219,28 @@
           <t>Repertoire</t>
         </is>
       </c>
+      <c r="B102" s="6" t="inlineStr">
+        <is>
+          <t>field_partij_band</t>
+        </is>
+      </c>
       <c r="C102" s="6" t="inlineStr">
         <is>
-          <t>field_partij_band</t>
+          <t>Bandpartituur</t>
         </is>
       </c>
       <c r="D102" s="6" t="inlineStr">
         <is>
-          <t>Bandpartituur</t>
+          <t>File</t>
         </is>
       </c>
       <c r="E102" s="6" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F102" s="6" t="inlineStr">
-        <is>
           <t>group_band</t>
         </is>
       </c>
-      <c r="G102" s="6" t="inlineStr"/>
-      <c r="H102" s="6" t="inlineStr"/>
-      <c r="I102" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT in D11 - Document media (type: Bandpartituur) | Standaard toegang: Band, Muziekcommissie | Document media krijgt field_repertoire terug-verwijzing</t>
-        </is>
-      </c>
+      <c r="F102" s="6" t="n"/>
+      <c r="G102" s="6" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="5" t="inlineStr">
@@ -4736,29 +4248,24 @@
           <t>Verslag (VERVALT → Document media)</t>
         </is>
       </c>
+      <c r="B103" s="6" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="C103" s="6" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Titel</t>
         </is>
       </c>
       <c r="D103" s="6" t="inlineStr">
         <is>
-          <t>Titel</t>
-        </is>
-      </c>
-      <c r="E103" s="6" t="inlineStr">
-        <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="F103" s="6" t="inlineStr"/>
-      <c r="G103" s="6" t="inlineStr"/>
-      <c r="H103" s="6" t="inlineStr"/>
-      <c r="I103" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Document media entity (Verslag)</t>
-        </is>
-      </c>
+      <c r="E103" s="6" t="n"/>
+      <c r="F103" s="6" t="n"/>
+      <c r="G103" s="6" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="6" t="inlineStr">
@@ -4766,29 +4273,24 @@
           <t>Verslag (VERVALT → Document media)</t>
         </is>
       </c>
+      <c r="B104" s="6" t="inlineStr">
+        <is>
+          <t>field_datum</t>
+        </is>
+      </c>
       <c r="C104" s="6" t="inlineStr">
         <is>
-          <t>field_datum</t>
+          <t>Datum</t>
         </is>
       </c>
       <c r="D104" s="6" t="inlineStr">
         <is>
-          <t>Datum</t>
-        </is>
-      </c>
-      <c r="E104" s="6" t="inlineStr">
-        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F104" s="6" t="inlineStr"/>
-      <c r="G104" s="6" t="inlineStr"/>
-      <c r="H104" s="6" t="inlineStr"/>
-      <c r="I104" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Document media entity (Verslag)</t>
-        </is>
-      </c>
+      <c r="E104" s="6" t="n"/>
+      <c r="F104" s="6" t="n"/>
+      <c r="G104" s="6" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="6" t="inlineStr">
@@ -4796,35 +4298,30 @@
           <t>Verslag (VERVALT → Document media)</t>
         </is>
       </c>
+      <c r="B105" s="6" t="inlineStr">
+        <is>
+          <t>taxonomy</t>
+        </is>
+      </c>
       <c r="C105" s="6" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="D105" s="6" t="inlineStr">
+        <is>
+          <t>Taxonomy (Taxonomy module)</t>
+        </is>
+      </c>
+      <c r="E105" s="6" t="n"/>
+      <c r="F105" s="6" t="inlineStr">
+        <is>
           <t>taxonomy</t>
         </is>
       </c>
-      <c r="D105" s="6" t="inlineStr">
-        <is>
-          <t>Taxonomie</t>
-        </is>
-      </c>
-      <c r="E105" s="6" t="inlineStr">
-        <is>
-          <t>Taxonomy (Taxonomy module)</t>
-        </is>
-      </c>
-      <c r="F105" s="6" t="inlineStr"/>
       <c r="G105" s="6" t="inlineStr">
         <is>
-          <t>taxonomy</t>
-        </is>
-      </c>
-      <c r="H105" s="6" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I105" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Document media entity (Verslag) | List (text): Algemene Ledenvergadering, Bestuursvergadering, Combo Overleg, Concertcommissie, Jaarevaluatie Dirigent, Jaarverslag, Overige Vergadering, Vergadering Muziekcommissie</t>
         </is>
       </c>
     </row>
@@ -4834,35 +4331,30 @@
           <t>Verslag (VERVALT → Document media)</t>
         </is>
       </c>
+      <c r="B106" s="6" t="inlineStr">
+        <is>
+          <t>field_files</t>
+        </is>
+      </c>
       <c r="C106" s="6" t="inlineStr">
         <is>
+          <t>Bestandsbijlages</t>
+        </is>
+      </c>
+      <c r="D106" s="6" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="E106" s="6" t="n"/>
+      <c r="F106" s="6" t="inlineStr">
+        <is>
           <t>field_files</t>
         </is>
       </c>
-      <c r="D106" s="6" t="inlineStr">
-        <is>
-          <t>Bestandsbijlages</t>
-        </is>
-      </c>
-      <c r="E106" s="6" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F106" s="6" t="inlineStr"/>
       <c r="G106" s="6" t="inlineStr">
         <is>
-          <t>field_files</t>
-        </is>
-      </c>
-      <c r="H106" s="6" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I106" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Document media entity (Verslag) | Document media (type: Overige) | Multiple values (multiple values) | Document media (type: Overige) | Toegang: overgenomen van parent content/media</t>
         </is>
       </c>
     </row>
@@ -4872,29 +4364,24 @@
           <t>Video (VERVALT → Remote Video media)</t>
         </is>
       </c>
+      <c r="B107" s="6" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="C107" s="6" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Titel</t>
         </is>
       </c>
       <c r="D107" s="6" t="inlineStr">
         <is>
-          <t>Titel</t>
-        </is>
-      </c>
-      <c r="E107" s="6" t="inlineStr">
-        <is>
           <t>Text (Node module)</t>
         </is>
       </c>
-      <c r="F107" s="6" t="inlineStr"/>
-      <c r="G107" s="6" t="inlineStr"/>
-      <c r="H107" s="6" t="inlineStr"/>
-      <c r="I107" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Remote Video media entity</t>
-        </is>
-      </c>
+      <c r="E107" s="6" t="n"/>
+      <c r="F107" s="6" t="n"/>
+      <c r="G107" s="6" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="6" t="inlineStr">
@@ -4902,35 +4389,30 @@
           <t>Video (VERVALT → Remote Video media)</t>
         </is>
       </c>
+      <c r="B108" s="6" t="inlineStr">
+        <is>
+          <t>field_video</t>
+        </is>
+      </c>
       <c r="C108" s="6" t="inlineStr">
         <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="D108" s="6" t="inlineStr">
+        <is>
+          <t>Embedded Video</t>
+        </is>
+      </c>
+      <c r="E108" s="6" t="n"/>
+      <c r="F108" s="6" t="inlineStr">
+        <is>
           <t>field_video</t>
         </is>
       </c>
-      <c r="D108" s="6" t="inlineStr">
-        <is>
-          <t>Video</t>
-        </is>
-      </c>
-      <c r="E108" s="6" t="inlineStr">
-        <is>
-          <t>Embedded Video</t>
-        </is>
-      </c>
-      <c r="F108" s="6" t="inlineStr"/>
       <c r="G108" s="6" t="inlineStr">
         <is>
-          <t>field_video</t>
-        </is>
-      </c>
-      <c r="H108" s="6" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I108" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Remote Video media entity | media: remote_video (YouTube)</t>
         </is>
       </c>
     </row>
@@ -4940,35 +4422,30 @@
           <t>Video (VERVALT → Remote Video media)</t>
         </is>
       </c>
+      <c r="B109" s="6" t="inlineStr">
+        <is>
+          <t>field_repertoire</t>
+        </is>
+      </c>
       <c r="C109" s="6" t="inlineStr">
         <is>
+          <t>Nummer</t>
+        </is>
+      </c>
+      <c r="D109" s="6" t="inlineStr">
+        <is>
+          <t>Node reference</t>
+        </is>
+      </c>
+      <c r="E109" s="6" t="n"/>
+      <c r="F109" s="6" t="inlineStr">
+        <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="D109" s="6" t="inlineStr">
-        <is>
-          <t>Nummer</t>
-        </is>
-      </c>
-      <c r="E109" s="6" t="inlineStr">
-        <is>
-          <t>Node reference</t>
-        </is>
-      </c>
-      <c r="F109" s="6" t="inlineStr"/>
       <c r="G109" s="6" t="inlineStr">
         <is>
-          <t>field_repertoire</t>
-        </is>
-      </c>
-      <c r="H109" s="6" t="inlineStr">
-        <is>
           <t>Entity reference</t>
-        </is>
-      </c>
-      <c r="I109" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Remote Video media entity | Entity reference (node: repertoire)</t>
         </is>
       </c>
     </row>
@@ -4978,33 +4455,28 @@
           <t>Video (VERVALT → Remote Video media)</t>
         </is>
       </c>
+      <c r="B110" s="6" t="inlineStr">
+        <is>
+          <t>field_audio_uitvoerende</t>
+        </is>
+      </c>
       <c r="C110" s="6" t="inlineStr">
         <is>
-          <t>field_audio_uitvoerende</t>
+          <t>Uitvoerende</t>
         </is>
       </c>
       <c r="D110" s="6" t="inlineStr">
         <is>
-          <t>Uitvoerende</t>
-        </is>
-      </c>
-      <c r="E110" s="6" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F110" s="6" t="inlineStr"/>
-      <c r="G110" s="6" t="inlineStr">
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E110" s="6" t="n"/>
+      <c r="F110" s="6" t="inlineStr">
         <is>
           <t>field_media_uitvoerende</t>
         </is>
       </c>
-      <c r="H110" s="6" t="inlineStr"/>
-      <c r="I110" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Remote Video media entity | D11: hernoemd naar field_media_uitvoerende</t>
-        </is>
-      </c>
+      <c r="G110" s="6" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="6" t="inlineStr">
@@ -5012,35 +4484,30 @@
           <t>Video (VERVALT → Remote Video media)</t>
         </is>
       </c>
+      <c r="B111" s="6" t="inlineStr">
+        <is>
+          <t>field_audio_type</t>
+        </is>
+      </c>
       <c r="C111" s="6" t="inlineStr">
         <is>
-          <t>field_audio_type</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="D111" s="6" t="inlineStr">
         <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E111" s="6" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F111" s="6" t="inlineStr"/>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E111" s="6" t="n"/>
+      <c r="F111" s="6" t="inlineStr">
+        <is>
+          <t>field_media_type</t>
+        </is>
+      </c>
       <c r="G111" s="6" t="inlineStr">
         <is>
-          <t>field_media_type</t>
-        </is>
-      </c>
-      <c r="H111" s="6" t="inlineStr">
-        <is>
           <t>List (text)</t>
-        </is>
-      </c>
-      <c r="I111" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Remote Video media entity | List (text): Uitvoering, Repetitie, Oefenbestand, Origineel, Uitzending, Overig | D11: hernoemd naar field_media_type</t>
         </is>
       </c>
     </row>
@@ -5050,29 +4517,24 @@
           <t>Video (VERVALT → Remote Video media)</t>
         </is>
       </c>
+      <c r="B112" s="6" t="inlineStr">
+        <is>
+          <t>field_datum</t>
+        </is>
+      </c>
       <c r="C112" s="6" t="inlineStr">
         <is>
-          <t>field_datum</t>
+          <t>Datum</t>
         </is>
       </c>
       <c r="D112" s="6" t="inlineStr">
         <is>
-          <t>Datum</t>
-        </is>
-      </c>
-      <c r="E112" s="6" t="inlineStr">
-        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F112" s="6" t="inlineStr"/>
-      <c r="G112" s="6" t="inlineStr"/>
-      <c r="H112" s="6" t="inlineStr"/>
-      <c r="I112" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Remote Video media entity</t>
-        </is>
-      </c>
+      <c r="E112" s="6" t="n"/>
+      <c r="F112" s="6" t="n"/>
+      <c r="G112" s="6" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="6" t="inlineStr">
@@ -5080,2470 +4542,2425 @@
           <t>Video (VERVALT → Remote Video media)</t>
         </is>
       </c>
+      <c r="B113" s="6" t="inlineStr">
+        <is>
+          <t>field_ref_activiteit</t>
+        </is>
+      </c>
       <c r="C113" s="6" t="inlineStr">
         <is>
-          <t>field_ref_activiteit</t>
+          <t>Activiteit</t>
         </is>
       </c>
       <c r="D113" s="6" t="inlineStr">
         <is>
-          <t>Activiteit</t>
-        </is>
-      </c>
-      <c r="E113" s="6" t="inlineStr">
-        <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="F113" s="6" t="inlineStr"/>
+      <c r="E113" s="6" t="n"/>
+      <c r="F113" s="6" t="inlineStr">
+        <is>
+          <t>field_activiteit</t>
+        </is>
+      </c>
       <c r="G113" s="6" t="inlineStr">
         <is>
-          <t>field_activiteit</t>
-        </is>
-      </c>
-      <c r="H113" s="6" t="inlineStr">
-        <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="I113" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Content type wordt geschrapt, velden gaan naar Remote Video media entity | Entity reference (node: activiteit) | D11: hernoemd naar field_activiteit</t>
-        </is>
-      </c>
-    </row>
-    <row r="114"/>
-    <row r="115">
-      <c r="A115" s="7">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="60" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7">
         <f>== MEDIA ENTITY CUSTOM FIELDS ===</f>
         <v/>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="8" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="C116" s="9" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D116" s="9" t="inlineStr">
+      <c r="C2" s="9" t="inlineStr">
         <is>
           <t>Naam</t>
         </is>
       </c>
-      <c r="E116" s="9" t="inlineStr">
+      <c r="D2" s="9" t="inlineStr">
         <is>
           <t>Text (Media name)</t>
         </is>
       </c>
-      <c r="F116" s="9" t="inlineStr"/>
-      <c r="G116" s="9" t="inlineStr">
+      <c r="E2" s="9" t="n"/>
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="H116" s="9" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I116" s="9" t="inlineStr">
-        <is>
-          <t>Standaard media name field (was title in D6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="16" t="inlineStr">
+      <c r="G2" s="9" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t>MEDIA: Image</t>
         </is>
       </c>
-      <c r="C117" s="17" t="inlineStr">
+      <c r="B3" s="17" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D117" s="17" t="inlineStr">
+      <c r="C3" s="17" t="inlineStr">
         <is>
           <t>Naam</t>
         </is>
       </c>
-      <c r="E117" s="17" t="inlineStr">
+      <c r="D3" s="17" t="inlineStr">
         <is>
           <t>Text (Media name)</t>
         </is>
       </c>
-      <c r="F117" s="17" t="inlineStr"/>
-      <c r="G117" s="17" t="inlineStr">
+      <c r="E3" s="17" t="n"/>
+      <c r="F3" s="17" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="H117" s="17" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I117" s="17" t="inlineStr">
-        <is>
-          <t>Standaard media name field</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="8" t="inlineStr">
+      <c r="G3" s="17" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>MEDIA: Image</t>
         </is>
       </c>
-      <c r="C118" s="9" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>field_media_image</t>
         </is>
       </c>
-      <c r="D118" s="9" t="inlineStr">
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>Afbeelding</t>
         </is>
       </c>
-      <c r="E118" s="9" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
         <is>
           <t>Image</t>
         </is>
       </c>
-      <c r="F118" s="9" t="inlineStr"/>
-      <c r="G118" s="9" t="inlineStr">
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="9" t="inlineStr">
         <is>
           <t>field_media_image</t>
         </is>
       </c>
-      <c r="H118" s="9" t="inlineStr">
+      <c r="G4" s="9" t="inlineStr">
         <is>
           <t>Image</t>
         </is>
       </c>
-      <c r="I118" s="9" t="inlineStr">
-        <is>
-          <t>Standaard image media source field | Migratie: created timestamp uit EXIF datum (fallback: bestandsdatum)</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="10" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
         <is>
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="C119" s="3" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>field_media_audio_file</t>
         </is>
       </c>
-      <c r="D119" s="3" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Audio bestand</t>
         </is>
       </c>
-      <c r="E119" s="3" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="F119" s="3" t="inlineStr"/>
-      <c r="G119" s="3" t="inlineStr">
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>field_media_audio_file</t>
         </is>
       </c>
-      <c r="H119" s="3" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="I119" s="3" t="inlineStr">
-        <is>
-          <t>Standaard audio media source field (was field_mp3 in D6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="8" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="C120" s="9" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="D120" s="9" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Nummer</t>
         </is>
       </c>
-      <c r="E120" s="9" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="F120" s="9" t="inlineStr"/>
-      <c r="G120" s="9" t="inlineStr">
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="9" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="H120" s="9" t="inlineStr">
+      <c r="G6" s="9" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="I120" s="9" t="inlineStr">
-        <is>
-          <t>Entity reference (node: repertoire)</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="10" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="inlineStr">
         <is>
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="C121" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>field_audio_uitvoerende</t>
         </is>
       </c>
-      <c r="D121" s="3" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Uitvoerende</t>
         </is>
       </c>
-      <c r="E121" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F121" s="3" t="inlineStr"/>
-      <c r="G121" s="3" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>field_media_uitvoerende</t>
         </is>
       </c>
-      <c r="H121" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I121" s="3" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_media_uitvoerende</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="8" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="C122" s="9" t="inlineStr">
+      <c r="B8" s="9" t="inlineStr">
         <is>
           <t>field_audio_type</t>
         </is>
       </c>
-      <c r="D122" s="9" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E122" s="9" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F122" s="9" t="inlineStr"/>
-      <c r="G122" s="9" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="n"/>
+      <c r="F8" s="9" t="inlineStr">
         <is>
           <t>field_media_type</t>
         </is>
       </c>
-      <c r="H122" s="9" t="inlineStr">
+      <c r="G8" s="9" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="I122" s="9" t="inlineStr">
-        <is>
-          <t>List (text): Uitvoering, Repetitie, Oefenbestand, Origineel, Uitzending, Overig | D11: hernoemd naar field_media_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="10" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="inlineStr">
         <is>
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="C123" s="3" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="D123" s="3" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="E123" s="3" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F123" s="3" t="inlineStr"/>
-      <c r="G123" s="3" t="inlineStr">
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="H123" s="3" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="I123" s="3" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="8" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
         <is>
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="C124" s="9" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>field_audio_bijz</t>
         </is>
       </c>
-      <c r="D124" s="9" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Bijzonderheden</t>
         </is>
       </c>
-      <c r="E124" s="9" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F124" s="9" t="inlineStr"/>
-      <c r="G124" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>field_media_bijzonderheden</t>
         </is>
       </c>
-      <c r="H124" s="9" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I124" s="9" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_media_bijzonderheden</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="10" t="inlineStr">
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="inlineStr">
         <is>
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="C125" s="3" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>field_ref_activiteit</t>
         </is>
       </c>
-      <c r="D125" s="3" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="E125" s="3" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="F125" s="3" t="inlineStr"/>
-      <c r="G125" s="3" t="inlineStr">
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>field_activiteit</t>
         </is>
       </c>
-      <c r="H125" s="3" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="I125" s="3" t="inlineStr">
-        <is>
-          <t>Entity reference (node: activiteit) | D11: hernoemd naar field_activiteit</t>
-        </is>
-      </c>
-    </row>
-    <row r="126"/>
-    <row r="127">
-      <c r="A127" s="8" t="inlineStr">
+    </row>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
         <is>
           <t>MEDIA: Audio (was: Audio content type)</t>
         </is>
       </c>
-      <c r="C127" s="9" t="inlineStr">
+      <c r="B13" s="9" t="inlineStr">
         <is>
           <t>field_toegang</t>
         </is>
       </c>
-      <c r="D127" s="9" t="inlineStr">
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>Toegang</t>
         </is>
       </c>
-      <c r="E127" s="9" t="inlineStr">
+      <c r="D13" s="9" t="inlineStr">
         <is>
           <t>Taxonomy term reference</t>
         </is>
       </c>
-      <c r="F127" s="9" t="inlineStr"/>
-      <c r="G127" s="9" t="inlineStr">
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="9" t="inlineStr">
         <is>
           <t>field_toegang</t>
         </is>
       </c>
-      <c r="H127" s="9" t="inlineStr">
+      <c r="G13" s="9" t="inlineStr">
         <is>
           <t>Entity reference (taxonomy)</t>
         </is>
       </c>
-      <c r="I127" s="9" t="inlineStr">
-        <is>
-          <t>Vocabulary: toegang, Multiple values. Termen: Aspirant-Leden, Bezoekers, Leden, Vrienden, Bestuur, Muziekcommissie, Concertcommissie, Commissie Interne Relaties, Commissie Koorregie, Feestcommissie, Band, Beheer</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="10" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="inlineStr">
         <is>
           <t>MEDIA: Remote Video (was: Video content type)</t>
         </is>
       </c>
-      <c r="C128" s="3" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D128" s="3" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Naam</t>
         </is>
       </c>
-      <c r="E128" s="3" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>Text (Media name)</t>
         </is>
       </c>
-      <c r="F128" s="3" t="inlineStr"/>
-      <c r="G128" s="3" t="inlineStr">
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="H128" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I128" s="3" t="inlineStr">
-        <is>
-          <t>Standaard media name field (was title in D6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="8" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>MEDIA: Remote Video (was: Video content type)</t>
         </is>
       </c>
-      <c r="C129" s="9" t="inlineStr">
+      <c r="B15" s="9" t="inlineStr">
         <is>
           <t>field_media_oembed_video</t>
         </is>
       </c>
-      <c r="D129" s="9" t="inlineStr">
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>Video URL</t>
         </is>
       </c>
-      <c r="E129" s="9" t="inlineStr">
+      <c r="D15" s="9" t="inlineStr">
         <is>
           <t>Text (URL)</t>
         </is>
       </c>
-      <c r="F129" s="9" t="inlineStr"/>
-      <c r="G129" s="9" t="inlineStr">
+      <c r="E15" s="9" t="n"/>
+      <c r="F15" s="9" t="inlineStr">
         <is>
           <t>field_media_oembed_video</t>
         </is>
       </c>
-      <c r="H129" s="9" t="inlineStr">
+      <c r="G15" s="9" t="inlineStr">
         <is>
           <t>Text (URL)</t>
         </is>
       </c>
-      <c r="I129" s="9" t="inlineStr">
-        <is>
-          <t>Standaard remote video source field (was field_video in D6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="10" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="inlineStr">
         <is>
           <t>MEDIA: Remote Video (was: Video content type)</t>
         </is>
       </c>
-      <c r="C130" s="3" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="D130" s="3" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>Nummer</t>
         </is>
       </c>
-      <c r="E130" s="3" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="F130" s="3" t="inlineStr"/>
-      <c r="G130" s="3" t="inlineStr">
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="H130" s="3" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="I130" s="3" t="inlineStr">
-        <is>
-          <t>Entity reference (node: repertoire)</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="8" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
         <is>
           <t>MEDIA: Remote Video (was: Video content type)</t>
         </is>
       </c>
-      <c r="C131" s="9" t="inlineStr">
+      <c r="B17" s="9" t="inlineStr">
         <is>
           <t>field_audio_uitvoerende</t>
         </is>
       </c>
-      <c r="D131" s="9" t="inlineStr">
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>Uitvoerende</t>
         </is>
       </c>
-      <c r="E131" s="9" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F131" s="9" t="inlineStr"/>
-      <c r="G131" s="9" t="inlineStr">
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="9" t="inlineStr">
         <is>
           <t>field_media_uitvoerende</t>
         </is>
       </c>
-      <c r="H131" s="9" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I131" s="9" t="inlineStr">
-        <is>
-          <t>D11: hernoemd naar field_media_uitvoerende</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="10" t="inlineStr">
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="inlineStr">
         <is>
           <t>MEDIA: Remote Video (was: Video content type)</t>
         </is>
       </c>
-      <c r="C132" s="3" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>field_audio_type</t>
         </is>
       </c>
-      <c r="D132" s="3" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E132" s="3" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="F132" s="3" t="inlineStr"/>
-      <c r="G132" s="3" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>field_media_type</t>
         </is>
       </c>
-      <c r="H132" s="3" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="I132" s="3" t="inlineStr">
-        <is>
-          <t>List (text): Uitvoering, Repetitie, Oefenbestand, Origineel, Uitzending, Overig | D11: hernoemd naar field_media_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="8" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
         <is>
           <t>MEDIA: Remote Video (was: Video content type)</t>
         </is>
       </c>
-      <c r="B133" s="14" t="n"/>
-      <c r="C133" s="14" t="n"/>
-      <c r="D133" s="14" t="n"/>
-      <c r="E133" s="14" t="n"/>
-      <c r="F133" s="14" t="n"/>
-      <c r="G133" s="14" t="n"/>
-      <c r="H133" s="15" t="n"/>
-      <c r="I133" s="15" t="n"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="10" t="inlineStr">
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="14" t="n"/>
+      <c r="D19" s="14" t="n"/>
+      <c r="E19" s="14" t="n"/>
+      <c r="F19" s="14" t="n"/>
+      <c r="G19" s="15" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="inlineStr">
         <is>
           <t>MEDIA: Remote Video (was: Video content type)</t>
         </is>
       </c>
-      <c r="C134" s="3" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>field_ref_activiteit</t>
         </is>
       </c>
-      <c r="D134" s="3" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="E134" s="3" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>Node reference</t>
         </is>
       </c>
-      <c r="F134" s="3" t="inlineStr"/>
-      <c r="G134" s="3" t="inlineStr">
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>field_activiteit</t>
         </is>
       </c>
-      <c r="H134" s="3" t="inlineStr">
+      <c r="G20" s="3" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="I134" s="3" t="inlineStr">
-        <is>
-          <t>Entity reference (node: activiteit) | D11: hernoemd naar field_activiteit</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="8" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
         <is>
           <t>MEDIA: Remote Video (was: Video content type)</t>
         </is>
       </c>
-      <c r="C135" s="14" t="n"/>
-      <c r="D135" s="14" t="n"/>
-      <c r="E135" s="14" t="n"/>
-      <c r="F135" s="14" t="n"/>
-      <c r="G135" s="14" t="n"/>
-      <c r="H135" s="14" t="n"/>
-      <c r="I135" s="15" t="n"/>
-    </row>
-    <row r="136"/>
-    <row r="137">
-      <c r="A137" s="16" t="inlineStr">
+      <c r="B21" s="14" t="n"/>
+      <c r="C21" s="14" t="n"/>
+      <c r="D21" s="14" t="n"/>
+      <c r="E21" s="14" t="n"/>
+      <c r="F21" s="14" t="n"/>
+      <c r="G21" s="14" t="n"/>
+    </row>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" s="16" t="inlineStr">
         <is>
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="C137" s="17" t="inlineStr">
+      <c r="B23" s="17" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D137" s="17" t="inlineStr">
+      <c r="C23" s="17" t="inlineStr">
         <is>
           <t>Naam</t>
         </is>
       </c>
-      <c r="E137" s="17" t="inlineStr">
+      <c r="D23" s="17" t="inlineStr">
         <is>
           <t>Text (Media name)</t>
         </is>
       </c>
-      <c r="F137" s="17" t="inlineStr"/>
-      <c r="G137" s="17" t="inlineStr">
+      <c r="E23" s="17" t="n"/>
+      <c r="F23" s="17" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="H137" s="17" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="I137" s="17" t="inlineStr">
-        <is>
-          <t>Standaard media name field (was title in D6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="8" t="inlineStr">
+      <c r="G23" s="17" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
         <is>
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="C138" s="9" t="inlineStr">
+      <c r="B24" s="9" t="inlineStr">
         <is>
           <t>field_media_document</t>
         </is>
       </c>
-      <c r="D138" s="9" t="inlineStr">
+      <c r="C24" s="9" t="inlineStr">
         <is>
           <t>Document</t>
         </is>
       </c>
-      <c r="E138" s="9" t="inlineStr">
+      <c r="D24" s="9" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="F138" s="9" t="inlineStr"/>
-      <c r="G138" s="9" t="inlineStr">
+      <c r="E24" s="9" t="n"/>
+      <c r="F24" s="9" t="inlineStr">
         <is>
           <t>field_media_document</t>
         </is>
       </c>
-      <c r="H138" s="9" t="inlineStr">
+      <c r="G24" s="9" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="I138" s="9" t="inlineStr">
-        <is>
-          <t>Standaard document media source field (was field_files in D6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="16" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="inlineStr">
         <is>
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="C139" s="17" t="inlineStr">
+      <c r="B25" s="17" t="inlineStr">
         <is>
           <t>field_document_type</t>
         </is>
       </c>
-      <c r="D139" s="17" t="inlineStr">
+      <c r="C25" s="17" t="inlineStr">
         <is>
           <t>Document Type</t>
         </is>
       </c>
-      <c r="E139" s="17" t="inlineStr">
+      <c r="D25" s="17" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="F139" s="17" t="inlineStr"/>
-      <c r="G139" s="17" t="inlineStr">
+      <c r="E25" s="17" t="n"/>
+      <c r="F25" s="17" t="inlineStr">
         <is>
           <t>field_document_type</t>
         </is>
       </c>
-      <c r="H139" s="17" t="inlineStr">
+      <c r="G25" s="17" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="I139" s="17" t="inlineStr">
-        <is>
-          <t>List (text): Verslag, Bandpartituur, Koorpartituur, Koorregie, Huiswerk, Overige | Classificeert het document</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="16" t="inlineStr">
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="inlineStr">
         <is>
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="C140" s="17" t="inlineStr">
+      <c r="B26" s="17" t="inlineStr">
         <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="D140" s="17" t="inlineStr">
+      <c r="C26" s="17" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="E140" s="17" t="inlineStr">
+      <c r="D26" s="17" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F140" s="17" t="inlineStr"/>
-      <c r="G140" s="17" t="inlineStr">
+      <c r="E26" s="17" t="n"/>
+      <c r="F26" s="17" t="inlineStr">
         <is>
           <t>field_datum</t>
         </is>
       </c>
-      <c r="H140" s="17" t="inlineStr">
+      <c r="G26" s="17" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="I140" s="17" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="8" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
         <is>
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="C141" s="9" t="inlineStr">
+      <c r="B27" s="9" t="inlineStr">
         <is>
           <t>field_verslag_type</t>
         </is>
       </c>
-      <c r="D141" s="9" t="inlineStr">
+      <c r="C27" s="9" t="inlineStr">
         <is>
           <t>Type Verslag</t>
         </is>
       </c>
-      <c r="E141" s="9" t="inlineStr">
+      <c r="D27" s="9" t="inlineStr">
         <is>
           <t>Taxonomy (was)</t>
         </is>
       </c>
-      <c r="F141" s="9" t="inlineStr"/>
-      <c r="G141" s="9" t="inlineStr">
+      <c r="E27" s="9" t="n"/>
+      <c r="F27" s="9" t="inlineStr">
         <is>
           <t>field_verslag_type</t>
         </is>
       </c>
-      <c r="H141" s="9" t="inlineStr">
+      <c r="G27" s="9" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="I141" s="9" t="inlineStr">
-        <is>
-          <t>List (text): Algemene Ledenvergadering, Bestuursvergadering, Combo Overleg, Concertcommissie, Jaarevaluatie Dirigent, Jaarverslag, Overige Vergadering, Vergadering Muziekcommissie | Alleen relevant voor document_type: Verslag</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="16" t="inlineStr">
+    </row>
+    <row r="28">
+      <c r="A28" s="16" t="inlineStr">
         <is>
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="C142" s="17" t="inlineStr">
+      <c r="B28" s="17" t="inlineStr">
         <is>
           <t>field_toegang</t>
         </is>
       </c>
-      <c r="D142" s="17" t="inlineStr">
+      <c r="C28" s="17" t="inlineStr">
         <is>
           <t>Toegang</t>
         </is>
       </c>
-      <c r="E142" s="17" t="inlineStr">
+      <c r="D28" s="17" t="inlineStr">
         <is>
           <t>Taxonomy term reference</t>
         </is>
       </c>
-      <c r="F142" s="17" t="inlineStr"/>
-      <c r="G142" s="17" t="inlineStr">
+      <c r="E28" s="17" t="n"/>
+      <c r="F28" s="17" t="inlineStr">
         <is>
           <t>field_toegang</t>
         </is>
       </c>
-      <c r="H142" s="17" t="inlineStr">
+      <c r="G28" s="17" t="inlineStr">
         <is>
           <t>Entity reference (taxonomy)</t>
         </is>
       </c>
-      <c r="I142" s="17" t="inlineStr">
-        <is>
-          <t>Vocabulary: toegang, Multiple values</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="16" t="inlineStr">
+    </row>
+    <row r="29">
+      <c r="A29" s="16" t="inlineStr">
         <is>
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="C143" s="17" t="inlineStr">
+      <c r="B29" s="17" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="D143" s="17" t="inlineStr">
+      <c r="C29" s="17" t="inlineStr">
         <is>
           <t>Repertoire</t>
         </is>
       </c>
-      <c r="E143" s="17" t="inlineStr">
+      <c r="D29" s="17" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="F143" s="17" t="inlineStr"/>
-      <c r="G143" s="17" t="inlineStr">
+      <c r="E29" s="17" t="n"/>
+      <c r="F29" s="17" t="inlineStr">
         <is>
           <t>field_repertoire</t>
         </is>
       </c>
-      <c r="H143" s="17" t="inlineStr">
+      <c r="G29" s="17" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="I143" s="17" t="inlineStr">
-        <is>
-          <t>Entity reference (node: repertoire) | Terug-verwijzing voor partituren (Bandpartituur, Koorpartituur, Koorregie)</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="8" t="inlineStr">
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
         <is>
           <t>MEDIA: Document (incl. Verslag content type)</t>
         </is>
       </c>
-      <c r="C144" s="9" t="inlineStr">
+      <c r="B30" s="9" t="inlineStr">
         <is>
           <t>field_ref_activiteit</t>
         </is>
       </c>
-      <c r="D144" s="9" t="inlineStr">
+      <c r="C30" s="9" t="inlineStr">
         <is>
           <t>Activiteit</t>
         </is>
       </c>
-      <c r="E144" s="9" t="inlineStr">
+      <c r="D30" s="9" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="F144" s="9" t="inlineStr"/>
-      <c r="G144" s="9" t="inlineStr">
+      <c r="E30" s="9" t="n"/>
+      <c r="F30" s="9" t="inlineStr">
         <is>
           <t>field_activiteit</t>
         </is>
       </c>
-      <c r="H144" s="9" t="inlineStr">
+      <c r="G30" s="9" t="inlineStr">
         <is>
           <t>Entity reference</t>
         </is>
       </c>
-      <c r="I144" s="9" t="inlineStr">
-        <is>
-          <t>Entity reference (node: activiteit) | Terug-verwijzing voor Huiswerk documenten | D11: hernoemd naar field_activiteit</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="11">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="60" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11">
         <f>== TAXONOMIE VELDEN ===</f>
         <v/>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="12" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="C146" s="12" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>Veld</t>
         </is>
       </c>
-      <c r="D146" s="12" t="inlineStr">
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="E146" s="12" t="inlineStr">
+      <c r="D2" s="12" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="F146" s="12" t="inlineStr">
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>Toepassen op</t>
         </is>
       </c>
-      <c r="G146" s="12" t="inlineStr">
+      <c r="F2" s="12" t="inlineStr">
         <is>
           <t>D11 Veld</t>
         </is>
       </c>
-      <c r="H146" s="12" t="inlineStr">
+      <c r="G2" s="12" t="inlineStr">
         <is>
           <t>D11 Type</t>
         </is>
       </c>
-      <c r="I146" s="12" t="inlineStr">
-        <is>
-          <t>Opmerkingen</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="13" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="inlineStr">
         <is>
           <t>Toegang</t>
         </is>
       </c>
-      <c r="C147" s="13" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>field_toegang</t>
         </is>
       </c>
-      <c r="D147" s="13" t="inlineStr">
+      <c r="C3" s="13" t="inlineStr">
         <is>
           <t>Toegang</t>
         </is>
       </c>
-      <c r="E147" s="13" t="inlineStr">
+      <c r="D3" s="13" t="inlineStr">
         <is>
           <t>Taxonomy term reference</t>
         </is>
       </c>
-      <c r="F147" s="13" t="inlineStr">
+      <c r="E3" s="13" t="inlineStr">
         <is>
           <t>Activiteit, Album, Nieuws, Pagina</t>
         </is>
       </c>
-      <c r="G147" s="13" t="inlineStr">
+      <c r="F3" s="13" t="inlineStr">
         <is>
           <t>field_toegang</t>
         </is>
       </c>
-      <c r="H147" s="13" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
         <is>
           <t>Entity reference (taxonomy)</t>
         </is>
       </c>
-      <c r="I147" s="13" t="inlineStr">
-        <is>
-          <t>Vocabulary: toegang, Multiple values. Termen: Aspirant-Leden, Bezoekers, Leden, Vrienden, Bestuur, Muziekcommissie, Concertcommissie, Commissie Interne Relaties, Commissie Koorregie, Feestcommissie, Band, Beheer</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="18" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" s="18" t="inlineStr">
         <is>
           <t>Verslagen (VERVALT)</t>
         </is>
       </c>
-      <c r="C148" s="6" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>taxonomy</t>
         </is>
       </c>
-      <c r="D148" s="6" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>Type Verslag</t>
         </is>
       </c>
-      <c r="E148" s="6" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>Taxonomy term reference</t>
         </is>
       </c>
-      <c r="F148" s="6" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>Verslag content type</t>
         </is>
       </c>
-      <c r="G148" s="6" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>field_verslag_type</t>
         </is>
       </c>
-      <c r="H148" s="6" t="inlineStr">
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>List (text)</t>
         </is>
       </c>
-      <c r="I148" s="6" t="inlineStr">
-        <is>
-          <t>VERVALT - Taxonomy wordt omgezet naar List field. Termen: Algemene Ledenvergadering, Bestuursvergadering, Combo Overleg, Concertcommissie, Jaarevaluatie Dirigent, Jaarverslag, Overige Vergadering, Vergadering Muziekcommissie</t>
-        </is>
-      </c>
-    </row>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151">
-      <c r="A151" s="19">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="60" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19">
         <f>== WORKFLOW STATES MIGRATIE ===</f>
         <v/>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="12" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>D6 Workflow</t>
         </is>
       </c>
-      <c r="C152" s="12" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>D6 State</t>
         </is>
       </c>
-      <c r="D152" s="12" t="inlineStr">
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>State ID</t>
         </is>
       </c>
-      <c r="E152" s="12" t="inlineStr">
+      <c r="D2" s="12" t="inlineStr">
         <is>
           <t>D11 Moderation State</t>
         </is>
       </c>
-      <c r="F152" s="12" t="inlineStr">
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>Content Types</t>
         </is>
       </c>
-      <c r="G152" s="12" t="inlineStr">
+      <c r="F2" s="12" t="inlineStr">
         <is>
           <t>Opmerkingen</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="16" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t>Workflow 1</t>
         </is>
       </c>
-      <c r="C153" s="17" t="inlineStr">
+      <c r="B3" s="17" t="inlineStr">
         <is>
           <t>(creation)</t>
         </is>
       </c>
-      <c r="D153" s="17" t="inlineStr">
+      <c r="C3" s="17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E153" s="17" t="inlineStr">
+      <c r="D3" s="17" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="F153" s="17" t="inlineStr">
+      <c r="E3" s="17" t="inlineStr">
         <is>
           <t>nieuws, pagina, repertoire</t>
         </is>
       </c>
-      <c r="G153" s="17" t="inlineStr">
+      <c r="F3" s="17" t="inlineStr">
         <is>
           <t>Initiële creatie status</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="20" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="20" t="inlineStr">
         <is>
           <t>Workflow 1</t>
         </is>
       </c>
-      <c r="C154" s="2" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Concept</t>
         </is>
       </c>
-      <c r="D154" s="2" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E154" s="2" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="F154" s="17" t="inlineStr"/>
-      <c r="G154" s="2" t="inlineStr">
+      <c r="E4" s="17" t="n"/>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>Draft/concept</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="16" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="16" t="inlineStr">
         <is>
           <t>Workflow 1</t>
         </is>
       </c>
-      <c r="C155" s="17" t="inlineStr">
+      <c r="B5" s="17" t="inlineStr">
         <is>
           <t>Gepubliceerd</t>
         </is>
       </c>
-      <c r="D155" s="17" t="inlineStr">
+      <c r="C5" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E155" s="17" t="inlineStr">
+      <c r="D5" s="17" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="F155" s="17" t="inlineStr"/>
-      <c r="G155" s="17" t="inlineStr">
+      <c r="E5" s="17" t="n"/>
+      <c r="F5" s="17" t="inlineStr">
         <is>
           <t>Gepubliceerd</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="20" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="20" t="inlineStr">
         <is>
           <t>Workflow 1</t>
         </is>
       </c>
-      <c r="C156" s="2" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Archief</t>
         </is>
       </c>
-      <c r="D156" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E156" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>archived</t>
         </is>
       </c>
-      <c r="F156" s="17" t="inlineStr"/>
-      <c r="G156" s="2" t="inlineStr">
+      <c r="E6" s="17" t="n"/>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>Gearchiveerd</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="16" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="16" t="inlineStr">
         <is>
           <t>Workflow 1</t>
         </is>
       </c>
-      <c r="C157" s="17" t="inlineStr">
+      <c r="B7" s="17" t="inlineStr">
         <is>
           <t>Prullenmand</t>
         </is>
       </c>
-      <c r="D157" s="17" t="inlineStr">
+      <c r="C7" s="17" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E157" s="17" t="inlineStr">
+      <c r="D7" s="17" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="F157" s="17" t="inlineStr"/>
-      <c r="G157" s="17" t="inlineStr">
+      <c r="E7" s="17" t="n"/>
+      <c r="F7" s="17" t="inlineStr">
         <is>
           <t>Verwijderd (unpublish in D11)</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="20" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="20" t="inlineStr">
         <is>
           <t>Workflow 1</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Aangeraden</t>
         </is>
       </c>
-      <c r="D158" s="2" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E158" s="2" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="F158" s="17" t="inlineStr"/>
-      <c r="G158" s="2" t="inlineStr">
+      <c r="E8" s="17" t="n"/>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>Featured → Promoted to front page/aangeraden (D11: Promoted to front page)</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="17" t="inlineStr"/>
-      <c r="C159" s="17" t="inlineStr"/>
-      <c r="D159" s="17" t="inlineStr"/>
-      <c r="E159" s="17" t="inlineStr"/>
-      <c r="F159" s="17" t="inlineStr"/>
-      <c r="G159" s="17" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="20" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="17" t="n"/>
+      <c r="B9" s="17" t="n"/>
+      <c r="C9" s="17" t="n"/>
+      <c r="D9" s="17" t="n"/>
+      <c r="E9" s="17" t="n"/>
+      <c r="F9" s="17" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="inlineStr">
         <is>
           <t>Workflow 3</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>(aanmaak)</t>
         </is>
       </c>
-      <c r="D160" s="2" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E160" s="2" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="F160" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>activiteit</t>
         </is>
       </c>
-      <c r="G160" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>Initiële creatie</t>
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="16" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="16" t="inlineStr">
         <is>
           <t>Workflow 3</t>
         </is>
       </c>
-      <c r="C161" s="17" t="inlineStr">
+      <c r="B11" s="17" t="inlineStr">
         <is>
           <t>Actief</t>
         </is>
       </c>
-      <c r="D161" s="17" t="inlineStr">
+      <c r="C11" s="17" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E161" s="17" t="inlineStr">
+      <c r="D11" s="17" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="F161" s="17" t="inlineStr"/>
-      <c r="G161" s="17" t="inlineStr">
+      <c r="E11" s="17" t="n"/>
+      <c r="F11" s="17" t="inlineStr">
         <is>
           <t>Actieve activiteit</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="20" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="20" t="inlineStr">
         <is>
           <t>Workflow 3</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>Verlopen</t>
         </is>
       </c>
-      <c r="D162" s="2" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E162" s="2" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>archived</t>
         </is>
       </c>
-      <c r="F162" s="17" t="inlineStr"/>
-      <c r="G162" s="2" t="inlineStr">
+      <c r="E12" s="17" t="n"/>
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>Verlopen activiteit</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="16" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="16" t="inlineStr">
         <is>
           <t>Workflow 3</t>
         </is>
       </c>
-      <c r="C163" s="17" t="inlineStr">
+      <c r="B13" s="17" t="inlineStr">
         <is>
           <t>Inactief</t>
         </is>
       </c>
-      <c r="D163" s="17" t="inlineStr">
+      <c r="C13" s="17" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E163" s="17" t="inlineStr">
+      <c r="D13" s="17" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="F163" s="17" t="inlineStr"/>
-      <c r="G163" s="17" t="inlineStr">
+      <c r="E13" s="17" t="n"/>
+      <c r="F13" s="17" t="inlineStr">
         <is>
           <t>Inactieve activiteit</t>
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="17" t="inlineStr"/>
-      <c r="C164" s="17" t="inlineStr"/>
-      <c r="D164" s="17" t="inlineStr"/>
-      <c r="E164" s="17" t="inlineStr"/>
-      <c r="F164" s="17" t="inlineStr"/>
-      <c r="G164" s="17" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="16" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="17" t="n"/>
+      <c r="B14" s="17" t="n"/>
+      <c r="C14" s="17" t="n"/>
+      <c r="D14" s="17" t="n"/>
+      <c r="E14" s="17" t="n"/>
+      <c r="F14" s="17" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="inlineStr">
         <is>
           <t>Workflow 4</t>
         </is>
       </c>
-      <c r="C165" s="17" t="inlineStr">
+      <c r="B15" s="17" t="inlineStr">
         <is>
           <t>(aanmaak)</t>
         </is>
       </c>
-      <c r="D165" s="17" t="inlineStr">
+      <c r="C15" s="17" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E165" s="17" t="inlineStr">
+      <c r="D15" s="17" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="F165" s="17" t="inlineStr">
+      <c r="E15" s="17" t="inlineStr">
         <is>
           <t>locatie, programma</t>
         </is>
       </c>
-      <c r="G165" s="17" t="inlineStr">
+      <c r="F15" s="17" t="inlineStr">
         <is>
           <t>Initiële creatie</t>
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="20" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="20" t="inlineStr">
         <is>
           <t>Workflow 4</t>
         </is>
       </c>
-      <c r="C166" s="2" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Concept</t>
         </is>
       </c>
-      <c r="D166" s="2" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E166" s="2" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="F166" s="17" t="inlineStr"/>
-      <c r="G166" s="2" t="inlineStr">
+      <c r="E16" s="17" t="n"/>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Draft/concept</t>
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="16" t="inlineStr">
         <is>
           <t>Workflow 4</t>
         </is>
       </c>
-      <c r="C167" s="17" t="inlineStr">
+      <c r="B17" s="17" t="inlineStr">
         <is>
           <t>Prullenmand</t>
         </is>
       </c>
-      <c r="D167" s="17" t="inlineStr">
+      <c r="C17" s="17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E167" s="17" t="inlineStr">
+      <c r="D17" s="17" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="F167" s="17" t="inlineStr"/>
-      <c r="G167" s="17" t="inlineStr">
+      <c r="E17" s="17" t="n"/>
+      <c r="F17" s="17" t="inlineStr">
         <is>
           <t>Verwijderd</t>
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="20" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="20" t="inlineStr">
         <is>
           <t>Workflow 4</t>
         </is>
       </c>
-      <c r="C168" s="2" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Aangeraden</t>
         </is>
       </c>
-      <c r="D168" s="2" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E168" s="2" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="F168" s="17" t="inlineStr"/>
-      <c r="G168" s="2" t="inlineStr">
+      <c r="E18" s="17" t="n"/>
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>Featured → Promoted to front page</t>
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="16" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="16" t="inlineStr">
         <is>
           <t>Workflow 4</t>
         </is>
       </c>
-      <c r="C169" s="17" t="inlineStr">
+      <c r="B19" s="17" t="inlineStr">
         <is>
           <t>Archief</t>
         </is>
       </c>
-      <c r="D169" s="17" t="inlineStr">
+      <c r="C19" s="17" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E169" s="17" t="inlineStr">
+      <c r="D19" s="17" t="inlineStr">
         <is>
           <t>archived</t>
         </is>
       </c>
-      <c r="F169" s="17" t="inlineStr"/>
-      <c r="G169" s="17" t="inlineStr">
+      <c r="E19" s="17" t="n"/>
+      <c r="F19" s="17" t="inlineStr">
         <is>
           <t>Gearchiveerd</t>
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="20" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="20" t="inlineStr">
         <is>
           <t>Workflow 4</t>
         </is>
       </c>
-      <c r="C170" s="2" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Geen Archief</t>
         </is>
       </c>
-      <c r="D170" s="2" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E170" s="2" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="F170" s="17" t="inlineStr"/>
-      <c r="G170" s="2" t="inlineStr">
+      <c r="E20" s="17" t="n"/>
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>Actief (niet archiveren)</t>
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="16" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="16" t="inlineStr">
         <is>
           <t>Workflow 4</t>
         </is>
       </c>
-      <c r="C171" s="17" t="inlineStr">
+      <c r="B21" s="17" t="inlineStr">
         <is>
           <t>Gepubliceerd</t>
         </is>
       </c>
-      <c r="D171" s="17" t="inlineStr">
+      <c r="C21" s="17" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E171" s="17" t="inlineStr">
+      <c r="D21" s="17" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="F171" s="17" t="inlineStr"/>
-      <c r="G171" s="17" t="inlineStr">
+      <c r="E21" s="17" t="n"/>
+      <c r="F21" s="17" t="inlineStr">
         <is>
           <t>Gepubliceerd</t>
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="17" t="inlineStr"/>
-      <c r="C172" s="17" t="inlineStr"/>
-      <c r="D172" s="17" t="inlineStr"/>
-      <c r="E172" s="17" t="inlineStr"/>
-      <c r="F172" s="17" t="inlineStr"/>
-      <c r="G172" s="17" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="16" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="17" t="n"/>
+      <c r="B22" s="17" t="n"/>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="17" t="n"/>
+      <c r="E22" s="17" t="n"/>
+      <c r="F22" s="17" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="inlineStr">
         <is>
           <t>Workflow 5</t>
         </is>
       </c>
-      <c r="C173" s="17" t="inlineStr">
+      <c r="B23" s="17" t="inlineStr">
         <is>
           <t>(aanmaak)</t>
         </is>
       </c>
-      <c r="D173" s="17" t="inlineStr">
+      <c r="C23" s="17" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E173" s="17" t="inlineStr">
+      <c r="D23" s="17" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="F173" s="17" t="inlineStr">
+      <c r="E23" s="17" t="inlineStr">
         <is>
           <t>Album</t>
         </is>
       </c>
-      <c r="G173" s="17" t="inlineStr">
+      <c r="F23" s="17" t="inlineStr">
         <is>
           <t>Initiële creatie</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="20" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="20" t="inlineStr">
         <is>
           <t>Workflow 5</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Gepubliceerd</t>
         </is>
       </c>
-      <c r="D174" s="2" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="F174" s="17" t="inlineStr"/>
-      <c r="G174" s="2" t="inlineStr">
+      <c r="E24" s="17" t="n"/>
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>Gepubliceerd</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="16" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="16" t="inlineStr">
         <is>
           <t>Workflow 5</t>
         </is>
       </c>
-      <c r="C175" s="17" t="inlineStr">
+      <c r="B25" s="17" t="inlineStr">
         <is>
           <t>Aangeraden</t>
         </is>
       </c>
-      <c r="D175" s="17" t="inlineStr">
+      <c r="C25" s="17" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E175" s="17" t="inlineStr">
+      <c r="D25" s="17" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="F175" s="17" t="inlineStr"/>
-      <c r="G175" s="17" t="inlineStr">
+      <c r="E25" s="17" t="n"/>
+      <c r="F25" s="17" t="inlineStr">
         <is>
           <t>Featured → Promoted to front page</t>
         </is>
       </c>
     </row>
-    <row r="176"/>
-    <row r="177">
-      <c r="A177" s="21" t="inlineStr">
+    <row r="26"/>
+    <row r="27">
+      <c r="A27" s="21" t="inlineStr">
         <is>
           <t>MIGRATIE NOTITIES:</t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="22" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="22" t="inlineStr">
         <is>
           <t>- D11 gebruikt Content Moderation met states: draft, published, archived</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="22" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="22" t="inlineStr">
         <is>
           <t>- 'Aangeraden' (Featured) → Promoted to front page (node-&gt;promote = 1)</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="22" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="22" t="inlineStr">
         <is>
           <t>- 'Prullenmand' items worden unpublished (draft state)</t>
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="22" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="22" t="inlineStr">
         <is>
           <t>- Workflow 2 is disabled en hoeft niet gemigreerd</t>
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="22" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="22" t="inlineStr">
         <is>
           <t>- Content types die NIET in lijst: gebruiken standaard published/unpublished</t>
         </is>
       </c>
     </row>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185">
-      <c r="A185" s="23">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="60" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="23">
         <f>== USER ROLES MIGRATIE ===</f>
         <v/>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="12" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>D6 Role</t>
         </is>
       </c>
-      <c r="B186" s="12" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>D6 Role ID</t>
         </is>
       </c>
-      <c r="C186" s="12" t="inlineStr">
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>D11 Role (label)</t>
         </is>
       </c>
-      <c r="D186" s="12" t="inlineStr">
+      <c r="D2" s="12" t="inlineStr">
         <is>
           <t>D11 Machine Name</t>
         </is>
       </c>
-      <c r="E186" s="12" t="inlineStr">
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>Opmerkingen</t>
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="16" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t>anonieme gebruiker</t>
         </is>
       </c>
-      <c r="B187" s="17" t="inlineStr">
+      <c r="B3" s="17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C187" s="17" t="inlineStr">
+      <c r="C3" s="17" t="inlineStr">
         <is>
           <t>Anonieme gebruiker</t>
         </is>
       </c>
-      <c r="D187" s="17" t="inlineStr">
+      <c r="D3" s="17" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="E187" s="17" t="inlineStr">
+      <c r="E3" s="17" t="inlineStr">
         <is>
           <t>Standaard Drupal role</t>
         </is>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="20" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="20" t="inlineStr">
         <is>
           <t>geverifieerde gebruiker</t>
         </is>
       </c>
-      <c r="B188" s="2" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Geverifieerde gebruiker</t>
         </is>
       </c>
-      <c r="D188" s="2" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>authenticated</t>
         </is>
       </c>
-      <c r="E188" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Standaard Drupal role</t>
         </is>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="17" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="17" t="inlineStr">
         <is>
           <t>Admin</t>
         </is>
       </c>
-      <c r="B189" s="17" t="inlineStr">
+      <c r="B5" s="17" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C189" s="17" t="inlineStr">
+      <c r="C5" s="17" t="inlineStr">
         <is>
           <t>Admin</t>
         </is>
       </c>
-      <c r="D189" s="17" t="inlineStr">
+      <c r="D5" s="17" t="inlineStr">
         <is>
           <t>admin</t>
         </is>
       </c>
-      <c r="E189" s="17" t="inlineStr">
+      <c r="E5" s="17" t="inlineStr">
         <is>
           <t>Volledige systeem administratie</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Aspirant-lid</t>
         </is>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>Aspirant-lid</t>
         </is>
       </c>
-      <c r="D190" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>aspirant_lid</t>
         </is>
       </c>
-      <c r="E190" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Aspirant koorlid</t>
         </is>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="17" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="17" t="inlineStr">
         <is>
           <t>Auteur</t>
         </is>
       </c>
-      <c r="B191" s="17" t="inlineStr">
+      <c r="B7" s="17" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C191" s="17" t="inlineStr">
+      <c r="C7" s="17" t="inlineStr">
         <is>
           <t>Auteur</t>
         </is>
       </c>
-      <c r="D191" s="17" t="inlineStr">
+      <c r="D7" s="17" t="inlineStr">
         <is>
           <t>auteur</t>
         </is>
       </c>
-      <c r="E191" s="17" t="inlineStr">
+      <c r="E7" s="17" t="inlineStr">
         <is>
           <t>Content auteur</t>
         </is>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Band</t>
         </is>
       </c>
-      <c r="B192" s="2" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C192" s="2" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Band</t>
         </is>
       </c>
-      <c r="D192" s="2" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>band</t>
         </is>
       </c>
-      <c r="E192" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Bandlid toegang</t>
         </is>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="17" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="17" t="inlineStr">
         <is>
           <t>Beheerder</t>
         </is>
       </c>
-      <c r="B193" s="17" t="inlineStr">
+      <c r="B9" s="17" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C193" s="17" t="inlineStr">
+      <c r="C9" s="17" t="inlineStr">
         <is>
           <t>Beheerder</t>
         </is>
       </c>
-      <c r="D193" s="17" t="inlineStr">
+      <c r="D9" s="17" t="inlineStr">
         <is>
           <t>beheerder</t>
         </is>
       </c>
-      <c r="E193" s="17" t="inlineStr">
+      <c r="E9" s="17" t="inlineStr">
         <is>
           <t>Site beheerder</t>
         </is>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Bestuur</t>
         </is>
       </c>
-      <c r="B194" s="2" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C194" s="2" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>Bestuur</t>
         </is>
       </c>
-      <c r="D194" s="2" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>bestuur</t>
         </is>
       </c>
-      <c r="E194" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Bestuurslid toegang</t>
         </is>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="17" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="17" t="inlineStr">
         <is>
           <t>Commissie Concerten</t>
         </is>
       </c>
-      <c r="B195" s="17" t="inlineStr">
+      <c r="B11" s="17" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C195" s="17" t="inlineStr">
+      <c r="C11" s="17" t="inlineStr">
         <is>
           <t>Commissie Concerten</t>
         </is>
       </c>
-      <c r="D195" s="17" t="inlineStr">
+      <c r="D11" s="17" t="inlineStr">
         <is>
           <t>commissie_concerten</t>
         </is>
       </c>
-      <c r="E195" s="17" t="inlineStr">
+      <c r="E11" s="17" t="inlineStr">
         <is>
           <t>Concerten commissie</t>
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Commissie Faciliteiten en Logistiek</t>
         </is>
       </c>
-      <c r="B196" s="2" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C196" s="2" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Commissie Faciliteiten en Logistiek</t>
         </is>
       </c>
-      <c r="D196" s="2" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>commissie_faciliteiten</t>
         </is>
       </c>
-      <c r="E196" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>Faciliteiten en logistiek commissie</t>
         </is>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="17" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="17" t="inlineStr">
         <is>
           <t>Commissie Interne Relaties</t>
         </is>
       </c>
-      <c r="B197" s="17" t="inlineStr">
+      <c r="B13" s="17" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C197" s="17" t="inlineStr">
+      <c r="C13" s="17" t="inlineStr">
         <is>
           <t>Commissie Interne Relaties</t>
         </is>
       </c>
-      <c r="D197" s="17" t="inlineStr">
+      <c r="D13" s="17" t="inlineStr">
         <is>
           <t>commissie_interne_relaties</t>
         </is>
       </c>
-      <c r="E197" s="17" t="inlineStr">
+      <c r="E13" s="17" t="inlineStr">
         <is>
           <t>Interne relaties commissie</t>
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Commissie Koorregie</t>
         </is>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>Commissie Koorregie</t>
         </is>
       </c>
-      <c r="D198" s="2" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>commissie_koorregie</t>
         </is>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>Koorregie commissie</t>
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="17" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="17" t="inlineStr">
         <is>
           <t>Commissie Ledenwerving</t>
         </is>
       </c>
-      <c r="B199" s="17" t="inlineStr">
+      <c r="B15" s="17" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C199" s="17" t="inlineStr">
+      <c r="C15" s="17" t="inlineStr">
         <is>
           <t>Commissie Ledenwerving</t>
         </is>
       </c>
-      <c r="D199" s="17" t="inlineStr">
+      <c r="D15" s="17" t="inlineStr">
         <is>
           <t>commissie_ledenwerving</t>
         </is>
       </c>
-      <c r="E199" s="17" t="inlineStr">
+      <c r="E15" s="17" t="inlineStr">
         <is>
           <t>Ledenwerving commissie</t>
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Commissie Publieke Relaties</t>
         </is>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>Commissie Publieke Relaties</t>
         </is>
       </c>
-      <c r="D200" s="2" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>commissie_publieke_relaties</t>
         </is>
       </c>
-      <c r="E200" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>PR commissie</t>
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="17" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="17" t="inlineStr">
         <is>
           <t>Dirigent</t>
         </is>
       </c>
-      <c r="B201" s="17" t="inlineStr">
+      <c r="B17" s="17" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C201" s="17" t="inlineStr">
+      <c r="C17" s="17" t="inlineStr">
         <is>
           <t>Dirigent</t>
         </is>
       </c>
-      <c r="D201" s="17" t="inlineStr">
+      <c r="D17" s="17" t="inlineStr">
         <is>
           <t>dirigent</t>
         </is>
       </c>
-      <c r="E201" s="17" t="inlineStr">
+      <c r="E17" s="17" t="inlineStr">
         <is>
           <t>Dirigent toegang</t>
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Feestcommissie</t>
         </is>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>Feestcommissie</t>
         </is>
       </c>
-      <c r="D202" s="2" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>feestcommissie</t>
         </is>
       </c>
-      <c r="E202" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Feestcommissie</t>
         </is>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="17" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="17" t="inlineStr">
         <is>
           <t>Lid</t>
         </is>
       </c>
-      <c r="B203" s="17" t="inlineStr">
+      <c r="B19" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C203" s="17" t="inlineStr">
+      <c r="C19" s="17" t="inlineStr">
         <is>
           <t>Lid</t>
         </is>
       </c>
-      <c r="D203" s="17" t="inlineStr">
+      <c r="D19" s="17" t="inlineStr">
         <is>
           <t>lid</t>
         </is>
       </c>
-      <c r="E203" s="17" t="inlineStr">
+      <c r="E19" s="17" t="inlineStr">
         <is>
           <t>Koorlid toegang</t>
         </is>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Muziekcommissie</t>
         </is>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Muziekcommissie</t>
         </is>
       </c>
-      <c r="D204" s="2" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>muziekcommissie</t>
         </is>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Muziekcommissie toegang</t>
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="17" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="17" t="inlineStr">
         <is>
           <t>Technische Commissie</t>
         </is>
       </c>
-      <c r="B205" s="17" t="inlineStr">
+      <c r="B21" s="17" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C205" s="17" t="inlineStr">
+      <c r="C21" s="17" t="inlineStr">
         <is>
           <t>Technische Commissie</t>
         </is>
       </c>
-      <c r="D205" s="17" t="inlineStr">
+      <c r="D21" s="17" t="inlineStr">
         <is>
           <t>technische_commissie</t>
         </is>
       </c>
-      <c r="E205" s="17" t="inlineStr">
+      <c r="E21" s="17" t="inlineStr">
         <is>
           <t>Technische commissie</t>
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>Vriend</t>
         </is>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>Vriend</t>
         </is>
       </c>
-      <c r="D206" s="2" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>vriend</t>
         </is>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>Vriend/sponsor toegang</t>
         </is>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="21" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="21" t="inlineStr">
         <is>
           <t>MIGRATIE NOTITIES:</t>
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="22" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="22" t="inlineStr">
         <is>
           <t>- Alle 20 roles worden gemigreerd naar D11</t>
         </is>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="22" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="22" t="inlineStr">
         <is>
           <t>- Role IDs (D6) worden machine names (D11)</t>
         </is>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="22" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="22" t="inlineStr">
         <is>
           <t>- Permissions moeten apart geconfigureerd worden in D11</t>
         </is>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="22" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="22" t="inlineStr">
         <is>
           <t>- 'Toegang' taxonomy gebruikt deze roles voor content access control</t>
         </is>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="22" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="22" t="inlineStr">
         <is>
           <t>- Machine names gebruiken underscore i.p.v. spaties</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H113"/>
-  <mergeCells count="16">
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A182:F182"/>
-    <mergeCell ref="A177:F177"/>
-    <mergeCell ref="A178:F178"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A209:D209"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="A115:H115"/>
-    <mergeCell ref="A151:H151"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A185:H185"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="A180:F180"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/D6_naar_D11_Content_Type_Mapping.xlsx
+++ b/D6_naar_D11_Content_Type_Mapping.xlsx
@@ -3307,12 +3307,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>field_functie_pr</t>
+          <t>field_functie_commissie_pr</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>List (text)</t>
+          <t>List (text) | D11 veldnaam afgekapt (32 tekens limiet)</t>
         </is>
       </c>
     </row>
@@ -3418,12 +3418,12 @@
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>field_functie_interne_relaties</t>
+          <t>field_functie_commissie_interne</t>
         </is>
       </c>
       <c r="G79" s="3" t="inlineStr">
         <is>
-          <t>List (text)</t>
+          <t>List (text) | D11 veldnaam afgekapt (32 tekens limiet)</t>
         </is>
       </c>
     </row>
@@ -3455,12 +3455,12 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>field_functie_technisch</t>
+          <t>field_functie_technische_commiss</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>List (text)</t>
+          <t>List (text) | D11 veldnaam afgekapt (32 tekens limiet)</t>
         </is>
       </c>
     </row>
@@ -3492,12 +3492,12 @@
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>field_functie_ledenwerving</t>
+          <t>field_functie_commissie_ledenwer</t>
         </is>
       </c>
       <c r="G81" s="3" t="inlineStr">
         <is>
-          <t>List (text)</t>
+          <t>List (text) | D11 veldnaam afgekapt (32 tekens limiet)</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>field_functie_faciliteiten</t>
+          <t>field_functie_commissie_logistie</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>List (text)</t>
+          <t>List (text) | D11 veldnaam afgekapt (32 tekens limiet)</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4934,6 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
         <is>
@@ -5192,7 +5191,6 @@
       <c r="F21" s="14" t="n"/>
       <c r="G21" s="14" t="n"/>
     </row>
-    <row r="22"/>
     <row r="23">
       <c r="A23" s="16" t="inlineStr">
         <is>
@@ -6272,7 +6270,6 @@
         </is>
       </c>
     </row>
-    <row r="26"/>
     <row r="27">
       <c r="A27" s="21" t="inlineStr">
         <is>
